--- a/sdgindex.xlsx
+++ b/sdgindex.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Finn Woelm\Projects\stata-excel-template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB5012C-F422-47FD-A1F2-115B5BC57D0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{108A10F6-77F2-440D-A377-96D51BAE0FD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2505" yWindow="1560" windowWidth="25140" windowHeight="11835" activeTab="3"/>
+    <workbookView xWindow="2505" yWindow="1560" windowWidth="25140" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Overall Results" sheetId="8" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="104">
   <si>
     <t>title</t>
   </si>
@@ -1345,7 +1345,3355 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CAFD747-961D-4958-B282-966AFB409A3E}">
-  <dimension ref="A1:L75"/>
+  <dimension ref="A1:N75"/>
+  <sheetViews>
+    <sheetView tabSelected="true" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="true" ht="27" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" s="3" customFormat="true" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2">
+        <v>4099</v>
+      </c>
+      <c r="C2" s="2">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2">
+        <v>2930</v>
+      </c>
+      <c r="H2" s="2">
+        <v>186</v>
+      </c>
+      <c r="I2" s="2">
+        <v>40</v>
+      </c>
+      <c r="J2" s="2">
+        <v>121</v>
+      </c>
+      <c r="K2" s="2">
+        <v>3.5799999237060547</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" s="3" customFormat="true" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="3">
+        <v>4749</v>
+      </c>
+      <c r="C3" s="3">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2">
+        <v>3350</v>
+      </c>
+      <c r="H3" s="2">
+        <v>173</v>
+      </c>
+      <c r="I3" s="2">
+        <v>40</v>
+      </c>
+      <c r="J3" s="2">
+        <v>258</v>
+      </c>
+      <c r="K3" s="2">
+        <v>2.5299999713897705</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" s="3" customFormat="true" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="3">
+        <v>3799</v>
+      </c>
+      <c r="C4" s="3">
+        <v>22</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2">
+        <v>12</v>
+      </c>
+      <c r="G4" s="2">
+        <v>2640</v>
+      </c>
+      <c r="H4" s="2">
+        <v>168</v>
+      </c>
+      <c r="I4" s="2">
+        <v>35</v>
+      </c>
+      <c r="J4" s="2">
+        <v>121</v>
+      </c>
+      <c r="K4" s="2">
+        <v>3.0799999237060547</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" s="3" customFormat="true" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="3">
+        <v>4816</v>
+      </c>
+      <c r="C5" s="3">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="2">
+        <v>16</v>
+      </c>
+      <c r="G5" s="2">
+        <v>3250</v>
+      </c>
+      <c r="H5" s="2">
+        <v>196</v>
+      </c>
+      <c r="I5" s="2">
+        <v>40</v>
+      </c>
+      <c r="J5" s="2">
+        <v>196</v>
+      </c>
+      <c r="K5" s="2">
+        <v>2.9300000667572021</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" s="3" customFormat="true" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="3">
+        <v>7827</v>
+      </c>
+      <c r="C6" s="3">
+        <v>15</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="2">
+        <v>20</v>
+      </c>
+      <c r="G6" s="2">
+        <v>4080</v>
+      </c>
+      <c r="H6" s="2">
+        <v>222</v>
+      </c>
+      <c r="I6" s="2">
+        <v>43</v>
+      </c>
+      <c r="J6" s="2">
+        <v>350</v>
+      </c>
+      <c r="K6" s="2">
+        <v>2.4100000858306885</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" s="3" customFormat="true" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2">
+        <v>5788</v>
+      </c>
+      <c r="C7" s="3">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="2">
+        <v>21</v>
+      </c>
+      <c r="G7" s="2">
+        <v>3670</v>
+      </c>
+      <c r="H7" s="2">
+        <v>218</v>
+      </c>
+      <c r="I7" s="2">
+        <v>43</v>
+      </c>
+      <c r="J7" s="2">
+        <v>231</v>
+      </c>
+      <c r="K7" s="2">
+        <v>2.7300000190734863</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" s="3" customFormat="true" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="2">
+        <v>4453</v>
+      </c>
+      <c r="C8" s="2">
+        <v>26</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="2">
+        <v>10</v>
+      </c>
+      <c r="G8" s="2">
+        <v>2230</v>
+      </c>
+      <c r="H8" s="2">
+        <v>170</v>
+      </c>
+      <c r="I8" s="2">
+        <v>34</v>
+      </c>
+      <c r="J8" s="2">
+        <v>304</v>
+      </c>
+      <c r="K8" s="2">
+        <v>2.869999885559082</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" s="3" customFormat="true" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="2">
+        <v>5189</v>
+      </c>
+      <c r="C9" s="2">
+        <v>20</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="2">
+        <v>16</v>
+      </c>
+      <c r="G9" s="2">
+        <v>3280</v>
+      </c>
+      <c r="H9" s="2">
+        <v>200</v>
+      </c>
+      <c r="I9" s="2">
+        <v>42</v>
+      </c>
+      <c r="J9" s="2">
+        <v>196</v>
+      </c>
+      <c r="K9" s="2">
+        <v>2.9300000667572021</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" s="3" customFormat="true" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="2">
+        <v>10372</v>
+      </c>
+      <c r="C10" s="2">
+        <v>16</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="2">
+        <v>17</v>
+      </c>
+      <c r="G10" s="2">
+        <v>3880</v>
+      </c>
+      <c r="H10" s="2">
+        <v>207</v>
+      </c>
+      <c r="I10" s="2">
+        <v>43</v>
+      </c>
+      <c r="J10" s="2">
+        <v>231</v>
+      </c>
+      <c r="K10" s="2">
+        <v>2.9300000667572021</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" s="3" customFormat="true" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="2">
+        <v>4082</v>
+      </c>
+      <c r="C11" s="2">
+        <v>19</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="2">
+        <v>13</v>
+      </c>
+      <c r="G11" s="2">
+        <v>3400</v>
+      </c>
+      <c r="H11" s="2">
+        <v>200</v>
+      </c>
+      <c r="I11" s="2">
+        <v>42</v>
+      </c>
+      <c r="J11" s="2">
+        <v>231</v>
+      </c>
+      <c r="K11" s="2">
+        <v>3.0799999237060547</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" s="3" customFormat="true" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="2">
+        <v>11385</v>
+      </c>
+      <c r="C12" s="2">
+        <v>14</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="2">
+        <v>20</v>
+      </c>
+      <c r="G12" s="2">
+        <v>4330</v>
+      </c>
+      <c r="H12" s="2">
+        <v>221</v>
+      </c>
+      <c r="I12" s="2">
+        <v>44</v>
+      </c>
+      <c r="J12" s="2">
+        <v>425</v>
+      </c>
+      <c r="K12" s="2">
+        <v>2.2799999713897705</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" s="3" customFormat="true" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="2">
+        <v>14500</v>
+      </c>
+      <c r="C13" s="2">
+        <v>14</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="2">
+        <v>16</v>
+      </c>
+      <c r="G13" s="2">
+        <v>3900</v>
+      </c>
+      <c r="H13" s="2">
+        <v>204</v>
+      </c>
+      <c r="I13" s="2">
+        <v>43</v>
+      </c>
+      <c r="J13" s="2">
+        <v>350</v>
+      </c>
+      <c r="K13" s="2">
+        <v>2.190000057220459</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" s="3" customFormat="true" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="2">
+        <v>15906</v>
+      </c>
+      <c r="C14" s="2">
+        <v>21</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="2">
+        <v>13</v>
+      </c>
+      <c r="G14" s="2">
+        <v>4290</v>
+      </c>
+      <c r="H14" s="2">
+        <v>204</v>
+      </c>
+      <c r="I14" s="2">
+        <v>45</v>
+      </c>
+      <c r="J14" s="2">
+        <v>350</v>
+      </c>
+      <c r="K14" s="2">
+        <v>2.2400000095367432</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" s="3" customFormat="true" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="2">
+        <v>3299</v>
+      </c>
+      <c r="C15" s="2">
+        <v>29</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="2">
+        <v>9</v>
+      </c>
+      <c r="G15" s="2">
+        <v>2110</v>
+      </c>
+      <c r="H15" s="2">
+        <v>163</v>
+      </c>
+      <c r="I15" s="2">
+        <v>34</v>
+      </c>
+      <c r="J15" s="2">
+        <v>231</v>
+      </c>
+      <c r="K15" s="2">
+        <v>2.9300000667572021</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" s="3" customFormat="true" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="2">
+        <v>5705</v>
+      </c>
+      <c r="C16" s="2">
+        <v>16</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="2">
+        <v>20</v>
+      </c>
+      <c r="G16" s="2">
+        <v>3690</v>
+      </c>
+      <c r="H16" s="2">
+        <v>212</v>
+      </c>
+      <c r="I16" s="2">
+        <v>43</v>
+      </c>
+      <c r="J16" s="2">
+        <v>250</v>
+      </c>
+      <c r="K16" s="2">
+        <v>2.559999942779541</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" s="3" customFormat="true" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="2">
+        <v>4504</v>
+      </c>
+      <c r="C17" s="2">
+        <v>22</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="2">
+        <v>17</v>
+      </c>
+      <c r="G17" s="2">
+        <v>3180</v>
+      </c>
+      <c r="H17" s="2">
+        <v>193</v>
+      </c>
+      <c r="I17" s="2">
+        <v>31</v>
+      </c>
+      <c r="J17" s="2">
+        <v>200</v>
+      </c>
+      <c r="K17" s="2">
+        <v>2.7300000190734863</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" s="3" customFormat="true" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="2">
+        <v>5104</v>
+      </c>
+      <c r="C18" s="2">
+        <v>22</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="2">
+        <v>16</v>
+      </c>
+      <c r="G18" s="2">
+        <v>3220</v>
+      </c>
+      <c r="H18" s="2">
+        <v>200</v>
+      </c>
+      <c r="I18" s="2">
+        <v>41</v>
+      </c>
+      <c r="J18" s="2">
+        <v>200</v>
+      </c>
+      <c r="K18" s="2">
+        <v>2.7300000190734863</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" s="3" customFormat="true" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="2">
+        <v>3667</v>
+      </c>
+      <c r="C19" s="2">
+        <v>24</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="2">
+        <v>7</v>
+      </c>
+      <c r="G19" s="2">
+        <v>2750</v>
+      </c>
+      <c r="H19" s="2">
+        <v>179</v>
+      </c>
+      <c r="I19" s="2">
+        <v>40</v>
+      </c>
+      <c r="J19" s="2">
+        <v>151</v>
+      </c>
+      <c r="K19" s="2">
+        <v>2.7300000190734863</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" s="3" customFormat="true" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="2">
+        <v>3955</v>
+      </c>
+      <c r="C20" s="2">
+        <v>19</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="2">
+        <v>13</v>
+      </c>
+      <c r="G20" s="2">
+        <v>3430</v>
+      </c>
+      <c r="H20" s="2">
+        <v>197</v>
+      </c>
+      <c r="I20" s="2">
+        <v>43</v>
+      </c>
+      <c r="J20" s="2">
+        <v>250</v>
+      </c>
+      <c r="K20" s="2">
+        <v>2.559999942779541</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="2">
+        <v>3984</v>
+      </c>
+      <c r="C21" s="2">
+        <v>30</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="2">
+        <v>8</v>
+      </c>
+      <c r="G21" s="2">
+        <v>2120</v>
+      </c>
+      <c r="H21" s="2">
+        <v>163</v>
+      </c>
+      <c r="I21" s="2">
+        <v>35</v>
+      </c>
+      <c r="J21" s="2">
+        <v>98</v>
+      </c>
+      <c r="K21" s="2">
+        <v>3.5399999618530273</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="2">
+        <v>4010</v>
+      </c>
+      <c r="C22" s="2">
+        <v>18</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="2">
+        <v>17</v>
+      </c>
+      <c r="G22" s="2">
+        <v>3600</v>
+      </c>
+      <c r="H22" s="2">
+        <v>206</v>
+      </c>
+      <c r="I22" s="2">
+        <v>46</v>
+      </c>
+      <c r="J22" s="2">
+        <v>318</v>
+      </c>
+      <c r="K22" s="2">
+        <v>2.4700000286102295</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="2">
+        <v>5886</v>
+      </c>
+      <c r="C23" s="2">
+        <v>16</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="2">
+        <v>17</v>
+      </c>
+      <c r="G23" s="2">
+        <v>3600</v>
+      </c>
+      <c r="H23" s="2">
+        <v>206</v>
+      </c>
+      <c r="I23" s="2">
+        <v>46</v>
+      </c>
+      <c r="J23" s="2">
+        <v>318</v>
+      </c>
+      <c r="K23" s="2">
+        <v>2.4700000286102295</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="2">
+        <v>6342</v>
+      </c>
+      <c r="C24" s="2">
+        <v>17</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="2">
+        <v>21</v>
+      </c>
+      <c r="G24" s="2">
+        <v>3740</v>
+      </c>
+      <c r="H24" s="2">
+        <v>220</v>
+      </c>
+      <c r="I24" s="2">
+        <v>46</v>
+      </c>
+      <c r="J24" s="2">
+        <v>225</v>
+      </c>
+      <c r="K24" s="2">
+        <v>2.940000057220459</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="2">
+        <v>4389</v>
+      </c>
+      <c r="C25" s="2">
+        <v>28</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="2">
+        <v>9</v>
+      </c>
+      <c r="G25" s="2">
+        <v>1800</v>
+      </c>
+      <c r="H25" s="2">
+        <v>147</v>
+      </c>
+      <c r="I25" s="2">
+        <v>33</v>
+      </c>
+      <c r="J25" s="2">
+        <v>98</v>
+      </c>
+      <c r="K25" s="2">
+        <v>3.1500000953674316</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="2">
+        <v>4187</v>
+      </c>
+      <c r="C26" s="2">
+        <v>21</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="2">
+        <v>10</v>
+      </c>
+      <c r="G26" s="2">
+        <v>2650</v>
+      </c>
+      <c r="H26" s="2">
+        <v>179</v>
+      </c>
+      <c r="I26" s="2">
+        <v>43</v>
+      </c>
+      <c r="J26" s="2">
+        <v>140</v>
+      </c>
+      <c r="K26" s="2">
+        <v>3.0799999237060547</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="2">
+        <v>11497</v>
+      </c>
+      <c r="C27" s="2">
+        <v>12</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="2">
+        <v>22</v>
+      </c>
+      <c r="G27" s="2">
+        <v>4840</v>
+      </c>
+      <c r="H27" s="2">
+        <v>233</v>
+      </c>
+      <c r="I27" s="2">
+        <v>51</v>
+      </c>
+      <c r="J27" s="2">
+        <v>400</v>
+      </c>
+      <c r="K27" s="2">
+        <v>2.4700000286102295</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="2">
+        <v>13594</v>
+      </c>
+      <c r="C28" s="2">
+        <v>12</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="2">
+        <v>18</v>
+      </c>
+      <c r="G28" s="2">
+        <v>4720</v>
+      </c>
+      <c r="H28" s="2">
+        <v>230</v>
+      </c>
+      <c r="I28" s="2">
+        <v>48</v>
+      </c>
+      <c r="J28" s="2">
+        <v>400</v>
+      </c>
+      <c r="K28" s="2">
+        <v>2.4700000286102295</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="2">
+        <v>13466</v>
+      </c>
+      <c r="C29" s="2">
+        <v>14</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="2">
+        <v>15</v>
+      </c>
+      <c r="G29" s="2">
+        <v>3830</v>
+      </c>
+      <c r="H29" s="2">
+        <v>201</v>
+      </c>
+      <c r="I29" s="2">
+        <v>41</v>
+      </c>
+      <c r="J29" s="2">
+        <v>302</v>
+      </c>
+      <c r="K29" s="2">
+        <v>2.4700000286102295</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="2">
+        <v>3829</v>
+      </c>
+      <c r="C30" s="2">
+        <v>22</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="2">
+        <v>9</v>
+      </c>
+      <c r="G30" s="2">
+        <v>2580</v>
+      </c>
+      <c r="H30" s="2">
+        <v>169</v>
+      </c>
+      <c r="I30" s="2">
+        <v>39</v>
+      </c>
+      <c r="J30" s="2">
+        <v>140</v>
+      </c>
+      <c r="K30" s="2">
+        <v>2.7300000190734863</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="2">
+        <v>5379</v>
+      </c>
+      <c r="C31" s="2">
+        <v>14</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="2">
+        <v>16</v>
+      </c>
+      <c r="G31" s="2">
+        <v>4060</v>
+      </c>
+      <c r="H31" s="2">
+        <v>221</v>
+      </c>
+      <c r="I31" s="2">
+        <v>48</v>
+      </c>
+      <c r="J31" s="2">
+        <v>302</v>
+      </c>
+      <c r="K31" s="2">
+        <v>2.75</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="2">
+        <v>6165</v>
+      </c>
+      <c r="C32" s="2">
+        <v>15</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="2">
+        <v>23</v>
+      </c>
+      <c r="G32" s="2">
+        <v>3720</v>
+      </c>
+      <c r="H32" s="2">
+        <v>212</v>
+      </c>
+      <c r="I32" s="2">
+        <v>44</v>
+      </c>
+      <c r="J32" s="2">
+        <v>302</v>
+      </c>
+      <c r="K32" s="2">
+        <v>2.2599999904632568</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="2">
+        <v>4516</v>
+      </c>
+      <c r="C33" s="2">
+        <v>18</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="2">
+        <v>15</v>
+      </c>
+      <c r="G33" s="2">
+        <v>3370</v>
+      </c>
+      <c r="H33" s="2">
+        <v>198</v>
+      </c>
+      <c r="I33" s="2">
+        <v>41</v>
+      </c>
+      <c r="J33" s="2">
+        <v>250</v>
+      </c>
+      <c r="K33" s="2">
+        <v>2.4300000667572021</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="2">
+        <v>6303</v>
+      </c>
+      <c r="C34" s="2">
+        <v>14</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="2">
+        <v>16</v>
+      </c>
+      <c r="G34" s="2">
+        <v>4130</v>
+      </c>
+      <c r="H34" s="2">
+        <v>217</v>
+      </c>
+      <c r="I34" s="2">
+        <v>45</v>
+      </c>
+      <c r="J34" s="2">
+        <v>302</v>
+      </c>
+      <c r="K34" s="2">
+        <v>2.75</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" s="2">
+        <v>3291</v>
+      </c>
+      <c r="C35" s="2">
+        <v>20</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="2">
+        <v>17</v>
+      </c>
+      <c r="G35" s="2">
+        <v>2830</v>
+      </c>
+      <c r="H35" s="2">
+        <v>195</v>
+      </c>
+      <c r="I35" s="2">
+        <v>43</v>
+      </c>
+      <c r="J35" s="2">
+        <v>140</v>
+      </c>
+      <c r="K35" s="2">
+        <v>3.0799999237060547</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" s="2">
+        <v>8814</v>
+      </c>
+      <c r="C36" s="2">
+        <v>21</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="2">
+        <v>20</v>
+      </c>
+      <c r="G36" s="2">
+        <v>4060</v>
+      </c>
+      <c r="H36" s="2">
+        <v>220</v>
+      </c>
+      <c r="I36" s="2">
+        <v>43</v>
+      </c>
+      <c r="J36" s="2">
+        <v>350</v>
+      </c>
+      <c r="K36" s="2">
+        <v>2.4100000858306885</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" s="2">
+        <v>5172</v>
+      </c>
+      <c r="C37" s="2">
+        <v>19</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="2">
+        <v>16</v>
+      </c>
+      <c r="G37" s="2">
+        <v>3310</v>
+      </c>
+      <c r="H37" s="2">
+        <v>198</v>
+      </c>
+      <c r="I37" s="2">
+        <v>42</v>
+      </c>
+      <c r="J37" s="2">
+        <v>231</v>
+      </c>
+      <c r="K37" s="2">
+        <v>2.9300000667572021</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" s="2">
+        <v>4733</v>
+      </c>
+      <c r="C38" s="2">
+        <v>19</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="2">
+        <v>16</v>
+      </c>
+      <c r="G38" s="2">
+        <v>3300</v>
+      </c>
+      <c r="H38" s="2">
+        <v>198</v>
+      </c>
+      <c r="I38" s="2">
+        <v>42</v>
+      </c>
+      <c r="J38" s="2">
+        <v>231</v>
+      </c>
+      <c r="K38" s="2">
+        <v>2.9300000667572021</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" s="2">
+        <v>4890</v>
+      </c>
+      <c r="C39" s="2">
+        <v>18</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" s="2">
+        <v>20</v>
+      </c>
+      <c r="G39" s="2">
+        <v>3690</v>
+      </c>
+      <c r="H39" s="2">
+        <v>218</v>
+      </c>
+      <c r="I39" s="2">
+        <v>42</v>
+      </c>
+      <c r="J39" s="2">
+        <v>231</v>
+      </c>
+      <c r="K39" s="2">
+        <v>2.7300000190734863</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" s="2">
+        <v>4181</v>
+      </c>
+      <c r="C40" s="2">
+        <v>19</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" s="2">
+        <v>14</v>
+      </c>
+      <c r="G40" s="2">
+        <v>3370</v>
+      </c>
+      <c r="H40" s="2">
+        <v>200</v>
+      </c>
+      <c r="I40" s="2">
+        <v>43</v>
+      </c>
+      <c r="J40" s="2">
+        <v>231</v>
+      </c>
+      <c r="K40" s="2">
+        <v>3.0799999237060547</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B41" s="2">
+        <v>4195</v>
+      </c>
+      <c r="C41" s="2">
+        <v>24</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" s="2">
+        <v>10</v>
+      </c>
+      <c r="G41" s="2">
+        <v>2730</v>
+      </c>
+      <c r="H41" s="2">
+        <v>180</v>
+      </c>
+      <c r="I41" s="2">
+        <v>40</v>
+      </c>
+      <c r="J41" s="2">
+        <v>151</v>
+      </c>
+      <c r="K41" s="2">
+        <v>2.7300000190734863</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" s="2">
+        <v>10371</v>
+      </c>
+      <c r="C42" s="2">
+        <v>16</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" s="2">
+        <v>17</v>
+      </c>
+      <c r="G42" s="2">
+        <v>4030</v>
+      </c>
+      <c r="H42" s="2">
+        <v>206</v>
+      </c>
+      <c r="I42" s="2">
+        <v>43</v>
+      </c>
+      <c r="J42" s="2">
+        <v>350</v>
+      </c>
+      <c r="K42" s="2">
+        <v>2.4100000858306885</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" s="2">
+        <v>4647</v>
+      </c>
+      <c r="C43" s="2">
+        <v>28</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" s="2">
+        <v>11</v>
+      </c>
+      <c r="G43" s="2">
+        <v>3260</v>
+      </c>
+      <c r="H43" s="2">
+        <v>170</v>
+      </c>
+      <c r="I43" s="2">
+        <v>37</v>
+      </c>
+      <c r="J43" s="2">
+        <v>156</v>
+      </c>
+      <c r="K43" s="2">
+        <v>3.0499999523162842</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" s="2">
+        <v>4425</v>
+      </c>
+      <c r="C44" s="2">
+        <v>34</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" s="2">
+        <v>11</v>
+      </c>
+      <c r="G44" s="2">
+        <v>1800</v>
+      </c>
+      <c r="H44" s="2">
+        <v>157</v>
+      </c>
+      <c r="I44" s="2">
+        <v>37</v>
+      </c>
+      <c r="J44" s="2">
+        <v>86</v>
+      </c>
+      <c r="K44" s="2">
+        <v>2.9700000286102295</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N44" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" s="2">
+        <v>4482</v>
+      </c>
+      <c r="C45" s="2">
+        <v>25</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="2">
+        <v>17</v>
+      </c>
+      <c r="G45" s="2">
+        <v>2200</v>
+      </c>
+      <c r="H45" s="2">
+        <v>165</v>
+      </c>
+      <c r="I45" s="2">
+        <v>36</v>
+      </c>
+      <c r="J45" s="2">
+        <v>105</v>
+      </c>
+      <c r="K45" s="2">
+        <v>3.369999885559082</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N45" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B46" s="2">
+        <v>6486</v>
+      </c>
+      <c r="C46" s="2">
+        <v>26</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" s="2">
+        <v>8</v>
+      </c>
+      <c r="G46" s="2">
+        <v>2520</v>
+      </c>
+      <c r="H46" s="2">
+        <v>182</v>
+      </c>
+      <c r="I46" s="2">
+        <v>38</v>
+      </c>
+      <c r="J46" s="2">
+        <v>119</v>
+      </c>
+      <c r="K46" s="2">
+        <v>3.5399999618530273</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B47" s="2">
+        <v>4060</v>
+      </c>
+      <c r="C47" s="2">
+        <v>18</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F47" s="2">
+        <v>16</v>
+      </c>
+      <c r="G47" s="2">
+        <v>3330</v>
+      </c>
+      <c r="H47" s="2">
+        <v>201</v>
+      </c>
+      <c r="I47" s="2">
+        <v>44</v>
+      </c>
+      <c r="J47" s="2">
+        <v>225</v>
+      </c>
+      <c r="K47" s="2">
+        <v>3.2300000190734863</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B48" s="2">
+        <v>5798</v>
+      </c>
+      <c r="C48" s="2">
+        <v>18</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" s="2">
+        <v>20</v>
+      </c>
+      <c r="G48" s="2">
+        <v>3700</v>
+      </c>
+      <c r="H48" s="2">
+        <v>214</v>
+      </c>
+      <c r="I48" s="2">
+        <v>42</v>
+      </c>
+      <c r="J48" s="2">
+        <v>231</v>
+      </c>
+      <c r="K48" s="2">
+        <v>2.7300000190734863</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N48" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B49" s="2">
+        <v>4934</v>
+      </c>
+      <c r="C49" s="2">
+        <v>18</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" s="2">
+        <v>7</v>
+      </c>
+      <c r="G49" s="2">
+        <v>3470</v>
+      </c>
+      <c r="H49" s="2">
+        <v>198</v>
+      </c>
+      <c r="I49" s="2">
+        <v>42</v>
+      </c>
+      <c r="J49" s="2">
+        <v>231</v>
+      </c>
+      <c r="K49" s="2">
+        <v>3.0799999237060547</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N49" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B50" s="2">
+        <v>5222</v>
+      </c>
+      <c r="C50" s="2">
+        <v>19</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" s="2">
+        <v>16</v>
+      </c>
+      <c r="G50" s="2">
+        <v>3210</v>
+      </c>
+      <c r="H50" s="2">
+        <v>201</v>
+      </c>
+      <c r="I50" s="2">
+        <v>45</v>
+      </c>
+      <c r="J50" s="2">
+        <v>231</v>
+      </c>
+      <c r="K50" s="2">
+        <v>2.9300000667572021</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N50" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B51" s="2">
+        <v>4723</v>
+      </c>
+      <c r="C51" s="2">
+        <v>19</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" s="2">
+        <v>17</v>
+      </c>
+      <c r="G51" s="2">
+        <v>3200</v>
+      </c>
+      <c r="H51" s="2">
+        <v>199</v>
+      </c>
+      <c r="I51" s="2">
+        <v>40</v>
+      </c>
+      <c r="J51" s="2">
+        <v>231</v>
+      </c>
+      <c r="K51" s="2">
+        <v>2.9300000667572021</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N51" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B52" s="2">
+        <v>4424</v>
+      </c>
+      <c r="C52" s="2">
+        <v>19</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" s="2">
+        <v>13</v>
+      </c>
+      <c r="G52" s="2">
+        <v>3420</v>
+      </c>
+      <c r="H52" s="2">
+        <v>203</v>
+      </c>
+      <c r="I52" s="2">
+        <v>43</v>
+      </c>
+      <c r="J52" s="2">
+        <v>231</v>
+      </c>
+      <c r="K52" s="2">
+        <v>3.0799999237060547</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="N52" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B53" s="2">
+        <v>4172</v>
+      </c>
+      <c r="C53" s="2">
+        <v>24</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53" s="2">
+        <v>7</v>
+      </c>
+      <c r="G53" s="2">
+        <v>2690</v>
+      </c>
+      <c r="H53" s="2">
+        <v>179</v>
+      </c>
+      <c r="I53" s="2">
+        <v>41</v>
+      </c>
+      <c r="J53" s="2">
+        <v>151</v>
+      </c>
+      <c r="K53" s="2">
+        <v>2.7300000190734863</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N53" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B54" s="2">
+        <v>9690</v>
+      </c>
+      <c r="C54" s="2">
+        <v>17</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" s="2">
+        <v>15</v>
+      </c>
+      <c r="G54" s="2">
+        <v>2830</v>
+      </c>
+      <c r="H54" s="2">
+        <v>189</v>
+      </c>
+      <c r="I54" s="2">
+        <v>37</v>
+      </c>
+      <c r="J54" s="2">
+        <v>131</v>
+      </c>
+      <c r="K54" s="2">
+        <v>3.2000000476837158</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N54" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B55" s="2">
+        <v>6295</v>
+      </c>
+      <c r="C55" s="2">
+        <v>23</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55" s="2">
+        <v>11</v>
+      </c>
+      <c r="G55" s="2">
+        <v>2070</v>
+      </c>
+      <c r="H55" s="2">
+        <v>174</v>
+      </c>
+      <c r="I55" s="2">
+        <v>36</v>
+      </c>
+      <c r="J55" s="2">
+        <v>97</v>
+      </c>
+      <c r="K55" s="2">
+        <v>3.7000000476837158</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N55" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B56" s="2">
+        <v>9735</v>
+      </c>
+      <c r="C56" s="2">
+        <v>25</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56" s="2">
+        <v>12</v>
+      </c>
+      <c r="G56" s="2">
+        <v>2650</v>
+      </c>
+      <c r="H56" s="2">
+        <v>177</v>
+      </c>
+      <c r="I56" s="2">
+        <v>34</v>
+      </c>
+      <c r="J56" s="2">
+        <v>121</v>
+      </c>
+      <c r="K56" s="2">
+        <v>3.6400001049041748</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N56" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B57" s="2">
+        <v>6229</v>
+      </c>
+      <c r="C57" s="2">
+        <v>23</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F57" s="2">
+        <v>6</v>
+      </c>
+      <c r="G57" s="2">
+        <v>2370</v>
+      </c>
+      <c r="H57" s="2">
+        <v>170</v>
+      </c>
+      <c r="I57" s="2">
+        <v>35</v>
+      </c>
+      <c r="J57" s="2">
+        <v>119</v>
+      </c>
+      <c r="K57" s="2">
+        <v>3.8900001049041748</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N57" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B58" s="2">
+        <v>4589</v>
+      </c>
+      <c r="C58" s="2">
+        <v>35</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58" s="2">
+        <v>8</v>
+      </c>
+      <c r="G58" s="2">
+        <v>2020</v>
+      </c>
+      <c r="H58" s="2">
+        <v>165</v>
+      </c>
+      <c r="I58" s="2">
+        <v>32</v>
+      </c>
+      <c r="J58" s="2">
+        <v>85</v>
+      </c>
+      <c r="K58" s="2">
+        <v>3.7000000476837158</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N58" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B59" s="2">
+        <v>5079</v>
+      </c>
+      <c r="C59" s="2">
+        <v>24</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" s="2">
+        <v>8</v>
+      </c>
+      <c r="G59" s="2">
+        <v>2280</v>
+      </c>
+      <c r="H59" s="2">
+        <v>170</v>
+      </c>
+      <c r="I59" s="2">
+        <v>34</v>
+      </c>
+      <c r="J59" s="2">
+        <v>119</v>
+      </c>
+      <c r="K59" s="2">
+        <v>3.5399999618530273</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M59" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N59" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B60" s="2">
+        <v>8129</v>
+      </c>
+      <c r="C60" s="2">
+        <v>21</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" s="2">
+        <v>8</v>
+      </c>
+      <c r="G60" s="2">
+        <v>2750</v>
+      </c>
+      <c r="H60" s="2">
+        <v>184</v>
+      </c>
+      <c r="I60" s="2">
+        <v>38</v>
+      </c>
+      <c r="J60" s="2">
+        <v>146</v>
+      </c>
+      <c r="K60" s="2">
+        <v>3.5499999523162842</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M60" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N60" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B61" s="2">
+        <v>4296</v>
+      </c>
+      <c r="C61" s="2">
+        <v>21</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" s="2">
+        <v>16</v>
+      </c>
+      <c r="G61" s="2">
+        <v>2130</v>
+      </c>
+      <c r="H61" s="2">
+        <v>161</v>
+      </c>
+      <c r="I61" s="2">
+        <v>36</v>
+      </c>
+      <c r="J61" s="2">
+        <v>105</v>
+      </c>
+      <c r="K61" s="2">
+        <v>3.369999885559082</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M61" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N61" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B62" s="2">
+        <v>5799</v>
+      </c>
+      <c r="C62" s="2">
+        <v>25</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" s="2">
+        <v>10</v>
+      </c>
+      <c r="G62" s="2">
+        <v>2240</v>
+      </c>
+      <c r="H62" s="2">
+        <v>172</v>
+      </c>
+      <c r="I62" s="2">
+        <v>36</v>
+      </c>
+      <c r="J62" s="2">
+        <v>107</v>
+      </c>
+      <c r="K62" s="2">
+        <v>3.0499999523162842</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M62" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N62" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B63" s="2">
+        <v>4499</v>
+      </c>
+      <c r="C63" s="2">
+        <v>28</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63" s="2">
+        <v>5</v>
+      </c>
+      <c r="G63" s="2">
+        <v>1760</v>
+      </c>
+      <c r="H63" s="2">
+        <v>149</v>
+      </c>
+      <c r="I63" s="2">
+        <v>34</v>
+      </c>
+      <c r="J63" s="2">
+        <v>91</v>
+      </c>
+      <c r="K63" s="2">
+        <v>3.2999999523162842</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M63" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N63" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B64" s="2">
+        <v>3995</v>
+      </c>
+      <c r="C64" s="2">
+        <v>30</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F64" s="2">
+        <v>11</v>
+      </c>
+      <c r="G64" s="2">
+        <v>1980</v>
+      </c>
+      <c r="H64" s="2">
+        <v>154</v>
+      </c>
+      <c r="I64" s="2">
+        <v>33</v>
+      </c>
+      <c r="J64" s="2">
+        <v>86</v>
+      </c>
+      <c r="K64" s="2">
+        <v>3.7300000190734863</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M64" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N64" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B65" s="2">
+        <v>12990</v>
+      </c>
+      <c r="C65" s="2">
+        <v>14</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65" s="2">
+        <v>14</v>
+      </c>
+      <c r="G65" s="2">
+        <v>3420</v>
+      </c>
+      <c r="H65" s="2">
+        <v>192</v>
+      </c>
+      <c r="I65" s="2">
+        <v>38</v>
+      </c>
+      <c r="J65" s="2">
+        <v>163</v>
+      </c>
+      <c r="K65" s="2">
+        <v>3.5799999237060547</v>
+      </c>
+      <c r="L65" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M65" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="N65" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B66" s="2">
+        <v>3895</v>
+      </c>
+      <c r="C66" s="2">
+        <v>26</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66" s="2">
+        <v>10</v>
+      </c>
+      <c r="G66" s="2">
+        <v>1830</v>
+      </c>
+      <c r="H66" s="2">
+        <v>142</v>
+      </c>
+      <c r="I66" s="2">
+        <v>34</v>
+      </c>
+      <c r="J66" s="2">
+        <v>79</v>
+      </c>
+      <c r="K66" s="2">
+        <v>3.7200000286102295</v>
+      </c>
+      <c r="L66" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M66" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N66" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B67" s="2">
+        <v>3798</v>
+      </c>
+      <c r="C67" s="2">
+        <v>35</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F67" s="2">
+        <v>11</v>
+      </c>
+      <c r="G67" s="2">
+        <v>2050</v>
+      </c>
+      <c r="H67" s="2">
+        <v>164</v>
+      </c>
+      <c r="I67" s="2">
+        <v>36</v>
+      </c>
+      <c r="J67" s="2">
+        <v>97</v>
+      </c>
+      <c r="K67" s="2">
+        <v>3.809999942779541</v>
+      </c>
+      <c r="L67" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M67" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N67" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B68" s="2">
+        <v>5899</v>
+      </c>
+      <c r="C68" s="2">
+        <v>18</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F68" s="2">
+        <v>14</v>
+      </c>
+      <c r="G68" s="2">
+        <v>2410</v>
+      </c>
+      <c r="H68" s="2">
+        <v>174</v>
+      </c>
+      <c r="I68" s="2">
+        <v>36</v>
+      </c>
+      <c r="J68" s="2">
+        <v>134</v>
+      </c>
+      <c r="K68" s="2">
+        <v>3.059999942779541</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M68" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N68" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B69" s="2">
+        <v>3748</v>
+      </c>
+      <c r="C69" s="2">
+        <v>31</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F69" s="2">
+        <v>9</v>
+      </c>
+      <c r="G69" s="2">
+        <v>2200</v>
+      </c>
+      <c r="H69" s="2">
+        <v>165</v>
+      </c>
+      <c r="I69" s="2">
+        <v>35</v>
+      </c>
+      <c r="J69" s="2">
+        <v>97</v>
+      </c>
+      <c r="K69" s="2">
+        <v>3.2100000381469727</v>
+      </c>
+      <c r="L69" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M69" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N69" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B70" s="2">
+        <v>5719</v>
+      </c>
+      <c r="C70" s="2">
+        <v>18</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F70" s="2">
+        <v>11</v>
+      </c>
+      <c r="G70" s="2">
+        <v>2670</v>
+      </c>
+      <c r="H70" s="2">
+        <v>175</v>
+      </c>
+      <c r="I70" s="2">
+        <v>36</v>
+      </c>
+      <c r="J70" s="2">
+        <v>134</v>
+      </c>
+      <c r="K70" s="2">
+        <v>3.0499999523162842</v>
+      </c>
+      <c r="L70" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M70" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N70" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B71" s="2">
+        <v>7140</v>
+      </c>
+      <c r="C71" s="2">
+        <v>23</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F71" s="2">
+        <v>12</v>
+      </c>
+      <c r="G71" s="2">
+        <v>2160</v>
+      </c>
+      <c r="H71" s="2">
+        <v>172</v>
+      </c>
+      <c r="I71" s="2">
+        <v>36</v>
+      </c>
+      <c r="J71" s="2">
+        <v>97</v>
+      </c>
+      <c r="K71" s="2">
+        <v>3.7400000095367432</v>
+      </c>
+      <c r="L71" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M71" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N71" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B72" s="2">
+        <v>5397</v>
+      </c>
+      <c r="C72" s="2">
+        <v>41</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F72" s="2">
+        <v>15</v>
+      </c>
+      <c r="G72" s="2">
+        <v>2040</v>
+      </c>
+      <c r="H72" s="2">
+        <v>155</v>
+      </c>
+      <c r="I72" s="2">
+        <v>35</v>
+      </c>
+      <c r="J72" s="2">
+        <v>90</v>
+      </c>
+      <c r="K72" s="2">
+        <v>3.7799999713897705</v>
+      </c>
+      <c r="L72" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M72" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N72" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B73" s="2">
+        <v>4697</v>
+      </c>
+      <c r="C73" s="2">
+        <v>25</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F73" s="2">
+        <v>15</v>
+      </c>
+      <c r="G73" s="2">
+        <v>1930</v>
+      </c>
+      <c r="H73" s="2">
+        <v>155</v>
+      </c>
+      <c r="I73" s="2">
+        <v>35</v>
+      </c>
+      <c r="J73" s="2">
+        <v>89</v>
+      </c>
+      <c r="K73" s="2">
+        <v>3.7799999713897705</v>
+      </c>
+      <c r="L73" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M73" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N73" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B74" s="2">
+        <v>6850</v>
+      </c>
+      <c r="C74" s="2">
+        <v>25</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F74" s="2">
+        <v>16</v>
+      </c>
+      <c r="G74" s="2">
+        <v>1990</v>
+      </c>
+      <c r="H74" s="2">
+        <v>156</v>
+      </c>
+      <c r="I74" s="2">
+        <v>36</v>
+      </c>
+      <c r="J74" s="2">
+        <v>97</v>
+      </c>
+      <c r="K74" s="2">
+        <v>3.7799999713897705</v>
+      </c>
+      <c r="L74" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M74" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N74" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B75" s="2">
+        <v>11995</v>
+      </c>
+      <c r="C75" s="2">
+        <v>17</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F75" s="2">
+        <v>14</v>
+      </c>
+      <c r="G75" s="2">
+        <v>3170</v>
+      </c>
+      <c r="H75" s="2">
+        <v>193</v>
+      </c>
+      <c r="I75" s="2">
+        <v>37</v>
+      </c>
+      <c r="J75" s="2">
+        <v>163</v>
+      </c>
+      <c r="K75" s="2">
+        <v>2.9800000190734863</v>
+      </c>
+      <c r="L75" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M75" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N75" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:ZZ1048576 AAA1:XFD1">
+    <cfRule type="containsText" dxfId="26" priority="1" operator="containsText" text="↓">
+      <formula>NOT(ISERROR(SEARCH("↓",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="2" operator="containsText" text="→">
+      <formula>NOT(ISERROR(SEARCH("→",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="3" operator="containsText" text="➚">
+      <formula>NOT(ISERROR(SEARCH("➚",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="23" priority="4" operator="containsText" text="↑">
+      <formula>NOT(ISERROR(SEARCH("↑",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="5" operator="containsText" text="gray">
+      <formula>NOT(ISERROR(SEARCH("gray",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="6" operator="containsText" text="orange">
+      <formula>NOT(ISERROR(SEARCH("orange",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="7" operator="containsText" text="yellow">
+      <formula>NOT(ISERROR(SEARCH("yellow",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="8" operator="containsText" text="red">
+      <formula>NOT(ISERROR(SEARCH("red",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="9" operator="containsText" text="green">
+      <formula>NOT(ISERROR(SEARCH("green",A1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3AF4C6E-3E65-4E26-AFB9-A800448A3220}">
+  <dimension ref="A1:N75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
@@ -1393,6 +4741,12 @@
       <c r="L1" s="2" t="s">
         <v>101</v>
       </c>
+      <c r="M1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="2" s="3" customFormat="true" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -1431,6 +4785,12 @@
       <c r="L2" s="2" t="s">
         <v>102</v>
       </c>
+      <c r="M2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" s="3" customFormat="true" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -1469,6 +4829,12 @@
       <c r="L3" s="2" t="s">
         <v>102</v>
       </c>
+      <c r="M3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" s="3" customFormat="true" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -1507,6 +4873,12 @@
       <c r="L4" s="2" t="s">
         <v>102</v>
       </c>
+      <c r="M4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" s="3" customFormat="true" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -1545,6 +4917,12 @@
       <c r="L5" s="2" t="s">
         <v>102</v>
       </c>
+      <c r="M5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" s="3" customFormat="true" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -1583,6 +4961,12 @@
       <c r="L6" s="2" t="s">
         <v>102</v>
       </c>
+      <c r="M6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="7" s="3" customFormat="true" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -1621,6 +5005,12 @@
       <c r="L7" s="2" t="s">
         <v>102</v>
       </c>
+      <c r="M7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="8" s="3" customFormat="true" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -1659,6 +5049,12 @@
       <c r="L8" s="2" t="s">
         <v>102</v>
       </c>
+      <c r="M8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" s="3" customFormat="true" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -1697,6 +5093,12 @@
       <c r="L9" s="2" t="s">
         <v>102</v>
       </c>
+      <c r="M9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="10" s="3" customFormat="true" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -1735,6 +5137,12 @@
       <c r="L10" s="2" t="s">
         <v>102</v>
       </c>
+      <c r="M10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" s="3" customFormat="true" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -1773,6 +5181,12 @@
       <c r="L11" s="2" t="s">
         <v>102</v>
       </c>
+      <c r="M11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" s="3" customFormat="true" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -1811,6 +5225,12 @@
       <c r="L12" s="2" t="s">
         <v>102</v>
       </c>
+      <c r="M12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="13" s="3" customFormat="true" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -1849,6 +5269,12 @@
       <c r="L13" s="2" t="s">
         <v>102</v>
       </c>
+      <c r="M13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" s="3" customFormat="true" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -1887,6 +5313,12 @@
       <c r="L14" s="2" t="s">
         <v>102</v>
       </c>
+      <c r="M14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" s="3" customFormat="true" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -1925,6 +5357,12 @@
       <c r="L15" s="2" t="s">
         <v>102</v>
       </c>
+      <c r="M15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="16" s="3" customFormat="true" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -1963,6 +5401,12 @@
       <c r="L16" s="2" t="s">
         <v>102</v>
       </c>
+      <c r="M16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="17" s="3" customFormat="true" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
@@ -2001,6 +5445,12 @@
       <c r="L17" s="2" t="s">
         <v>102</v>
       </c>
+      <c r="M17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="18" s="3" customFormat="true" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
@@ -2039,6 +5489,12 @@
       <c r="L18" s="2" t="s">
         <v>102</v>
       </c>
+      <c r="M18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="19" s="3" customFormat="true" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
@@ -2077,6 +5533,12 @@
       <c r="L19" s="2" t="s">
         <v>102</v>
       </c>
+      <c r="M19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="20" s="3" customFormat="true" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
@@ -2115,6 +5577,12 @@
       <c r="L20" s="2" t="s">
         <v>102</v>
       </c>
+      <c r="M20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
@@ -2153,6 +5621,12 @@
       <c r="L21" s="2" t="s">
         <v>102</v>
       </c>
+      <c r="M21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
@@ -2191,6 +5665,12 @@
       <c r="L22" s="2" t="s">
         <v>102</v>
       </c>
+      <c r="M22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
@@ -2229,6 +5709,12 @@
       <c r="L23" s="2" t="s">
         <v>102</v>
       </c>
+      <c r="M23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
@@ -2267,6 +5753,12 @@
       <c r="L24" s="2" t="s">
         <v>102</v>
       </c>
+      <c r="M24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
@@ -2305,6 +5797,12 @@
       <c r="L25" s="2" t="s">
         <v>102</v>
       </c>
+      <c r="M25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
@@ -2343,6 +5841,12 @@
       <c r="L26" s="2" t="s">
         <v>102</v>
       </c>
+      <c r="M26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
@@ -2381,6 +5885,12 @@
       <c r="L27" s="2" t="s">
         <v>102</v>
       </c>
+      <c r="M27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
@@ -2419,6 +5929,12 @@
       <c r="L28" s="2" t="s">
         <v>102</v>
       </c>
+      <c r="M28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
@@ -2457,6 +5973,12 @@
       <c r="L29" s="2" t="s">
         <v>102</v>
       </c>
+      <c r="M29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
@@ -2495,6 +6017,12 @@
       <c r="L30" s="2" t="s">
         <v>102</v>
       </c>
+      <c r="M30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
@@ -2533,6 +6061,12 @@
       <c r="L31" s="2" t="s">
         <v>102</v>
       </c>
+      <c r="M31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
@@ -2571,6 +6105,12 @@
       <c r="L32" s="2" t="s">
         <v>102</v>
       </c>
+      <c r="M32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
@@ -2609,6 +6149,12 @@
       <c r="L33" s="2" t="s">
         <v>102</v>
       </c>
+      <c r="M33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
@@ -2647,6 +6193,12 @@
       <c r="L34" s="2" t="s">
         <v>102</v>
       </c>
+      <c r="M34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
@@ -2685,6 +6237,12 @@
       <c r="L35" s="2" t="s">
         <v>102</v>
       </c>
+      <c r="M35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
@@ -2723,6 +6281,12 @@
       <c r="L36" s="2" t="s">
         <v>102</v>
       </c>
+      <c r="M36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
@@ -2761,6 +6325,12 @@
       <c r="L37" s="2" t="s">
         <v>102</v>
       </c>
+      <c r="M37" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
@@ -2799,6 +6369,12 @@
       <c r="L38" s="2" t="s">
         <v>102</v>
       </c>
+      <c r="M38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
@@ -2837,6 +6413,12 @@
       <c r="L39" s="2" t="s">
         <v>102</v>
       </c>
+      <c r="M39" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
@@ -2875,6 +6457,12 @@
       <c r="L40" s="2" t="s">
         <v>102</v>
       </c>
+      <c r="M40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
@@ -2913,6 +6501,12 @@
       <c r="L41" s="2" t="s">
         <v>102</v>
       </c>
+      <c r="M41" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
@@ -2951,6 +6545,12 @@
       <c r="L42" s="2" t="s">
         <v>102</v>
       </c>
+      <c r="M42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
@@ -2989,6 +6589,12 @@
       <c r="L43" s="2" t="s">
         <v>102</v>
       </c>
+      <c r="M43" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
@@ -3027,6 +6633,12 @@
       <c r="L44" s="2" t="s">
         <v>102</v>
       </c>
+      <c r="M44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N44" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
@@ -3065,6 +6677,12 @@
       <c r="L45" s="2" t="s">
         <v>102</v>
       </c>
+      <c r="M45" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N45" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
@@ -3103,6 +6721,12 @@
       <c r="L46" s="2" t="s">
         <v>102</v>
       </c>
+      <c r="M46" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
@@ -3141,6 +6765,12 @@
       <c r="L47" s="2" t="s">
         <v>102</v>
       </c>
+      <c r="M47" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
@@ -3179,6 +6809,12 @@
       <c r="L48" s="2" t="s">
         <v>102</v>
       </c>
+      <c r="M48" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N48" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
@@ -3217,6 +6853,12 @@
       <c r="L49" s="2" t="s">
         <v>102</v>
       </c>
+      <c r="M49" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N49" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
@@ -3255,6 +6897,12 @@
       <c r="L50" s="2" t="s">
         <v>102</v>
       </c>
+      <c r="M50" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N50" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
@@ -3293,6 +6941,12 @@
       <c r="L51" s="2" t="s">
         <v>102</v>
       </c>
+      <c r="M51" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N51" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
@@ -3331,6 +6985,12 @@
       <c r="L52" s="2" t="s">
         <v>102</v>
       </c>
+      <c r="M52" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="N52" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
@@ -3369,6 +7029,12 @@
       <c r="L53" s="2" t="s">
         <v>102</v>
       </c>
+      <c r="M53" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N53" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
@@ -3407,6 +7073,12 @@
       <c r="L54" s="2" t="s">
         <v>103</v>
       </c>
+      <c r="M54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N54" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
@@ -3445,6 +7117,12 @@
       <c r="L55" s="2" t="s">
         <v>103</v>
       </c>
+      <c r="M55" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N55" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
@@ -3483,6 +7161,12 @@
       <c r="L56" s="2" t="s">
         <v>103</v>
       </c>
+      <c r="M56" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N56" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
@@ -3521,6 +7205,12 @@
       <c r="L57" s="2" t="s">
         <v>103</v>
       </c>
+      <c r="M57" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N57" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
@@ -3559,6 +7249,12 @@
       <c r="L58" s="2" t="s">
         <v>103</v>
       </c>
+      <c r="M58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N58" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
@@ -3597,6 +7293,12 @@
       <c r="L59" s="2" t="s">
         <v>103</v>
       </c>
+      <c r="M59" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N59" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
@@ -3635,6 +7337,12 @@
       <c r="L60" s="2" t="s">
         <v>103</v>
       </c>
+      <c r="M60" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N60" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
@@ -3673,6 +7381,12 @@
       <c r="L61" s="2" t="s">
         <v>103</v>
       </c>
+      <c r="M61" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N61" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
@@ -3711,6 +7425,12 @@
       <c r="L62" s="2" t="s">
         <v>103</v>
       </c>
+      <c r="M62" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N62" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
@@ -3749,6 +7469,12 @@
       <c r="L63" s="2" t="s">
         <v>103</v>
       </c>
+      <c r="M63" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N63" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
@@ -3787,6 +7513,12 @@
       <c r="L64" s="2" t="s">
         <v>103</v>
       </c>
+      <c r="M64" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N64" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
@@ -3825,6 +7557,12 @@
       <c r="L65" s="2" t="s">
         <v>103</v>
       </c>
+      <c r="M65" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="N65" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
@@ -3863,6 +7601,12 @@
       <c r="L66" s="2" t="s">
         <v>103</v>
       </c>
+      <c r="M66" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N66" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
@@ -3901,6 +7645,12 @@
       <c r="L67" s="2" t="s">
         <v>103</v>
       </c>
+      <c r="M67" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N67" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
@@ -3939,6 +7689,12 @@
       <c r="L68" s="2" t="s">
         <v>103</v>
       </c>
+      <c r="M68" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N68" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
@@ -3977,6 +7733,12 @@
       <c r="L69" s="2" t="s">
         <v>103</v>
       </c>
+      <c r="M69" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N69" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
@@ -4015,6 +7777,12 @@
       <c r="L70" s="2" t="s">
         <v>103</v>
       </c>
+      <c r="M70" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N70" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
@@ -4053,6 +7821,12 @@
       <c r="L71" s="2" t="s">
         <v>103</v>
       </c>
+      <c r="M71" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N71" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
@@ -4091,6 +7865,12 @@
       <c r="L72" s="2" t="s">
         <v>103</v>
       </c>
+      <c r="M72" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N72" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
@@ -4129,6 +7909,12 @@
       <c r="L73" s="2" t="s">
         <v>103</v>
       </c>
+      <c r="M73" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N73" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
@@ -4167,6 +7953,12 @@
       <c r="L74" s="2" t="s">
         <v>103</v>
       </c>
+      <c r="M74" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N74" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
@@ -4204,6 +7996,12 @@
       </c>
       <c r="L75" s="2" t="s">
         <v>103</v>
+      </c>
+      <c r="M75" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N75" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -4233,2904 +8031,6 @@
       <formula>NOT(ISERROR(SEARCH("red",A1)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="green">
-      <formula>NOT(ISERROR(SEARCH("green",A1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3AF4C6E-3E65-4E26-AFB9-A800448A3220}">
-  <dimension ref="A1:L75"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="true" ht="27" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" s="3" customFormat="true" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="2">
-        <v>4099</v>
-      </c>
-      <c r="C2" s="2">
-        <v>22</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2">
-        <v>11</v>
-      </c>
-      <c r="G2" s="2">
-        <v>2930</v>
-      </c>
-      <c r="H2" s="2">
-        <v>186</v>
-      </c>
-      <c r="I2" s="2">
-        <v>40</v>
-      </c>
-      <c r="J2" s="2">
-        <v>121</v>
-      </c>
-      <c r="K2" s="2">
-        <v>3.5799999237060547</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" s="3" customFormat="true" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="3">
-        <v>4749</v>
-      </c>
-      <c r="C3" s="3">
-        <v>17</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2">
-        <v>11</v>
-      </c>
-      <c r="G3" s="2">
-        <v>3350</v>
-      </c>
-      <c r="H3" s="2">
-        <v>173</v>
-      </c>
-      <c r="I3" s="2">
-        <v>40</v>
-      </c>
-      <c r="J3" s="2">
-        <v>258</v>
-      </c>
-      <c r="K3" s="2">
-        <v>2.5299999713897705</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" s="3" customFormat="true" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="3">
-        <v>3799</v>
-      </c>
-      <c r="C4" s="3">
-        <v>22</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="2">
-        <v>12</v>
-      </c>
-      <c r="G4" s="2">
-        <v>2640</v>
-      </c>
-      <c r="H4" s="2">
-        <v>168</v>
-      </c>
-      <c r="I4" s="2">
-        <v>35</v>
-      </c>
-      <c r="J4" s="2">
-        <v>121</v>
-      </c>
-      <c r="K4" s="2">
-        <v>3.0799999237060547</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" s="3" customFormat="true" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="3">
-        <v>4816</v>
-      </c>
-      <c r="C5" s="3">
-        <v>20</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="2">
-        <v>16</v>
-      </c>
-      <c r="G5" s="2">
-        <v>3250</v>
-      </c>
-      <c r="H5" s="2">
-        <v>196</v>
-      </c>
-      <c r="I5" s="2">
-        <v>40</v>
-      </c>
-      <c r="J5" s="2">
-        <v>196</v>
-      </c>
-      <c r="K5" s="2">
-        <v>2.9300000667572021</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" s="3" customFormat="true" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="3">
-        <v>7827</v>
-      </c>
-      <c r="C6" s="3">
-        <v>15</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="2">
-        <v>20</v>
-      </c>
-      <c r="G6" s="2">
-        <v>4080</v>
-      </c>
-      <c r="H6" s="2">
-        <v>222</v>
-      </c>
-      <c r="I6" s="2">
-        <v>43</v>
-      </c>
-      <c r="J6" s="2">
-        <v>350</v>
-      </c>
-      <c r="K6" s="2">
-        <v>2.4100000858306885</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" s="3" customFormat="true" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="2">
-        <v>5788</v>
-      </c>
-      <c r="C7" s="3">
-        <v>18</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="2">
-        <v>21</v>
-      </c>
-      <c r="G7" s="2">
-        <v>3670</v>
-      </c>
-      <c r="H7" s="2">
-        <v>218</v>
-      </c>
-      <c r="I7" s="2">
-        <v>43</v>
-      </c>
-      <c r="J7" s="2">
-        <v>231</v>
-      </c>
-      <c r="K7" s="2">
-        <v>2.7300000190734863</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" s="3" customFormat="true" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="2">
-        <v>4453</v>
-      </c>
-      <c r="C8" s="2">
-        <v>26</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="2">
-        <v>10</v>
-      </c>
-      <c r="G8" s="2">
-        <v>2230</v>
-      </c>
-      <c r="H8" s="2">
-        <v>170</v>
-      </c>
-      <c r="I8" s="2">
-        <v>34</v>
-      </c>
-      <c r="J8" s="2">
-        <v>304</v>
-      </c>
-      <c r="K8" s="2">
-        <v>2.869999885559082</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="9" s="3" customFormat="true" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="2">
-        <v>5189</v>
-      </c>
-      <c r="C9" s="2">
-        <v>20</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="2">
-        <v>16</v>
-      </c>
-      <c r="G9" s="2">
-        <v>3280</v>
-      </c>
-      <c r="H9" s="2">
-        <v>200</v>
-      </c>
-      <c r="I9" s="2">
-        <v>42</v>
-      </c>
-      <c r="J9" s="2">
-        <v>196</v>
-      </c>
-      <c r="K9" s="2">
-        <v>2.9300000667572021</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" s="3" customFormat="true" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="2">
-        <v>10372</v>
-      </c>
-      <c r="C10" s="2">
-        <v>16</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="2">
-        <v>17</v>
-      </c>
-      <c r="G10" s="2">
-        <v>3880</v>
-      </c>
-      <c r="H10" s="2">
-        <v>207</v>
-      </c>
-      <c r="I10" s="2">
-        <v>43</v>
-      </c>
-      <c r="J10" s="2">
-        <v>231</v>
-      </c>
-      <c r="K10" s="2">
-        <v>2.9300000667572021</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" s="3" customFormat="true" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="2">
-        <v>4082</v>
-      </c>
-      <c r="C11" s="2">
-        <v>19</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="2">
-        <v>13</v>
-      </c>
-      <c r="G11" s="2">
-        <v>3400</v>
-      </c>
-      <c r="H11" s="2">
-        <v>200</v>
-      </c>
-      <c r="I11" s="2">
-        <v>42</v>
-      </c>
-      <c r="J11" s="2">
-        <v>231</v>
-      </c>
-      <c r="K11" s="2">
-        <v>3.0799999237060547</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" s="3" customFormat="true" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="2">
-        <v>11385</v>
-      </c>
-      <c r="C12" s="2">
-        <v>14</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="2">
-        <v>20</v>
-      </c>
-      <c r="G12" s="2">
-        <v>4330</v>
-      </c>
-      <c r="H12" s="2">
-        <v>221</v>
-      </c>
-      <c r="I12" s="2">
-        <v>44</v>
-      </c>
-      <c r="J12" s="2">
-        <v>425</v>
-      </c>
-      <c r="K12" s="2">
-        <v>2.2799999713897705</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" s="3" customFormat="true" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="2">
-        <v>14500</v>
-      </c>
-      <c r="C13" s="2">
-        <v>14</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="2">
-        <v>16</v>
-      </c>
-      <c r="G13" s="2">
-        <v>3900</v>
-      </c>
-      <c r="H13" s="2">
-        <v>204</v>
-      </c>
-      <c r="I13" s="2">
-        <v>43</v>
-      </c>
-      <c r="J13" s="2">
-        <v>350</v>
-      </c>
-      <c r="K13" s="2">
-        <v>2.190000057220459</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" s="3" customFormat="true" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="2">
-        <v>15906</v>
-      </c>
-      <c r="C14" s="2">
-        <v>21</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="2">
-        <v>13</v>
-      </c>
-      <c r="G14" s="2">
-        <v>4290</v>
-      </c>
-      <c r="H14" s="2">
-        <v>204</v>
-      </c>
-      <c r="I14" s="2">
-        <v>45</v>
-      </c>
-      <c r="J14" s="2">
-        <v>350</v>
-      </c>
-      <c r="K14" s="2">
-        <v>2.2400000095367432</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="15" s="3" customFormat="true" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="2">
-        <v>3299</v>
-      </c>
-      <c r="C15" s="2">
-        <v>29</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="2">
-        <v>9</v>
-      </c>
-      <c r="G15" s="2">
-        <v>2110</v>
-      </c>
-      <c r="H15" s="2">
-        <v>163</v>
-      </c>
-      <c r="I15" s="2">
-        <v>34</v>
-      </c>
-      <c r="J15" s="2">
-        <v>231</v>
-      </c>
-      <c r="K15" s="2">
-        <v>2.9300000667572021</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="16" s="3" customFormat="true" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="2">
-        <v>5705</v>
-      </c>
-      <c r="C16" s="2">
-        <v>16</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="2">
-        <v>20</v>
-      </c>
-      <c r="G16" s="2">
-        <v>3690</v>
-      </c>
-      <c r="H16" s="2">
-        <v>212</v>
-      </c>
-      <c r="I16" s="2">
-        <v>43</v>
-      </c>
-      <c r="J16" s="2">
-        <v>250</v>
-      </c>
-      <c r="K16" s="2">
-        <v>2.559999942779541</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="17" s="3" customFormat="true" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="2">
-        <v>4504</v>
-      </c>
-      <c r="C17" s="2">
-        <v>22</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="2">
-        <v>17</v>
-      </c>
-      <c r="G17" s="2">
-        <v>3180</v>
-      </c>
-      <c r="H17" s="2">
-        <v>193</v>
-      </c>
-      <c r="I17" s="2">
-        <v>31</v>
-      </c>
-      <c r="J17" s="2">
-        <v>200</v>
-      </c>
-      <c r="K17" s="2">
-        <v>2.7300000190734863</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="18" s="3" customFormat="true" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="2">
-        <v>5104</v>
-      </c>
-      <c r="C18" s="2">
-        <v>22</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="2">
-        <v>16</v>
-      </c>
-      <c r="G18" s="2">
-        <v>3220</v>
-      </c>
-      <c r="H18" s="2">
-        <v>200</v>
-      </c>
-      <c r="I18" s="2">
-        <v>41</v>
-      </c>
-      <c r="J18" s="2">
-        <v>200</v>
-      </c>
-      <c r="K18" s="2">
-        <v>2.7300000190734863</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="19" s="3" customFormat="true" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="2">
-        <v>3667</v>
-      </c>
-      <c r="C19" s="2">
-        <v>24</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="2">
-        <v>7</v>
-      </c>
-      <c r="G19" s="2">
-        <v>2750</v>
-      </c>
-      <c r="H19" s="2">
-        <v>179</v>
-      </c>
-      <c r="I19" s="2">
-        <v>40</v>
-      </c>
-      <c r="J19" s="2">
-        <v>151</v>
-      </c>
-      <c r="K19" s="2">
-        <v>2.7300000190734863</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="20" s="3" customFormat="true" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="2">
-        <v>3955</v>
-      </c>
-      <c r="C20" s="2">
-        <v>19</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="2">
-        <v>13</v>
-      </c>
-      <c r="G20" s="2">
-        <v>3430</v>
-      </c>
-      <c r="H20" s="2">
-        <v>197</v>
-      </c>
-      <c r="I20" s="2">
-        <v>43</v>
-      </c>
-      <c r="J20" s="2">
-        <v>250</v>
-      </c>
-      <c r="K20" s="2">
-        <v>2.559999942779541</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="2">
-        <v>3984</v>
-      </c>
-      <c r="C21" s="2">
-        <v>30</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="2">
-        <v>8</v>
-      </c>
-      <c r="G21" s="2">
-        <v>2120</v>
-      </c>
-      <c r="H21" s="2">
-        <v>163</v>
-      </c>
-      <c r="I21" s="2">
-        <v>35</v>
-      </c>
-      <c r="J21" s="2">
-        <v>98</v>
-      </c>
-      <c r="K21" s="2">
-        <v>3.5399999618530273</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="2">
-        <v>4010</v>
-      </c>
-      <c r="C22" s="2">
-        <v>18</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="2">
-        <v>17</v>
-      </c>
-      <c r="G22" s="2">
-        <v>3600</v>
-      </c>
-      <c r="H22" s="2">
-        <v>206</v>
-      </c>
-      <c r="I22" s="2">
-        <v>46</v>
-      </c>
-      <c r="J22" s="2">
-        <v>318</v>
-      </c>
-      <c r="K22" s="2">
-        <v>2.4700000286102295</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="2">
-        <v>5886</v>
-      </c>
-      <c r="C23" s="2">
-        <v>16</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="2">
-        <v>17</v>
-      </c>
-      <c r="G23" s="2">
-        <v>3600</v>
-      </c>
-      <c r="H23" s="2">
-        <v>206</v>
-      </c>
-      <c r="I23" s="2">
-        <v>46</v>
-      </c>
-      <c r="J23" s="2">
-        <v>318</v>
-      </c>
-      <c r="K23" s="2">
-        <v>2.4700000286102295</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="2">
-        <v>6342</v>
-      </c>
-      <c r="C24" s="2">
-        <v>17</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="2">
-        <v>21</v>
-      </c>
-      <c r="G24" s="2">
-        <v>3740</v>
-      </c>
-      <c r="H24" s="2">
-        <v>220</v>
-      </c>
-      <c r="I24" s="2">
-        <v>46</v>
-      </c>
-      <c r="J24" s="2">
-        <v>225</v>
-      </c>
-      <c r="K24" s="2">
-        <v>2.940000057220459</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="2">
-        <v>4389</v>
-      </c>
-      <c r="C25" s="2">
-        <v>28</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F25" s="2">
-        <v>9</v>
-      </c>
-      <c r="G25" s="2">
-        <v>1800</v>
-      </c>
-      <c r="H25" s="2">
-        <v>147</v>
-      </c>
-      <c r="I25" s="2">
-        <v>33</v>
-      </c>
-      <c r="J25" s="2">
-        <v>98</v>
-      </c>
-      <c r="K25" s="2">
-        <v>3.1500000953674316</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" s="2">
-        <v>4187</v>
-      </c>
-      <c r="C26" s="2">
-        <v>21</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" s="2">
-        <v>10</v>
-      </c>
-      <c r="G26" s="2">
-        <v>2650</v>
-      </c>
-      <c r="H26" s="2">
-        <v>179</v>
-      </c>
-      <c r="I26" s="2">
-        <v>43</v>
-      </c>
-      <c r="J26" s="2">
-        <v>140</v>
-      </c>
-      <c r="K26" s="2">
-        <v>3.0799999237060547</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" s="2">
-        <v>11497</v>
-      </c>
-      <c r="C27" s="2">
-        <v>12</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="2">
-        <v>22</v>
-      </c>
-      <c r="G27" s="2">
-        <v>4840</v>
-      </c>
-      <c r="H27" s="2">
-        <v>233</v>
-      </c>
-      <c r="I27" s="2">
-        <v>51</v>
-      </c>
-      <c r="J27" s="2">
-        <v>400</v>
-      </c>
-      <c r="K27" s="2">
-        <v>2.4700000286102295</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B28" s="2">
-        <v>13594</v>
-      </c>
-      <c r="C28" s="2">
-        <v>12</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" s="2">
-        <v>18</v>
-      </c>
-      <c r="G28" s="2">
-        <v>4720</v>
-      </c>
-      <c r="H28" s="2">
-        <v>230</v>
-      </c>
-      <c r="I28" s="2">
-        <v>48</v>
-      </c>
-      <c r="J28" s="2">
-        <v>400</v>
-      </c>
-      <c r="K28" s="2">
-        <v>2.4700000286102295</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" s="2">
-        <v>13466</v>
-      </c>
-      <c r="C29" s="2">
-        <v>14</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="2">
-        <v>15</v>
-      </c>
-      <c r="G29" s="2">
-        <v>3830</v>
-      </c>
-      <c r="H29" s="2">
-        <v>201</v>
-      </c>
-      <c r="I29" s="2">
-        <v>41</v>
-      </c>
-      <c r="J29" s="2">
-        <v>302</v>
-      </c>
-      <c r="K29" s="2">
-        <v>2.4700000286102295</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B30" s="2">
-        <v>3829</v>
-      </c>
-      <c r="C30" s="2">
-        <v>22</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" s="2">
-        <v>9</v>
-      </c>
-      <c r="G30" s="2">
-        <v>2580</v>
-      </c>
-      <c r="H30" s="2">
-        <v>169</v>
-      </c>
-      <c r="I30" s="2">
-        <v>39</v>
-      </c>
-      <c r="J30" s="2">
-        <v>140</v>
-      </c>
-      <c r="K30" s="2">
-        <v>2.7300000190734863</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B31" s="2">
-        <v>5379</v>
-      </c>
-      <c r="C31" s="2">
-        <v>14</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" s="2">
-        <v>16</v>
-      </c>
-      <c r="G31" s="2">
-        <v>4060</v>
-      </c>
-      <c r="H31" s="2">
-        <v>221</v>
-      </c>
-      <c r="I31" s="2">
-        <v>48</v>
-      </c>
-      <c r="J31" s="2">
-        <v>302</v>
-      </c>
-      <c r="K31" s="2">
-        <v>2.75</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B32" s="2">
-        <v>6165</v>
-      </c>
-      <c r="C32" s="2">
-        <v>15</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" s="2">
-        <v>23</v>
-      </c>
-      <c r="G32" s="2">
-        <v>3720</v>
-      </c>
-      <c r="H32" s="2">
-        <v>212</v>
-      </c>
-      <c r="I32" s="2">
-        <v>44</v>
-      </c>
-      <c r="J32" s="2">
-        <v>302</v>
-      </c>
-      <c r="K32" s="2">
-        <v>2.2599999904632568</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B33" s="2">
-        <v>4516</v>
-      </c>
-      <c r="C33" s="2">
-        <v>18</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33" s="2">
-        <v>15</v>
-      </c>
-      <c r="G33" s="2">
-        <v>3370</v>
-      </c>
-      <c r="H33" s="2">
-        <v>198</v>
-      </c>
-      <c r="I33" s="2">
-        <v>41</v>
-      </c>
-      <c r="J33" s="2">
-        <v>250</v>
-      </c>
-      <c r="K33" s="2">
-        <v>2.4300000667572021</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B34" s="2">
-        <v>6303</v>
-      </c>
-      <c r="C34" s="2">
-        <v>14</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34" s="2">
-        <v>16</v>
-      </c>
-      <c r="G34" s="2">
-        <v>4130</v>
-      </c>
-      <c r="H34" s="2">
-        <v>217</v>
-      </c>
-      <c r="I34" s="2">
-        <v>45</v>
-      </c>
-      <c r="J34" s="2">
-        <v>302</v>
-      </c>
-      <c r="K34" s="2">
-        <v>2.75</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B35" s="2">
-        <v>3291</v>
-      </c>
-      <c r="C35" s="2">
-        <v>20</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35" s="2">
-        <v>17</v>
-      </c>
-      <c r="G35" s="2">
-        <v>2830</v>
-      </c>
-      <c r="H35" s="2">
-        <v>195</v>
-      </c>
-      <c r="I35" s="2">
-        <v>43</v>
-      </c>
-      <c r="J35" s="2">
-        <v>140</v>
-      </c>
-      <c r="K35" s="2">
-        <v>3.0799999237060547</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B36" s="2">
-        <v>8814</v>
-      </c>
-      <c r="C36" s="2">
-        <v>21</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F36" s="2">
-        <v>20</v>
-      </c>
-      <c r="G36" s="2">
-        <v>4060</v>
-      </c>
-      <c r="H36" s="2">
-        <v>220</v>
-      </c>
-      <c r="I36" s="2">
-        <v>43</v>
-      </c>
-      <c r="J36" s="2">
-        <v>350</v>
-      </c>
-      <c r="K36" s="2">
-        <v>2.4100000858306885</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B37" s="2">
-        <v>5172</v>
-      </c>
-      <c r="C37" s="2">
-        <v>19</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F37" s="2">
-        <v>16</v>
-      </c>
-      <c r="G37" s="2">
-        <v>3310</v>
-      </c>
-      <c r="H37" s="2">
-        <v>198</v>
-      </c>
-      <c r="I37" s="2">
-        <v>42</v>
-      </c>
-      <c r="J37" s="2">
-        <v>231</v>
-      </c>
-      <c r="K37" s="2">
-        <v>2.9300000667572021</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B38" s="2">
-        <v>4733</v>
-      </c>
-      <c r="C38" s="2">
-        <v>19</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F38" s="2">
-        <v>16</v>
-      </c>
-      <c r="G38" s="2">
-        <v>3300</v>
-      </c>
-      <c r="H38" s="2">
-        <v>198</v>
-      </c>
-      <c r="I38" s="2">
-        <v>42</v>
-      </c>
-      <c r="J38" s="2">
-        <v>231</v>
-      </c>
-      <c r="K38" s="2">
-        <v>2.9300000667572021</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B39" s="2">
-        <v>4890</v>
-      </c>
-      <c r="C39" s="2">
-        <v>18</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F39" s="2">
-        <v>20</v>
-      </c>
-      <c r="G39" s="2">
-        <v>3690</v>
-      </c>
-      <c r="H39" s="2">
-        <v>218</v>
-      </c>
-      <c r="I39" s="2">
-        <v>42</v>
-      </c>
-      <c r="J39" s="2">
-        <v>231</v>
-      </c>
-      <c r="K39" s="2">
-        <v>2.7300000190734863</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B40" s="2">
-        <v>4181</v>
-      </c>
-      <c r="C40" s="2">
-        <v>19</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F40" s="2">
-        <v>14</v>
-      </c>
-      <c r="G40" s="2">
-        <v>3370</v>
-      </c>
-      <c r="H40" s="2">
-        <v>200</v>
-      </c>
-      <c r="I40" s="2">
-        <v>43</v>
-      </c>
-      <c r="J40" s="2">
-        <v>231</v>
-      </c>
-      <c r="K40" s="2">
-        <v>3.0799999237060547</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B41" s="2">
-        <v>4195</v>
-      </c>
-      <c r="C41" s="2">
-        <v>24</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F41" s="2">
-        <v>10</v>
-      </c>
-      <c r="G41" s="2">
-        <v>2730</v>
-      </c>
-      <c r="H41" s="2">
-        <v>180</v>
-      </c>
-      <c r="I41" s="2">
-        <v>40</v>
-      </c>
-      <c r="J41" s="2">
-        <v>151</v>
-      </c>
-      <c r="K41" s="2">
-        <v>2.7300000190734863</v>
-      </c>
-      <c r="L41" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B42" s="2">
-        <v>10371</v>
-      </c>
-      <c r="C42" s="2">
-        <v>16</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F42" s="2">
-        <v>17</v>
-      </c>
-      <c r="G42" s="2">
-        <v>4030</v>
-      </c>
-      <c r="H42" s="2">
-        <v>206</v>
-      </c>
-      <c r="I42" s="2">
-        <v>43</v>
-      </c>
-      <c r="J42" s="2">
-        <v>350</v>
-      </c>
-      <c r="K42" s="2">
-        <v>2.4100000858306885</v>
-      </c>
-      <c r="L42" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B43" s="2">
-        <v>4647</v>
-      </c>
-      <c r="C43" s="2">
-        <v>28</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F43" s="2">
-        <v>11</v>
-      </c>
-      <c r="G43" s="2">
-        <v>3260</v>
-      </c>
-      <c r="H43" s="2">
-        <v>170</v>
-      </c>
-      <c r="I43" s="2">
-        <v>37</v>
-      </c>
-      <c r="J43" s="2">
-        <v>156</v>
-      </c>
-      <c r="K43" s="2">
-        <v>3.0499999523162842</v>
-      </c>
-      <c r="L43" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B44" s="2">
-        <v>4425</v>
-      </c>
-      <c r="C44" s="2">
-        <v>34</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F44" s="2">
-        <v>11</v>
-      </c>
-      <c r="G44" s="2">
-        <v>1800</v>
-      </c>
-      <c r="H44" s="2">
-        <v>157</v>
-      </c>
-      <c r="I44" s="2">
-        <v>37</v>
-      </c>
-      <c r="J44" s="2">
-        <v>86</v>
-      </c>
-      <c r="K44" s="2">
-        <v>2.9700000286102295</v>
-      </c>
-      <c r="L44" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B45" s="2">
-        <v>4482</v>
-      </c>
-      <c r="C45" s="2">
-        <v>25</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F45" s="2">
-        <v>17</v>
-      </c>
-      <c r="G45" s="2">
-        <v>2200</v>
-      </c>
-      <c r="H45" s="2">
-        <v>165</v>
-      </c>
-      <c r="I45" s="2">
-        <v>36</v>
-      </c>
-      <c r="J45" s="2">
-        <v>105</v>
-      </c>
-      <c r="K45" s="2">
-        <v>3.369999885559082</v>
-      </c>
-      <c r="L45" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B46" s="2">
-        <v>6486</v>
-      </c>
-      <c r="C46" s="2">
-        <v>26</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F46" s="2">
-        <v>8</v>
-      </c>
-      <c r="G46" s="2">
-        <v>2520</v>
-      </c>
-      <c r="H46" s="2">
-        <v>182</v>
-      </c>
-      <c r="I46" s="2">
-        <v>38</v>
-      </c>
-      <c r="J46" s="2">
-        <v>119</v>
-      </c>
-      <c r="K46" s="2">
-        <v>3.5399999618530273</v>
-      </c>
-      <c r="L46" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B47" s="2">
-        <v>4060</v>
-      </c>
-      <c r="C47" s="2">
-        <v>18</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F47" s="2">
-        <v>16</v>
-      </c>
-      <c r="G47" s="2">
-        <v>3330</v>
-      </c>
-      <c r="H47" s="2">
-        <v>201</v>
-      </c>
-      <c r="I47" s="2">
-        <v>44</v>
-      </c>
-      <c r="J47" s="2">
-        <v>225</v>
-      </c>
-      <c r="K47" s="2">
-        <v>3.2300000190734863</v>
-      </c>
-      <c r="L47" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B48" s="2">
-        <v>5798</v>
-      </c>
-      <c r="C48" s="2">
-        <v>18</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F48" s="2">
-        <v>20</v>
-      </c>
-      <c r="G48" s="2">
-        <v>3700</v>
-      </c>
-      <c r="H48" s="2">
-        <v>214</v>
-      </c>
-      <c r="I48" s="2">
-        <v>42</v>
-      </c>
-      <c r="J48" s="2">
-        <v>231</v>
-      </c>
-      <c r="K48" s="2">
-        <v>2.7300000190734863</v>
-      </c>
-      <c r="L48" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B49" s="2">
-        <v>4934</v>
-      </c>
-      <c r="C49" s="2">
-        <v>18</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F49" s="2">
-        <v>7</v>
-      </c>
-      <c r="G49" s="2">
-        <v>3470</v>
-      </c>
-      <c r="H49" s="2">
-        <v>198</v>
-      </c>
-      <c r="I49" s="2">
-        <v>42</v>
-      </c>
-      <c r="J49" s="2">
-        <v>231</v>
-      </c>
-      <c r="K49" s="2">
-        <v>3.0799999237060547</v>
-      </c>
-      <c r="L49" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B50" s="2">
-        <v>5222</v>
-      </c>
-      <c r="C50" s="2">
-        <v>19</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F50" s="2">
-        <v>16</v>
-      </c>
-      <c r="G50" s="2">
-        <v>3210</v>
-      </c>
-      <c r="H50" s="2">
-        <v>201</v>
-      </c>
-      <c r="I50" s="2">
-        <v>45</v>
-      </c>
-      <c r="J50" s="2">
-        <v>231</v>
-      </c>
-      <c r="K50" s="2">
-        <v>2.9300000667572021</v>
-      </c>
-      <c r="L50" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B51" s="2">
-        <v>4723</v>
-      </c>
-      <c r="C51" s="2">
-        <v>19</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F51" s="2">
-        <v>17</v>
-      </c>
-      <c r="G51" s="2">
-        <v>3200</v>
-      </c>
-      <c r="H51" s="2">
-        <v>199</v>
-      </c>
-      <c r="I51" s="2">
-        <v>40</v>
-      </c>
-      <c r="J51" s="2">
-        <v>231</v>
-      </c>
-      <c r="K51" s="2">
-        <v>2.9300000667572021</v>
-      </c>
-      <c r="L51" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B52" s="2">
-        <v>4424</v>
-      </c>
-      <c r="C52" s="2">
-        <v>19</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F52" s="2">
-        <v>13</v>
-      </c>
-      <c r="G52" s="2">
-        <v>3420</v>
-      </c>
-      <c r="H52" s="2">
-        <v>203</v>
-      </c>
-      <c r="I52" s="2">
-        <v>43</v>
-      </c>
-      <c r="J52" s="2">
-        <v>231</v>
-      </c>
-      <c r="K52" s="2">
-        <v>3.0799999237060547</v>
-      </c>
-      <c r="L52" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B53" s="2">
-        <v>4172</v>
-      </c>
-      <c r="C53" s="2">
-        <v>24</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F53" s="2">
-        <v>7</v>
-      </c>
-      <c r="G53" s="2">
-        <v>2690</v>
-      </c>
-      <c r="H53" s="2">
-        <v>179</v>
-      </c>
-      <c r="I53" s="2">
-        <v>41</v>
-      </c>
-      <c r="J53" s="2">
-        <v>151</v>
-      </c>
-      <c r="K53" s="2">
-        <v>2.7300000190734863</v>
-      </c>
-      <c r="L53" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B54" s="2">
-        <v>9690</v>
-      </c>
-      <c r="C54" s="2">
-        <v>17</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F54" s="2">
-        <v>15</v>
-      </c>
-      <c r="G54" s="2">
-        <v>2830</v>
-      </c>
-      <c r="H54" s="2">
-        <v>189</v>
-      </c>
-      <c r="I54" s="2">
-        <v>37</v>
-      </c>
-      <c r="J54" s="2">
-        <v>131</v>
-      </c>
-      <c r="K54" s="2">
-        <v>3.2000000476837158</v>
-      </c>
-      <c r="L54" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B55" s="2">
-        <v>6295</v>
-      </c>
-      <c r="C55" s="2">
-        <v>23</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F55" s="2">
-        <v>11</v>
-      </c>
-      <c r="G55" s="2">
-        <v>2070</v>
-      </c>
-      <c r="H55" s="2">
-        <v>174</v>
-      </c>
-      <c r="I55" s="2">
-        <v>36</v>
-      </c>
-      <c r="J55" s="2">
-        <v>97</v>
-      </c>
-      <c r="K55" s="2">
-        <v>3.7000000476837158</v>
-      </c>
-      <c r="L55" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B56" s="2">
-        <v>9735</v>
-      </c>
-      <c r="C56" s="2">
-        <v>25</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F56" s="2">
-        <v>12</v>
-      </c>
-      <c r="G56" s="2">
-        <v>2650</v>
-      </c>
-      <c r="H56" s="2">
-        <v>177</v>
-      </c>
-      <c r="I56" s="2">
-        <v>34</v>
-      </c>
-      <c r="J56" s="2">
-        <v>121</v>
-      </c>
-      <c r="K56" s="2">
-        <v>3.6400001049041748</v>
-      </c>
-      <c r="L56" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B57" s="2">
-        <v>6229</v>
-      </c>
-      <c r="C57" s="2">
-        <v>23</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F57" s="2">
-        <v>6</v>
-      </c>
-      <c r="G57" s="2">
-        <v>2370</v>
-      </c>
-      <c r="H57" s="2">
-        <v>170</v>
-      </c>
-      <c r="I57" s="2">
-        <v>35</v>
-      </c>
-      <c r="J57" s="2">
-        <v>119</v>
-      </c>
-      <c r="K57" s="2">
-        <v>3.8900001049041748</v>
-      </c>
-      <c r="L57" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B58" s="2">
-        <v>4589</v>
-      </c>
-      <c r="C58" s="2">
-        <v>35</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F58" s="2">
-        <v>8</v>
-      </c>
-      <c r="G58" s="2">
-        <v>2020</v>
-      </c>
-      <c r="H58" s="2">
-        <v>165</v>
-      </c>
-      <c r="I58" s="2">
-        <v>32</v>
-      </c>
-      <c r="J58" s="2">
-        <v>85</v>
-      </c>
-      <c r="K58" s="2">
-        <v>3.7000000476837158</v>
-      </c>
-      <c r="L58" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B59" s="2">
-        <v>5079</v>
-      </c>
-      <c r="C59" s="2">
-        <v>24</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F59" s="2">
-        <v>8</v>
-      </c>
-      <c r="G59" s="2">
-        <v>2280</v>
-      </c>
-      <c r="H59" s="2">
-        <v>170</v>
-      </c>
-      <c r="I59" s="2">
-        <v>34</v>
-      </c>
-      <c r="J59" s="2">
-        <v>119</v>
-      </c>
-      <c r="K59" s="2">
-        <v>3.5399999618530273</v>
-      </c>
-      <c r="L59" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B60" s="2">
-        <v>8129</v>
-      </c>
-      <c r="C60" s="2">
-        <v>21</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F60" s="2">
-        <v>8</v>
-      </c>
-      <c r="G60" s="2">
-        <v>2750</v>
-      </c>
-      <c r="H60" s="2">
-        <v>184</v>
-      </c>
-      <c r="I60" s="2">
-        <v>38</v>
-      </c>
-      <c r="J60" s="2">
-        <v>146</v>
-      </c>
-      <c r="K60" s="2">
-        <v>3.5499999523162842</v>
-      </c>
-      <c r="L60" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B61" s="2">
-        <v>4296</v>
-      </c>
-      <c r="C61" s="2">
-        <v>21</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F61" s="2">
-        <v>16</v>
-      </c>
-      <c r="G61" s="2">
-        <v>2130</v>
-      </c>
-      <c r="H61" s="2">
-        <v>161</v>
-      </c>
-      <c r="I61" s="2">
-        <v>36</v>
-      </c>
-      <c r="J61" s="2">
-        <v>105</v>
-      </c>
-      <c r="K61" s="2">
-        <v>3.369999885559082</v>
-      </c>
-      <c r="L61" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B62" s="2">
-        <v>5799</v>
-      </c>
-      <c r="C62" s="2">
-        <v>25</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F62" s="2">
-        <v>10</v>
-      </c>
-      <c r="G62" s="2">
-        <v>2240</v>
-      </c>
-      <c r="H62" s="2">
-        <v>172</v>
-      </c>
-      <c r="I62" s="2">
-        <v>36</v>
-      </c>
-      <c r="J62" s="2">
-        <v>107</v>
-      </c>
-      <c r="K62" s="2">
-        <v>3.0499999523162842</v>
-      </c>
-      <c r="L62" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B63" s="2">
-        <v>4499</v>
-      </c>
-      <c r="C63" s="2">
-        <v>28</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F63" s="2">
-        <v>5</v>
-      </c>
-      <c r="G63" s="2">
-        <v>1760</v>
-      </c>
-      <c r="H63" s="2">
-        <v>149</v>
-      </c>
-      <c r="I63" s="2">
-        <v>34</v>
-      </c>
-      <c r="J63" s="2">
-        <v>91</v>
-      </c>
-      <c r="K63" s="2">
-        <v>3.2999999523162842</v>
-      </c>
-      <c r="L63" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B64" s="2">
-        <v>3995</v>
-      </c>
-      <c r="C64" s="2">
-        <v>30</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F64" s="2">
-        <v>11</v>
-      </c>
-      <c r="G64" s="2">
-        <v>1980</v>
-      </c>
-      <c r="H64" s="2">
-        <v>154</v>
-      </c>
-      <c r="I64" s="2">
-        <v>33</v>
-      </c>
-      <c r="J64" s="2">
-        <v>86</v>
-      </c>
-      <c r="K64" s="2">
-        <v>3.7300000190734863</v>
-      </c>
-      <c r="L64" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B65" s="2">
-        <v>12990</v>
-      </c>
-      <c r="C65" s="2">
-        <v>14</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F65" s="2">
-        <v>14</v>
-      </c>
-      <c r="G65" s="2">
-        <v>3420</v>
-      </c>
-      <c r="H65" s="2">
-        <v>192</v>
-      </c>
-      <c r="I65" s="2">
-        <v>38</v>
-      </c>
-      <c r="J65" s="2">
-        <v>163</v>
-      </c>
-      <c r="K65" s="2">
-        <v>3.5799999237060547</v>
-      </c>
-      <c r="L65" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B66" s="2">
-        <v>3895</v>
-      </c>
-      <c r="C66" s="2">
-        <v>26</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F66" s="2">
-        <v>10</v>
-      </c>
-      <c r="G66" s="2">
-        <v>1830</v>
-      </c>
-      <c r="H66" s="2">
-        <v>142</v>
-      </c>
-      <c r="I66" s="2">
-        <v>34</v>
-      </c>
-      <c r="J66" s="2">
-        <v>79</v>
-      </c>
-      <c r="K66" s="2">
-        <v>3.7200000286102295</v>
-      </c>
-      <c r="L66" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B67" s="2">
-        <v>3798</v>
-      </c>
-      <c r="C67" s="2">
-        <v>35</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F67" s="2">
-        <v>11</v>
-      </c>
-      <c r="G67" s="2">
-        <v>2050</v>
-      </c>
-      <c r="H67" s="2">
-        <v>164</v>
-      </c>
-      <c r="I67" s="2">
-        <v>36</v>
-      </c>
-      <c r="J67" s="2">
-        <v>97</v>
-      </c>
-      <c r="K67" s="2">
-        <v>3.809999942779541</v>
-      </c>
-      <c r="L67" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B68" s="2">
-        <v>5899</v>
-      </c>
-      <c r="C68" s="2">
-        <v>18</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F68" s="2">
-        <v>14</v>
-      </c>
-      <c r="G68" s="2">
-        <v>2410</v>
-      </c>
-      <c r="H68" s="2">
-        <v>174</v>
-      </c>
-      <c r="I68" s="2">
-        <v>36</v>
-      </c>
-      <c r="J68" s="2">
-        <v>134</v>
-      </c>
-      <c r="K68" s="2">
-        <v>3.059999942779541</v>
-      </c>
-      <c r="L68" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B69" s="2">
-        <v>3748</v>
-      </c>
-      <c r="C69" s="2">
-        <v>31</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F69" s="2">
-        <v>9</v>
-      </c>
-      <c r="G69" s="2">
-        <v>2200</v>
-      </c>
-      <c r="H69" s="2">
-        <v>165</v>
-      </c>
-      <c r="I69" s="2">
-        <v>35</v>
-      </c>
-      <c r="J69" s="2">
-        <v>97</v>
-      </c>
-      <c r="K69" s="2">
-        <v>3.2100000381469727</v>
-      </c>
-      <c r="L69" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B70" s="2">
-        <v>5719</v>
-      </c>
-      <c r="C70" s="2">
-        <v>18</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F70" s="2">
-        <v>11</v>
-      </c>
-      <c r="G70" s="2">
-        <v>2670</v>
-      </c>
-      <c r="H70" s="2">
-        <v>175</v>
-      </c>
-      <c r="I70" s="2">
-        <v>36</v>
-      </c>
-      <c r="J70" s="2">
-        <v>134</v>
-      </c>
-      <c r="K70" s="2">
-        <v>3.0499999523162842</v>
-      </c>
-      <c r="L70" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B71" s="2">
-        <v>7140</v>
-      </c>
-      <c r="C71" s="2">
-        <v>23</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F71" s="2">
-        <v>12</v>
-      </c>
-      <c r="G71" s="2">
-        <v>2160</v>
-      </c>
-      <c r="H71" s="2">
-        <v>172</v>
-      </c>
-      <c r="I71" s="2">
-        <v>36</v>
-      </c>
-      <c r="J71" s="2">
-        <v>97</v>
-      </c>
-      <c r="K71" s="2">
-        <v>3.7400000095367432</v>
-      </c>
-      <c r="L71" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B72" s="2">
-        <v>5397</v>
-      </c>
-      <c r="C72" s="2">
-        <v>41</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F72" s="2">
-        <v>15</v>
-      </c>
-      <c r="G72" s="2">
-        <v>2040</v>
-      </c>
-      <c r="H72" s="2">
-        <v>155</v>
-      </c>
-      <c r="I72" s="2">
-        <v>35</v>
-      </c>
-      <c r="J72" s="2">
-        <v>90</v>
-      </c>
-      <c r="K72" s="2">
-        <v>3.7799999713897705</v>
-      </c>
-      <c r="L72" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B73" s="2">
-        <v>4697</v>
-      </c>
-      <c r="C73" s="2">
-        <v>25</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F73" s="2">
-        <v>15</v>
-      </c>
-      <c r="G73" s="2">
-        <v>1930</v>
-      </c>
-      <c r="H73" s="2">
-        <v>155</v>
-      </c>
-      <c r="I73" s="2">
-        <v>35</v>
-      </c>
-      <c r="J73" s="2">
-        <v>89</v>
-      </c>
-      <c r="K73" s="2">
-        <v>3.7799999713897705</v>
-      </c>
-      <c r="L73" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B74" s="2">
-        <v>6850</v>
-      </c>
-      <c r="C74" s="2">
-        <v>25</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F74" s="2">
-        <v>16</v>
-      </c>
-      <c r="G74" s="2">
-        <v>1990</v>
-      </c>
-      <c r="H74" s="2">
-        <v>156</v>
-      </c>
-      <c r="I74" s="2">
-        <v>36</v>
-      </c>
-      <c r="J74" s="2">
-        <v>97</v>
-      </c>
-      <c r="K74" s="2">
-        <v>3.7799999713897705</v>
-      </c>
-      <c r="L74" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B75" s="2">
-        <v>11995</v>
-      </c>
-      <c r="C75" s="2">
-        <v>17</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F75" s="2">
-        <v>14</v>
-      </c>
-      <c r="G75" s="2">
-        <v>3170</v>
-      </c>
-      <c r="H75" s="2">
-        <v>193</v>
-      </c>
-      <c r="I75" s="2">
-        <v>37</v>
-      </c>
-      <c r="J75" s="2">
-        <v>163</v>
-      </c>
-      <c r="K75" s="2">
-        <v>2.9800000190734863</v>
-      </c>
-      <c r="L75" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A1:ZZ1048576 AAA1:XFD1">
-    <cfRule type="containsText" dxfId="26" priority="1" operator="containsText" text="↓">
-      <formula>NOT(ISERROR(SEARCH("↓",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="2" operator="containsText" text="→">
-      <formula>NOT(ISERROR(SEARCH("→",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="3" operator="containsText" text="➚">
-      <formula>NOT(ISERROR(SEARCH("➚",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="4" operator="containsText" text="↑">
-      <formula>NOT(ISERROR(SEARCH("↑",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="5" operator="containsText" text="gray">
-      <formula>NOT(ISERROR(SEARCH("gray",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="6" operator="containsText" text="orange">
-      <formula>NOT(ISERROR(SEARCH("orange",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="7" operator="containsText" text="yellow">
-      <formula>NOT(ISERROR(SEARCH("yellow",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="8" operator="containsText" text="red">
-      <formula>NOT(ISERROR(SEARCH("red",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="9" operator="containsText" text="green">
       <formula>NOT(ISERROR(SEARCH("green",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7273,7 +8173,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4629F5CE-B5DB-4909-BAA5-331D2B62803D}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>

--- a/sdgindex.xlsx
+++ b/sdgindex.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Finn Woelm\Projects\stata-excel-template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{108A10F6-77F2-440D-A377-96D51BAE0FD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C6B9D0-E910-491C-92AA-CC4ADA4050E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2505" yWindow="1560" windowWidth="25140" windowHeight="11835"/>
+    <workbookView xWindow="945" yWindow="1410" windowWidth="23040" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Overall Results" sheetId="8" r:id="rId1"/>
@@ -346,16 +346,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -376,7 +368,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -384,28 +376,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment textRotation="45"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment textRotation="45"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment textRotation="45"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{98D6A88B-4311-433F-94EE-C83666F9F6A6}"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="48">
+    <dxf>
+      <font>
+        <b/>
+        <i val="false"/>
+        <strike val="false"/>
+      </font>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -847,6 +852,462 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="false"/>
+        <strike val="false"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="true"/>
+        </left>
+        <right style="thin">
+          <color auto="true"/>
+        </right>
+        <top style="thin">
+          <color auto="true"/>
+        </top>
+        <bottom style="thin">
+          <color auto="true"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="true"/>
+        </left>
+        <right style="thin">
+          <color auto="true"/>
+        </right>
+        <top style="thin">
+          <color auto="true"/>
+        </top>
+        <bottom style="thin">
+          <color auto="true"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="true"/>
+        </left>
+        <right style="thin">
+          <color auto="true"/>
+        </right>
+        <top style="thin">
+          <color auto="true"/>
+        </top>
+        <bottom style="thin">
+          <color auto="true"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="true"/>
+        </left>
+        <right style="thin">
+          <color auto="true"/>
+        </right>
+        <top style="thin">
+          <color auto="true"/>
+        </top>
+        <bottom style="thin">
+          <color auto="true"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260842"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="true"/>
+        </left>
+        <right style="thin">
+          <color auto="true"/>
+        </right>
+        <top style="thin">
+          <color auto="true"/>
+        </top>
+        <bottom style="thin">
+          <color auto="true"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="false"/>
+        <u/>
+        <color theme="9" tint="-0.24994659260842"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor auto="true"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="true"/>
+        </left>
+        <right style="thin">
+          <color auto="true"/>
+        </right>
+        <top style="thin">
+          <color auto="true"/>
+        </top>
+        <bottom style="thin">
+          <color auto="true"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="false"/>
+        <u/>
+        <color theme="7" tint="-0.24994659260842"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="true"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="true"/>
+        </left>
+        <right style="thin">
+          <color auto="true"/>
+        </right>
+        <top style="thin">
+          <color auto="true"/>
+        </top>
+        <bottom style="thin">
+          <color auto="true"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="false"/>
+        <u/>
+        <color rgb="FFEA6B14"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="true"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="true"/>
+        </left>
+        <right style="thin">
+          <color auto="true"/>
+        </right>
+        <top style="thin">
+          <color auto="true"/>
+        </top>
+        <bottom style="thin">
+          <color auto="true"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="false"/>
+        <u/>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor auto="true"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="true"/>
+        </left>
+        <right style="thin">
+          <color auto="true"/>
+        </right>
+        <top style="thin">
+          <color auto="true"/>
+        </top>
+        <bottom style="thin">
+          <color auto="true"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="true"/>
+        </left>
+        <right style="thin">
+          <color auto="true"/>
+        </right>
+        <top style="thin">
+          <color auto="true"/>
+        </top>
+        <bottom style="thin">
+          <color auto="true"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="true"/>
+        </left>
+        <right style="thin">
+          <color auto="true"/>
+        </right>
+        <top style="thin">
+          <color auto="true"/>
+        </top>
+        <bottom style="thin">
+          <color auto="true"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="true"/>
+        </left>
+        <right style="thin">
+          <color auto="true"/>
+        </right>
+        <top style="thin">
+          <color auto="true"/>
+        </top>
+        <bottom style="thin">
+          <color auto="true"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="true"/>
+        </left>
+        <right style="thin">
+          <color auto="true"/>
+        </right>
+        <top style="thin">
+          <color auto="true"/>
+        </top>
+        <bottom style="thin">
+          <color auto="true"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260842"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="true"/>
+        </left>
+        <right style="thin">
+          <color auto="true"/>
+        </right>
+        <top style="thin">
+          <color auto="true"/>
+        </top>
+        <bottom style="thin">
+          <color auto="true"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="false"/>
+        <u/>
+        <color theme="9" tint="-0.24994659260842"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor auto="true"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="true"/>
+        </left>
+        <right style="thin">
+          <color auto="true"/>
+        </right>
+        <top style="thin">
+          <color auto="true"/>
+        </top>
+        <bottom style="thin">
+          <color auto="true"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="false"/>
+        <u/>
+        <color theme="7" tint="-0.24994659260842"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="true"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="true"/>
+        </left>
+        <right style="thin">
+          <color auto="true"/>
+        </right>
+        <top style="thin">
+          <color auto="true"/>
+        </top>
+        <bottom style="thin">
+          <color auto="true"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="false"/>
+        <u/>
+        <color rgb="FFEA6B14"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="true"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="true"/>
+        </left>
+        <right style="thin">
+          <color auto="true"/>
+        </right>
+        <top style="thin">
+          <color auto="true"/>
+        </top>
+        <bottom style="thin">
+          <color auto="true"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="false"/>
+        <u/>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor auto="true"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="true"/>
+        </left>
+        <right style="thin">
+          <color auto="true"/>
+        </right>
+        <top style="thin">
+          <color auto="true"/>
+        </top>
+        <bottom style="thin">
+          <color auto="true"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="false"/>
+        <strike val="false"/>
+      </font>
     </dxf>
     <dxf>
       <fill>
@@ -1347,16 +1808,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CAFD747-961D-4958-B282-966AFB409A3E}">
   <dimension ref="A1:N75"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
+    <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="27" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -1366,3324 +1825,3329 @@
       <c r="C1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="true" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2">
+      <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="6">
         <v>4099</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="7">
         <v>22</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2">
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="7">
         <v>11</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="6">
         <v>2930</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="7">
         <v>186</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="7">
         <v>40</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="7">
         <v>121</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="8">
         <v>3.5799999237060547</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" s="3" customFormat="true" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="L2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="6">
         <v>4749</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="7">
         <v>17</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2">
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="7">
         <v>11</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="6">
         <v>3350</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="7">
         <v>173</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="7">
         <v>40</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="7">
         <v>258</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="8">
         <v>2.5299999713897705</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" s="3" customFormat="true" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="L3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="6">
         <v>3799</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="7">
         <v>22</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="2">
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="7">
         <v>12</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="6">
         <v>2640</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="7">
         <v>168</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="7">
         <v>35</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="7">
         <v>121</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="8">
         <v>3.0799999237060547</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="M4" s="2" t="s">
+      <c r="L4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="N4" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" s="3" customFormat="true" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="N4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="6">
         <v>4816</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="7">
         <v>20</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="7">
         <v>16</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="6">
         <v>3250</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="7">
         <v>196</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="7">
         <v>40</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="7">
         <v>196</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="8">
         <v>2.9300000667572021</v>
       </c>
-      <c r="L5" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N5" s="2" t="s">
+      <c r="L5" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="true" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6">
+      <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="6">
         <v>7827</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="7">
         <v>15</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="7">
         <v>20</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="6">
         <v>4080</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="7">
         <v>222</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="7">
         <v>43</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="7">
         <v>350</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="8">
         <v>2.4100000858306885</v>
       </c>
-      <c r="L6" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="M6" s="2" t="s">
+      <c r="L6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="N6" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="true" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+    <row r="7">
+      <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="6">
         <v>5788</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="7">
         <v>18</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="D7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="7">
         <v>21</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="6">
         <v>3670</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="7">
         <v>218</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="7">
         <v>43</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="7">
         <v>231</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="8">
         <v>2.7300000190734863</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N7" s="2" t="s">
+      <c r="L7" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N7" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="true" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8">
+      <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="6">
         <v>4453</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="7">
         <v>26</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="2">
-        <v>10</v>
-      </c>
-      <c r="G8" s="2">
+      <c r="E8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="7">
+        <v>10</v>
+      </c>
+      <c r="G8" s="6">
         <v>2230</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="7">
         <v>170</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="7">
         <v>34</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="7">
         <v>304</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="8">
         <v>2.869999885559082</v>
       </c>
-      <c r="L8" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="M8" s="2" t="s">
+      <c r="L8" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="N8" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" s="3" customFormat="true" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="N8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="6">
         <v>5189</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="7">
         <v>20</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="2">
+      <c r="D9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="7">
         <v>16</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="6">
         <v>3280</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="7">
         <v>200</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="7">
         <v>42</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="7">
         <v>196</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="8">
         <v>2.9300000667572021</v>
       </c>
-      <c r="L9" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" s="3" customFormat="true" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="L9" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="6">
         <v>10372</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="7">
         <v>16</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="2">
+      <c r="D10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="7">
         <v>17</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="6">
         <v>3880</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="7">
         <v>207</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="7">
         <v>43</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="7">
         <v>231</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="8">
         <v>2.9300000667572021</v>
       </c>
-      <c r="L10" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" s="3" customFormat="true" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="L10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="6">
         <v>4082</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="7">
         <v>19</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="2">
+      <c r="D11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="7">
         <v>13</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="6">
         <v>3400</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="7">
         <v>200</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="7">
         <v>42</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="7">
         <v>231</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="8">
         <v>3.0799999237060547</v>
       </c>
-      <c r="L11" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" s="3" customFormat="true" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="L11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="6">
         <v>11385</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="7">
         <v>14</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="2" t="s">
+      <c r="D12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="7">
         <v>20</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="6">
         <v>4330</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="7">
         <v>221</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="7">
         <v>44</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="7">
         <v>425</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="8">
         <v>2.2799999713897705</v>
       </c>
-      <c r="L12" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N12" s="2" t="s">
+      <c r="L12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" s="3" customFormat="true" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="13">
+      <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="6">
         <v>14500</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="7">
         <v>14</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="2">
+      <c r="E13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="7">
         <v>16</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="6">
         <v>3900</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="7">
         <v>204</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="7">
         <v>43</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="7">
         <v>350</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13" s="8">
         <v>2.190000057220459</v>
       </c>
-      <c r="L13" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="M13" s="2" t="s">
+      <c r="L13" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N13" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" s="3" customFormat="true" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="N13" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="6">
         <v>15906</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="7">
         <v>21</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="2">
+      <c r="D14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="7">
         <v>13</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="6">
         <v>4290</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="7">
         <v>204</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="7">
         <v>45</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="7">
         <v>350</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="8">
         <v>2.2400000095367432</v>
       </c>
-      <c r="L14" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" s="3" customFormat="true" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="L14" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="6">
         <v>3299</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="7">
         <v>29</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="2">
-        <v>9</v>
-      </c>
-      <c r="G15" s="2">
+      <c r="D15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="7">
+        <v>9</v>
+      </c>
+      <c r="G15" s="6">
         <v>2110</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="7">
         <v>163</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="7">
         <v>34</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="7">
         <v>231</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15" s="8">
         <v>2.9300000667572021</v>
       </c>
-      <c r="L15" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" s="3" customFormat="true" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="L15" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="6">
         <v>5705</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="7">
         <v>16</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="7">
         <v>20</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="6">
         <v>3690</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="7">
         <v>212</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="7">
         <v>43</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="7">
         <v>250</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16" s="8">
         <v>2.559999942779541</v>
       </c>
-      <c r="L16" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="M16" s="2" t="s">
+      <c r="L16" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N16" s="2" t="s">
+      <c r="N16" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" s="3" customFormat="true" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="17">
+      <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="6">
         <v>4504</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="7">
         <v>22</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="2">
+      <c r="D17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="7">
         <v>17</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="6">
         <v>3180</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="7">
         <v>193</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="7">
         <v>31</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="7">
         <v>200</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K17" s="8">
         <v>2.7300000190734863</v>
       </c>
-      <c r="L17" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" s="3" customFormat="true" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="L17" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="6">
         <v>5104</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="7">
         <v>22</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="2">
+      <c r="E18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="7">
         <v>16</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="6">
         <v>3220</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="7">
         <v>200</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="7">
         <v>41</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18" s="7">
         <v>200</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K18" s="8">
         <v>2.7300000190734863</v>
       </c>
-      <c r="L18" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="M18" s="2" t="s">
+      <c r="L18" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N18" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" s="3" customFormat="true" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="N18" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="6">
         <v>3667</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="7">
         <v>24</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="2">
+      <c r="E19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="7">
         <v>7</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="6">
         <v>2750</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="7">
         <v>179</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19" s="7">
         <v>40</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19" s="7">
         <v>151</v>
       </c>
-      <c r="K19" s="2">
+      <c r="K19" s="8">
         <v>2.7300000190734863</v>
       </c>
-      <c r="L19" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="M19" s="2" t="s">
+      <c r="L19" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N19" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" s="3" customFormat="true" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="N19" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="6">
         <v>3955</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="7">
         <v>19</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="2">
+      <c r="D20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="7">
         <v>13</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="6">
         <v>3430</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="7">
         <v>197</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="7">
         <v>43</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J20" s="7">
         <v>250</v>
       </c>
-      <c r="K20" s="2">
+      <c r="K20" s="8">
         <v>2.559999942779541</v>
       </c>
-      <c r="L20" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N20" s="2" t="s">
+      <c r="L20" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N20" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="6">
         <v>3984</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="7">
         <v>30</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="2">
+      <c r="E21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="7">
         <v>8</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="6">
         <v>2120</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21" s="7">
         <v>163</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21" s="7">
         <v>35</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J21" s="7">
         <v>98</v>
       </c>
-      <c r="K21" s="2">
+      <c r="K21" s="8">
         <v>3.5399999618530273</v>
       </c>
-      <c r="L21" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="M21" s="2" t="s">
+      <c r="L21" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N21" s="2" t="s">
+      <c r="N21" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="6">
         <v>4010</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="7">
         <v>18</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="7">
         <v>17</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="6">
         <v>3600</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="7">
         <v>206</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I22" s="7">
         <v>46</v>
       </c>
-      <c r="J22" s="2">
+      <c r="J22" s="7">
         <v>318</v>
       </c>
-      <c r="K22" s="2">
+      <c r="K22" s="8">
         <v>2.4700000286102295</v>
       </c>
-      <c r="L22" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="M22" s="2" t="s">
+      <c r="L22" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M22" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N22" s="2" t="s">
+      <c r="N22" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="6">
         <v>5886</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="7">
         <v>16</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="7">
         <v>17</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="6">
         <v>3600</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="7">
         <v>206</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23" s="7">
         <v>46</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J23" s="7">
         <v>318</v>
       </c>
-      <c r="K23" s="2">
+      <c r="K23" s="8">
         <v>2.4700000286102295</v>
       </c>
-      <c r="L23" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="M23" s="2" t="s">
+      <c r="L23" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M23" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N23" s="2" t="s">
+      <c r="N23" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="6">
         <v>6342</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="7">
         <v>17</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="7">
         <v>21</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="6">
         <v>3740</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24" s="7">
         <v>220</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I24" s="7">
         <v>46</v>
       </c>
-      <c r="J24" s="2">
+      <c r="J24" s="7">
         <v>225</v>
       </c>
-      <c r="K24" s="2">
+      <c r="K24" s="8">
         <v>2.940000057220459</v>
       </c>
-      <c r="L24" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="M24" s="2" t="s">
+      <c r="L24" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N24" s="2" t="s">
+      <c r="N24" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="6">
         <v>4389</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="7">
         <v>28</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F25" s="2">
-        <v>9</v>
-      </c>
-      <c r="G25" s="2">
+      <c r="F25" s="7">
+        <v>9</v>
+      </c>
+      <c r="G25" s="6">
         <v>1800</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="7">
         <v>147</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25" s="7">
         <v>33</v>
       </c>
-      <c r="J25" s="2">
+      <c r="J25" s="7">
         <v>98</v>
       </c>
-      <c r="K25" s="2">
+      <c r="K25" s="8">
         <v>3.1500000953674316</v>
       </c>
-      <c r="L25" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="M25" s="2" t="s">
+      <c r="L25" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M25" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N25" s="2" t="s">
+      <c r="N25" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="6">
         <v>4187</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="7">
         <v>21</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" s="2">
-        <v>10</v>
-      </c>
-      <c r="G26" s="2">
+      <c r="D26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="7">
+        <v>10</v>
+      </c>
+      <c r="G26" s="6">
         <v>2650</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="7">
         <v>179</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I26" s="7">
         <v>43</v>
       </c>
-      <c r="J26" s="2">
+      <c r="J26" s="7">
         <v>140</v>
       </c>
-      <c r="K26" s="2">
+      <c r="K26" s="8">
         <v>3.0799999237060547</v>
       </c>
-      <c r="L26" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N26" s="2" t="s">
+      <c r="L26" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N26" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="6">
         <v>11497</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="7">
         <v>12</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="2">
+      <c r="D27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="7">
         <v>22</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27" s="6">
         <v>4840</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="7">
         <v>233</v>
       </c>
-      <c r="I27" s="2">
+      <c r="I27" s="7">
         <v>51</v>
       </c>
-      <c r="J27" s="2">
+      <c r="J27" s="7">
         <v>400</v>
       </c>
-      <c r="K27" s="2">
+      <c r="K27" s="8">
         <v>2.4700000286102295</v>
       </c>
-      <c r="L27" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N27" s="2" t="s">
+      <c r="L27" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N27" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="6">
         <v>13594</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="7">
         <v>12</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" s="2">
+      <c r="D28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="7">
         <v>18</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28" s="6">
         <v>4720</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28" s="7">
         <v>230</v>
       </c>
-      <c r="I28" s="2">
+      <c r="I28" s="7">
         <v>48</v>
       </c>
-      <c r="J28" s="2">
+      <c r="J28" s="7">
         <v>400</v>
       </c>
-      <c r="K28" s="2">
+      <c r="K28" s="8">
         <v>2.4700000286102295</v>
       </c>
-      <c r="L28" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N28" s="2" t="s">
+      <c r="L28" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N28" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="6">
         <v>13466</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="7">
         <v>14</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="2">
+      <c r="D29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="7">
         <v>15</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29" s="6">
         <v>3830</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H29" s="7">
         <v>201</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I29" s="7">
         <v>41</v>
       </c>
-      <c r="J29" s="2">
+      <c r="J29" s="7">
         <v>302</v>
       </c>
-      <c r="K29" s="2">
+      <c r="K29" s="8">
         <v>2.4700000286102295</v>
       </c>
-      <c r="L29" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N29" s="2" t="s">
+      <c r="L29" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N29" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="6">
         <v>3829</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="7">
         <v>22</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" s="2">
-        <v>9</v>
-      </c>
-      <c r="G30" s="2">
+      <c r="E30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="7">
+        <v>9</v>
+      </c>
+      <c r="G30" s="6">
         <v>2580</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30" s="7">
         <v>169</v>
       </c>
-      <c r="I30" s="2">
+      <c r="I30" s="7">
         <v>39</v>
       </c>
-      <c r="J30" s="2">
+      <c r="J30" s="7">
         <v>140</v>
       </c>
-      <c r="K30" s="2">
+      <c r="K30" s="8">
         <v>2.7300000190734863</v>
       </c>
-      <c r="L30" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="M30" s="2" t="s">
+      <c r="L30" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M30" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N30" s="2" t="s">
+      <c r="N30" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="6">
         <v>5379</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="7">
         <v>14</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" s="2">
+      <c r="E31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="7">
         <v>16</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31" s="6">
         <v>4060</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="7">
         <v>221</v>
       </c>
-      <c r="I31" s="2">
+      <c r="I31" s="7">
         <v>48</v>
       </c>
-      <c r="J31" s="2">
+      <c r="J31" s="7">
         <v>302</v>
       </c>
-      <c r="K31" s="2">
+      <c r="K31" s="8">
         <v>2.75</v>
       </c>
-      <c r="L31" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="M31" s="2" t="s">
+      <c r="L31" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M31" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N31" s="2" t="s">
+      <c r="N31" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="6">
         <v>6165</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="7">
         <v>15</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" s="2">
+      <c r="D32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="7">
         <v>23</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32" s="6">
         <v>3720</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H32" s="7">
         <v>212</v>
       </c>
-      <c r="I32" s="2">
+      <c r="I32" s="7">
         <v>44</v>
       </c>
-      <c r="J32" s="2">
+      <c r="J32" s="7">
         <v>302</v>
       </c>
-      <c r="K32" s="2">
+      <c r="K32" s="8">
         <v>2.2599999904632568</v>
       </c>
-      <c r="L32" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="M32" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N32" s="2" t="s">
+      <c r="L32" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N32" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="6">
         <v>4516</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="7">
         <v>18</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33" s="2">
+      <c r="D33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="7">
         <v>15</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G33" s="6">
         <v>3370</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H33" s="7">
         <v>198</v>
       </c>
-      <c r="I33" s="2">
+      <c r="I33" s="7">
         <v>41</v>
       </c>
-      <c r="J33" s="2">
+      <c r="J33" s="7">
         <v>250</v>
       </c>
-      <c r="K33" s="2">
+      <c r="K33" s="8">
         <v>2.4300000667572021</v>
       </c>
-      <c r="L33" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="M33" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N33" s="2" t="s">
+      <c r="L33" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N33" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="6">
         <v>6303</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="7">
         <v>14</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34" s="2">
+      <c r="E34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="7">
         <v>16</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G34" s="6">
         <v>4130</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H34" s="7">
         <v>217</v>
       </c>
-      <c r="I34" s="2">
+      <c r="I34" s="7">
         <v>45</v>
       </c>
-      <c r="J34" s="2">
+      <c r="J34" s="7">
         <v>302</v>
       </c>
-      <c r="K34" s="2">
+      <c r="K34" s="8">
         <v>2.75</v>
       </c>
-      <c r="L34" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="M34" s="2" t="s">
+      <c r="L34" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M34" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N34" s="2" t="s">
+      <c r="N34" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="6">
         <v>3291</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="7">
         <v>20</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35" s="2">
+      <c r="D35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="7">
         <v>17</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G35" s="6">
         <v>2830</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H35" s="7">
         <v>195</v>
       </c>
-      <c r="I35" s="2">
+      <c r="I35" s="7">
         <v>43</v>
       </c>
-      <c r="J35" s="2">
+      <c r="J35" s="7">
         <v>140</v>
       </c>
-      <c r="K35" s="2">
+      <c r="K35" s="8">
         <v>3.0799999237060547</v>
       </c>
-      <c r="L35" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N35" s="2" t="s">
+      <c r="L35" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N35" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="6">
         <v>8814</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="7">
         <v>21</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E36" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="7">
         <v>20</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G36" s="6">
         <v>4060</v>
       </c>
-      <c r="H36" s="2">
+      <c r="H36" s="7">
         <v>220</v>
       </c>
-      <c r="I36" s="2">
+      <c r="I36" s="7">
         <v>43</v>
       </c>
-      <c r="J36" s="2">
+      <c r="J36" s="7">
         <v>350</v>
       </c>
-      <c r="K36" s="2">
+      <c r="K36" s="8">
         <v>2.4100000858306885</v>
       </c>
-      <c r="L36" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="M36" s="2" t="s">
+      <c r="L36" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M36" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N36" s="2" t="s">
+      <c r="N36" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="6">
         <v>5172</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="7">
         <v>19</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F37" s="2">
+      <c r="D37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="7">
         <v>16</v>
       </c>
-      <c r="G37" s="2">
+      <c r="G37" s="6">
         <v>3310</v>
       </c>
-      <c r="H37" s="2">
+      <c r="H37" s="7">
         <v>198</v>
       </c>
-      <c r="I37" s="2">
+      <c r="I37" s="7">
         <v>42</v>
       </c>
-      <c r="J37" s="2">
+      <c r="J37" s="7">
         <v>231</v>
       </c>
-      <c r="K37" s="2">
+      <c r="K37" s="8">
         <v>2.9300000667572021</v>
       </c>
-      <c r="L37" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="M37" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N37" s="2" t="s">
+      <c r="L37" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N37" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="6">
         <v>4733</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="7">
         <v>19</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E38" s="2" t="s">
+      <c r="D38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38" s="7">
         <v>16</v>
       </c>
-      <c r="G38" s="2">
+      <c r="G38" s="6">
         <v>3300</v>
       </c>
-      <c r="H38" s="2">
+      <c r="H38" s="7">
         <v>198</v>
       </c>
-      <c r="I38" s="2">
+      <c r="I38" s="7">
         <v>42</v>
       </c>
-      <c r="J38" s="2">
+      <c r="J38" s="7">
         <v>231</v>
       </c>
-      <c r="K38" s="2">
+      <c r="K38" s="8">
         <v>2.9300000667572021</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N38" s="2" t="s">
+      <c r="L38" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N38" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="6">
         <v>4890</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="7">
         <v>18</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E39" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39" s="7">
         <v>20</v>
       </c>
-      <c r="G39" s="2">
+      <c r="G39" s="6">
         <v>3690</v>
       </c>
-      <c r="H39" s="2">
+      <c r="H39" s="7">
         <v>218</v>
       </c>
-      <c r="I39" s="2">
+      <c r="I39" s="7">
         <v>42</v>
       </c>
-      <c r="J39" s="2">
+      <c r="J39" s="7">
         <v>231</v>
       </c>
-      <c r="K39" s="2">
+      <c r="K39" s="8">
         <v>2.7300000190734863</v>
       </c>
-      <c r="L39" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="M39" s="2" t="s">
+      <c r="L39" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M39" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N39" s="2" t="s">
+      <c r="N39" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="6">
         <v>4181</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="7">
         <v>19</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E40" s="2" t="s">
+      <c r="D40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40" s="7">
         <v>14</v>
       </c>
-      <c r="G40" s="2">
+      <c r="G40" s="6">
         <v>3370</v>
       </c>
-      <c r="H40" s="2">
+      <c r="H40" s="7">
         <v>200</v>
       </c>
-      <c r="I40" s="2">
+      <c r="I40" s="7">
         <v>43</v>
       </c>
-      <c r="J40" s="2">
+      <c r="J40" s="7">
         <v>231</v>
       </c>
-      <c r="K40" s="2">
+      <c r="K40" s="8">
         <v>3.0799999237060547</v>
       </c>
-      <c r="L40" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="M40" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N40" s="2" t="s">
+      <c r="L40" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N40" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="6">
         <v>4195</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="7">
         <v>24</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F41" s="2">
-        <v>10</v>
-      </c>
-      <c r="G41" s="2">
+      <c r="E41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" s="7">
+        <v>10</v>
+      </c>
+      <c r="G41" s="6">
         <v>2730</v>
       </c>
-      <c r="H41" s="2">
+      <c r="H41" s="7">
         <v>180</v>
       </c>
-      <c r="I41" s="2">
+      <c r="I41" s="7">
         <v>40</v>
       </c>
-      <c r="J41" s="2">
+      <c r="J41" s="7">
         <v>151</v>
       </c>
-      <c r="K41" s="2">
+      <c r="K41" s="8">
         <v>2.7300000190734863</v>
       </c>
-      <c r="L41" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="M41" s="2" t="s">
+      <c r="L41" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M41" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="N41" s="2" t="s">
+      <c r="N41" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="6">
         <v>10371</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="7">
         <v>16</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F42" s="2">
+      <c r="D42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" s="7">
         <v>17</v>
       </c>
-      <c r="G42" s="2">
+      <c r="G42" s="6">
         <v>4030</v>
       </c>
-      <c r="H42" s="2">
+      <c r="H42" s="7">
         <v>206</v>
       </c>
-      <c r="I42" s="2">
+      <c r="I42" s="7">
         <v>43</v>
       </c>
-      <c r="J42" s="2">
+      <c r="J42" s="7">
         <v>350</v>
       </c>
-      <c r="K42" s="2">
+      <c r="K42" s="8">
         <v>2.4100000858306885</v>
       </c>
-      <c r="L42" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="M42" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N42" s="2" t="s">
+      <c r="L42" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N42" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="6">
         <v>4647</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="7">
         <v>28</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F43" s="2">
+      <c r="D43" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" s="7">
         <v>11</v>
       </c>
-      <c r="G43" s="2">
+      <c r="G43" s="6">
         <v>3260</v>
       </c>
-      <c r="H43" s="2">
+      <c r="H43" s="7">
         <v>170</v>
       </c>
-      <c r="I43" s="2">
+      <c r="I43" s="7">
         <v>37</v>
       </c>
-      <c r="J43" s="2">
+      <c r="J43" s="7">
         <v>156</v>
       </c>
-      <c r="K43" s="2">
+      <c r="K43" s="8">
         <v>3.0499999523162842</v>
       </c>
-      <c r="L43" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="M43" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N43" s="2" t="s">
+      <c r="L43" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N43" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="6">
         <v>4425</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="7">
         <v>34</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F44" s="2">
+      <c r="E44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" s="7">
         <v>11</v>
       </c>
-      <c r="G44" s="2">
+      <c r="G44" s="6">
         <v>1800</v>
       </c>
-      <c r="H44" s="2">
+      <c r="H44" s="7">
         <v>157</v>
       </c>
-      <c r="I44" s="2">
+      <c r="I44" s="7">
         <v>37</v>
       </c>
-      <c r="J44" s="2">
+      <c r="J44" s="7">
         <v>86</v>
       </c>
-      <c r="K44" s="2">
+      <c r="K44" s="8">
         <v>2.9700000286102295</v>
       </c>
-      <c r="L44" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="M44" s="2" t="s">
+      <c r="L44" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M44" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N44" s="2" t="s">
+      <c r="N44" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="6">
         <v>4482</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="7">
         <v>25</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" s="2" t="s">
+      <c r="D45" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45" s="7">
         <v>17</v>
       </c>
-      <c r="G45" s="2">
+      <c r="G45" s="6">
         <v>2200</v>
       </c>
-      <c r="H45" s="2">
+      <c r="H45" s="7">
         <v>165</v>
       </c>
-      <c r="I45" s="2">
+      <c r="I45" s="7">
         <v>36</v>
       </c>
-      <c r="J45" s="2">
+      <c r="J45" s="7">
         <v>105</v>
       </c>
-      <c r="K45" s="2">
+      <c r="K45" s="8">
         <v>3.369999885559082</v>
       </c>
-      <c r="L45" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="M45" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N45" s="2" t="s">
+      <c r="L45" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N45" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="6">
         <v>6486</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46" s="7">
         <v>26</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E46" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F46" s="7">
         <v>8</v>
       </c>
-      <c r="G46" s="2">
+      <c r="G46" s="6">
         <v>2520</v>
       </c>
-      <c r="H46" s="2">
+      <c r="H46" s="7">
         <v>182</v>
       </c>
-      <c r="I46" s="2">
+      <c r="I46" s="7">
         <v>38</v>
       </c>
-      <c r="J46" s="2">
+      <c r="J46" s="7">
         <v>119</v>
       </c>
-      <c r="K46" s="2">
+      <c r="K46" s="8">
         <v>3.5399999618530273</v>
       </c>
-      <c r="L46" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="M46" s="2" t="s">
+      <c r="L46" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M46" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="N46" s="2" t="s">
+      <c r="N46" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="6">
         <v>4060</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47" s="7">
         <v>18</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D47" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="E47" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F47" s="7">
         <v>16</v>
       </c>
-      <c r="G47" s="2">
+      <c r="G47" s="6">
         <v>3330</v>
       </c>
-      <c r="H47" s="2">
+      <c r="H47" s="7">
         <v>201</v>
       </c>
-      <c r="I47" s="2">
+      <c r="I47" s="7">
         <v>44</v>
       </c>
-      <c r="J47" s="2">
+      <c r="J47" s="7">
         <v>225</v>
       </c>
-      <c r="K47" s="2">
+      <c r="K47" s="8">
         <v>3.2300000190734863</v>
       </c>
-      <c r="L47" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="M47" s="2" t="s">
+      <c r="L47" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M47" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N47" s="2" t="s">
+      <c r="N47" s="1" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="6">
         <v>5798</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48" s="7">
         <v>18</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D48" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="E48" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F48" s="7">
         <v>20</v>
       </c>
-      <c r="G48" s="2">
+      <c r="G48" s="6">
         <v>3700</v>
       </c>
-      <c r="H48" s="2">
+      <c r="H48" s="7">
         <v>214</v>
       </c>
-      <c r="I48" s="2">
+      <c r="I48" s="7">
         <v>42</v>
       </c>
-      <c r="J48" s="2">
+      <c r="J48" s="7">
         <v>231</v>
       </c>
-      <c r="K48" s="2">
+      <c r="K48" s="8">
         <v>2.7300000190734863</v>
       </c>
-      <c r="L48" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="M48" s="2" t="s">
+      <c r="L48" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M48" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N48" s="2" t="s">
+      <c r="N48" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49" s="6">
         <v>4934</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49" s="7">
         <v>18</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D49" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="E49" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F49" s="2">
+      <c r="F49" s="7">
         <v>7</v>
       </c>
-      <c r="G49" s="2">
+      <c r="G49" s="6">
         <v>3470</v>
       </c>
-      <c r="H49" s="2">
+      <c r="H49" s="7">
         <v>198</v>
       </c>
-      <c r="I49" s="2">
+      <c r="I49" s="7">
         <v>42</v>
       </c>
-      <c r="J49" s="2">
+      <c r="J49" s="7">
         <v>231</v>
       </c>
-      <c r="K49" s="2">
+      <c r="K49" s="8">
         <v>3.0799999237060547</v>
       </c>
-      <c r="L49" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="M49" s="2" t="s">
+      <c r="L49" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M49" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="N49" s="2" t="s">
+      <c r="N49" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" s="6">
         <v>5222</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50" s="7">
         <v>19</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F50" s="2">
+      <c r="D50" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" s="7">
         <v>16</v>
       </c>
-      <c r="G50" s="2">
+      <c r="G50" s="6">
         <v>3210</v>
       </c>
-      <c r="H50" s="2">
+      <c r="H50" s="7">
         <v>201</v>
       </c>
-      <c r="I50" s="2">
+      <c r="I50" s="7">
         <v>45</v>
       </c>
-      <c r="J50" s="2">
+      <c r="J50" s="7">
         <v>231</v>
       </c>
-      <c r="K50" s="2">
+      <c r="K50" s="8">
         <v>2.9300000667572021</v>
       </c>
-      <c r="L50" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="M50" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N50" s="2" t="s">
+      <c r="L50" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N50" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="6">
         <v>4723</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51" s="7">
         <v>19</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F51" s="2">
+      <c r="D51" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" s="7">
         <v>17</v>
       </c>
-      <c r="G51" s="2">
+      <c r="G51" s="6">
         <v>3200</v>
       </c>
-      <c r="H51" s="2">
+      <c r="H51" s="7">
         <v>199</v>
       </c>
-      <c r="I51" s="2">
+      <c r="I51" s="7">
         <v>40</v>
       </c>
-      <c r="J51" s="2">
+      <c r="J51" s="7">
         <v>231</v>
       </c>
-      <c r="K51" s="2">
+      <c r="K51" s="8">
         <v>2.9300000667572021</v>
       </c>
-      <c r="L51" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="M51" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N51" s="2" t="s">
+      <c r="L51" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N51" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="6">
         <v>4424</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52" s="7">
         <v>19</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D52" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F52" s="2">
+      <c r="E52" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" s="7">
         <v>13</v>
       </c>
-      <c r="G52" s="2">
+      <c r="G52" s="6">
         <v>3420</v>
       </c>
-      <c r="H52" s="2">
+      <c r="H52" s="7">
         <v>203</v>
       </c>
-      <c r="I52" s="2">
+      <c r="I52" s="7">
         <v>43</v>
       </c>
-      <c r="J52" s="2">
+      <c r="J52" s="7">
         <v>231</v>
       </c>
-      <c r="K52" s="2">
+      <c r="K52" s="8">
         <v>3.0799999237060547</v>
       </c>
-      <c r="L52" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="M52" s="2" t="s">
+      <c r="L52" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M52" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="N52" s="2" t="s">
+      <c r="N52" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53" s="6">
         <v>4172</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C53" s="7">
         <v>24</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D53" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F53" s="2">
+      <c r="E53" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53" s="7">
         <v>7</v>
       </c>
-      <c r="G53" s="2">
+      <c r="G53" s="6">
         <v>2690</v>
       </c>
-      <c r="H53" s="2">
+      <c r="H53" s="7">
         <v>179</v>
       </c>
-      <c r="I53" s="2">
+      <c r="I53" s="7">
         <v>41</v>
       </c>
-      <c r="J53" s="2">
+      <c r="J53" s="7">
         <v>151</v>
       </c>
-      <c r="K53" s="2">
+      <c r="K53" s="8">
         <v>2.7300000190734863</v>
       </c>
-      <c r="L53" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="M53" s="2" t="s">
+      <c r="L53" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M53" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N53" s="2" t="s">
+      <c r="N53" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54" s="6">
         <v>9690</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C54" s="7">
         <v>17</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D54" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E54" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F54" s="2">
+      <c r="E54" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" s="7">
         <v>15</v>
       </c>
-      <c r="G54" s="2">
+      <c r="G54" s="6">
         <v>2830</v>
       </c>
-      <c r="H54" s="2">
+      <c r="H54" s="7">
         <v>189</v>
       </c>
-      <c r="I54" s="2">
+      <c r="I54" s="7">
         <v>37</v>
       </c>
-      <c r="J54" s="2">
+      <c r="J54" s="7">
         <v>131</v>
       </c>
-      <c r="K54" s="2">
+      <c r="K54" s="8">
         <v>3.2000000476837158</v>
       </c>
-      <c r="L54" s="2" t="s">
+      <c r="L54" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="M54" s="2" t="s">
+      <c r="M54" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N54" s="2" t="s">
+      <c r="N54" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55" s="6">
         <v>6295</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C55" s="7">
         <v>23</v>
       </c>
-      <c r="D55" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F55" s="2">
+      <c r="D55" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55" s="7">
         <v>11</v>
       </c>
-      <c r="G55" s="2">
+      <c r="G55" s="6">
         <v>2070</v>
       </c>
-      <c r="H55" s="2">
+      <c r="H55" s="7">
         <v>174</v>
       </c>
-      <c r="I55" s="2">
+      <c r="I55" s="7">
         <v>36</v>
       </c>
-      <c r="J55" s="2">
+      <c r="J55" s="7">
         <v>97</v>
       </c>
-      <c r="K55" s="2">
+      <c r="K55" s="8">
         <v>3.7000000476837158</v>
       </c>
-      <c r="L55" s="2" t="s">
+      <c r="L55" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="M55" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N55" s="2" t="s">
+      <c r="M55" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N55" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="s">
+      <c r="A56" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56" s="6">
         <v>9735</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C56" s="7">
         <v>25</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D56" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F56" s="2">
+      <c r="E56" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56" s="7">
         <v>12</v>
       </c>
-      <c r="G56" s="2">
+      <c r="G56" s="6">
         <v>2650</v>
       </c>
-      <c r="H56" s="2">
+      <c r="H56" s="7">
         <v>177</v>
       </c>
-      <c r="I56" s="2">
+      <c r="I56" s="7">
         <v>34</v>
       </c>
-      <c r="J56" s="2">
+      <c r="J56" s="7">
         <v>121</v>
       </c>
-      <c r="K56" s="2">
+      <c r="K56" s="8">
         <v>3.6400001049041748</v>
       </c>
-      <c r="L56" s="2" t="s">
+      <c r="L56" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="M56" s="2" t="s">
+      <c r="M56" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N56" s="2" t="s">
+      <c r="N56" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57" s="6">
         <v>6229</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C57" s="7">
         <v>23</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D57" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="E57" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F57" s="2">
+      <c r="F57" s="7">
         <v>6</v>
       </c>
-      <c r="G57" s="2">
+      <c r="G57" s="6">
         <v>2370</v>
       </c>
-      <c r="H57" s="2">
+      <c r="H57" s="7">
         <v>170</v>
       </c>
-      <c r="I57" s="2">
+      <c r="I57" s="7">
         <v>35</v>
       </c>
-      <c r="J57" s="2">
+      <c r="J57" s="7">
         <v>119</v>
       </c>
-      <c r="K57" s="2">
+      <c r="K57" s="8">
         <v>3.8900001049041748</v>
       </c>
-      <c r="L57" s="2" t="s">
+      <c r="L57" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="M57" s="2" t="s">
+      <c r="M57" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N57" s="2" t="s">
+      <c r="N57" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58" s="6">
         <v>4589</v>
       </c>
-      <c r="C58" s="2">
+      <c r="C58" s="7">
         <v>35</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D58" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E58" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F58" s="2">
+      <c r="E58" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58" s="7">
         <v>8</v>
       </c>
-      <c r="G58" s="2">
+      <c r="G58" s="6">
         <v>2020</v>
       </c>
-      <c r="H58" s="2">
+      <c r="H58" s="7">
         <v>165</v>
       </c>
-      <c r="I58" s="2">
+      <c r="I58" s="7">
         <v>32</v>
       </c>
-      <c r="J58" s="2">
+      <c r="J58" s="7">
         <v>85</v>
       </c>
-      <c r="K58" s="2">
+      <c r="K58" s="8">
         <v>3.7000000476837158</v>
       </c>
-      <c r="L58" s="2" t="s">
+      <c r="L58" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="M58" s="2" t="s">
+      <c r="M58" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N58" s="2" t="s">
+      <c r="N58" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59" s="6">
         <v>5079</v>
       </c>
-      <c r="C59" s="2">
+      <c r="C59" s="7">
         <v>24</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D59" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E59" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F59" s="2">
+      <c r="E59" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" s="7">
         <v>8</v>
       </c>
-      <c r="G59" s="2">
+      <c r="G59" s="6">
         <v>2280</v>
       </c>
-      <c r="H59" s="2">
+      <c r="H59" s="7">
         <v>170</v>
       </c>
-      <c r="I59" s="2">
+      <c r="I59" s="7">
         <v>34</v>
       </c>
-      <c r="J59" s="2">
+      <c r="J59" s="7">
         <v>119</v>
       </c>
-      <c r="K59" s="2">
+      <c r="K59" s="8">
         <v>3.5399999618530273</v>
       </c>
-      <c r="L59" s="2" t="s">
+      <c r="L59" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="M59" s="2" t="s">
+      <c r="M59" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N59" s="2" t="s">
+      <c r="N59" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="s">
+      <c r="A60" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B60" s="6">
         <v>8129</v>
       </c>
-      <c r="C60" s="2">
+      <c r="C60" s="7">
         <v>21</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D60" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E60" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F60" s="2">
+      <c r="E60" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" s="7">
         <v>8</v>
       </c>
-      <c r="G60" s="2">
+      <c r="G60" s="6">
         <v>2750</v>
       </c>
-      <c r="H60" s="2">
+      <c r="H60" s="7">
         <v>184</v>
       </c>
-      <c r="I60" s="2">
+      <c r="I60" s="7">
         <v>38</v>
       </c>
-      <c r="J60" s="2">
+      <c r="J60" s="7">
         <v>146</v>
       </c>
-      <c r="K60" s="2">
+      <c r="K60" s="8">
         <v>3.5499999523162842</v>
       </c>
-      <c r="L60" s="2" t="s">
+      <c r="L60" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="M60" s="2" t="s">
+      <c r="M60" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N60" s="2" t="s">
+      <c r="N60" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61" s="6">
         <v>4296</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C61" s="7">
         <v>21</v>
       </c>
-      <c r="D61" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F61" s="2">
+      <c r="D61" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" s="7">
         <v>16</v>
       </c>
-      <c r="G61" s="2">
+      <c r="G61" s="6">
         <v>2130</v>
       </c>
-      <c r="H61" s="2">
+      <c r="H61" s="7">
         <v>161</v>
       </c>
-      <c r="I61" s="2">
+      <c r="I61" s="7">
         <v>36</v>
       </c>
-      <c r="J61" s="2">
+      <c r="J61" s="7">
         <v>105</v>
       </c>
-      <c r="K61" s="2">
+      <c r="K61" s="8">
         <v>3.369999885559082</v>
       </c>
-      <c r="L61" s="2" t="s">
+      <c r="L61" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="M61" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N61" s="2" t="s">
+      <c r="M61" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N61" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B62" s="6">
         <v>5799</v>
       </c>
-      <c r="C62" s="2">
+      <c r="C62" s="7">
         <v>25</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D62" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E62" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F62" s="2">
-        <v>10</v>
-      </c>
-      <c r="G62" s="2">
+      <c r="E62" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" s="7">
+        <v>10</v>
+      </c>
+      <c r="G62" s="6">
         <v>2240</v>
       </c>
-      <c r="H62" s="2">
+      <c r="H62" s="7">
         <v>172</v>
       </c>
-      <c r="I62" s="2">
+      <c r="I62" s="7">
         <v>36</v>
       </c>
-      <c r="J62" s="2">
+      <c r="J62" s="7">
         <v>107</v>
       </c>
-      <c r="K62" s="2">
+      <c r="K62" s="8">
         <v>3.0499999523162842</v>
       </c>
-      <c r="L62" s="2" t="s">
+      <c r="L62" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="M62" s="2" t="s">
+      <c r="M62" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N62" s="2" t="s">
+      <c r="N62" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="s">
+      <c r="A63" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B63" s="6">
         <v>4499</v>
       </c>
-      <c r="C63" s="2">
+      <c r="C63" s="7">
         <v>28</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D63" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E63" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F63" s="2">
+      <c r="E63" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63" s="7">
         <v>5</v>
       </c>
-      <c r="G63" s="2">
+      <c r="G63" s="6">
         <v>1760</v>
       </c>
-      <c r="H63" s="2">
+      <c r="H63" s="7">
         <v>149</v>
       </c>
-      <c r="I63" s="2">
+      <c r="I63" s="7">
         <v>34</v>
       </c>
-      <c r="J63" s="2">
+      <c r="J63" s="7">
         <v>91</v>
       </c>
-      <c r="K63" s="2">
+      <c r="K63" s="8">
         <v>3.2999999523162842</v>
       </c>
-      <c r="L63" s="2" t="s">
+      <c r="L63" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="M63" s="2" t="s">
+      <c r="M63" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N63" s="2" t="s">
+      <c r="N63" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="s">
+      <c r="A64" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B64" s="6">
         <v>3995</v>
       </c>
-      <c r="C64" s="2">
+      <c r="C64" s="7">
         <v>30</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="D64" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E64" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F64" s="2">
+      <c r="E64" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F64" s="7">
         <v>11</v>
       </c>
-      <c r="G64" s="2">
+      <c r="G64" s="6">
         <v>1980</v>
       </c>
-      <c r="H64" s="2">
+      <c r="H64" s="7">
         <v>154</v>
       </c>
-      <c r="I64" s="2">
+      <c r="I64" s="7">
         <v>33</v>
       </c>
-      <c r="J64" s="2">
+      <c r="J64" s="7">
         <v>86</v>
       </c>
-      <c r="K64" s="2">
+      <c r="K64" s="8">
         <v>3.7300000190734863</v>
       </c>
-      <c r="L64" s="2" t="s">
+      <c r="L64" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="M64" s="2" t="s">
+      <c r="M64" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N64" s="2" t="s">
+      <c r="N64" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2" t="s">
+      <c r="A65" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B65" s="6">
         <v>12990</v>
       </c>
-      <c r="C65" s="2">
+      <c r="C65" s="7">
         <v>14</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="D65" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E65" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F65" s="2">
+      <c r="E65" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65" s="7">
         <v>14</v>
       </c>
-      <c r="G65" s="2">
+      <c r="G65" s="6">
         <v>3420</v>
       </c>
-      <c r="H65" s="2">
+      <c r="H65" s="7">
         <v>192</v>
       </c>
-      <c r="I65" s="2">
+      <c r="I65" s="7">
         <v>38</v>
       </c>
-      <c r="J65" s="2">
+      <c r="J65" s="7">
         <v>163</v>
       </c>
-      <c r="K65" s="2">
+      <c r="K65" s="8">
         <v>3.5799999237060547</v>
       </c>
-      <c r="L65" s="2" t="s">
+      <c r="L65" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="M65" s="2" t="s">
+      <c r="M65" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="N65" s="2" t="s">
+      <c r="N65" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="s">
+      <c r="A66" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B66" s="6">
         <v>3895</v>
       </c>
-      <c r="C66" s="2">
+      <c r="C66" s="7">
         <v>26</v>
       </c>
-      <c r="D66" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F66" s="2">
-        <v>10</v>
-      </c>
-      <c r="G66" s="2">
+      <c r="D66" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66" s="7">
+        <v>10</v>
+      </c>
+      <c r="G66" s="6">
         <v>1830</v>
       </c>
-      <c r="H66" s="2">
+      <c r="H66" s="7">
         <v>142</v>
       </c>
-      <c r="I66" s="2">
+      <c r="I66" s="7">
         <v>34</v>
       </c>
-      <c r="J66" s="2">
+      <c r="J66" s="7">
         <v>79</v>
       </c>
-      <c r="K66" s="2">
+      <c r="K66" s="8">
         <v>3.7200000286102295</v>
       </c>
-      <c r="L66" s="2" t="s">
+      <c r="L66" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="M66" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N66" s="2" t="s">
+      <c r="M66" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N66" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="2" t="s">
+      <c r="A67" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B67" s="6">
         <v>3798</v>
       </c>
-      <c r="C67" s="2">
+      <c r="C67" s="7">
         <v>35</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="D67" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E67" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F67" s="2">
+      <c r="E67" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F67" s="7">
         <v>11</v>
       </c>
-      <c r="G67" s="2">
+      <c r="G67" s="6">
         <v>2050</v>
       </c>
-      <c r="H67" s="2">
+      <c r="H67" s="7">
         <v>164</v>
       </c>
-      <c r="I67" s="2">
+      <c r="I67" s="7">
         <v>36</v>
       </c>
-      <c r="J67" s="2">
+      <c r="J67" s="7">
         <v>97</v>
       </c>
-      <c r="K67" s="2">
+      <c r="K67" s="8">
         <v>3.809999942779541</v>
       </c>
-      <c r="L67" s="2" t="s">
+      <c r="L67" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="M67" s="2" t="s">
+      <c r="M67" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N67" s="2" t="s">
+      <c r="N67" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="2" t="s">
+      <c r="A68" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B68" s="6">
         <v>5899</v>
       </c>
-      <c r="C68" s="2">
+      <c r="C68" s="7">
         <v>18</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="D68" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E68" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F68" s="2">
+      <c r="E68" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F68" s="7">
         <v>14</v>
       </c>
-      <c r="G68" s="2">
+      <c r="G68" s="6">
         <v>2410</v>
       </c>
-      <c r="H68" s="2">
+      <c r="H68" s="7">
         <v>174</v>
       </c>
-      <c r="I68" s="2">
+      <c r="I68" s="7">
         <v>36</v>
       </c>
-      <c r="J68" s="2">
+      <c r="J68" s="7">
         <v>134</v>
       </c>
-      <c r="K68" s="2">
+      <c r="K68" s="8">
         <v>3.059999942779541</v>
       </c>
-      <c r="L68" s="2" t="s">
+      <c r="L68" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="M68" s="2" t="s">
+      <c r="M68" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N68" s="2" t="s">
+      <c r="N68" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="2" t="s">
+      <c r="A69" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B69" s="6">
         <v>3748</v>
       </c>
-      <c r="C69" s="2">
+      <c r="C69" s="7">
         <v>31</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="D69" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E69" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F69" s="2">
-        <v>9</v>
-      </c>
-      <c r="G69" s="2">
+      <c r="E69" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F69" s="7">
+        <v>9</v>
+      </c>
+      <c r="G69" s="6">
         <v>2200</v>
       </c>
-      <c r="H69" s="2">
+      <c r="H69" s="7">
         <v>165</v>
       </c>
-      <c r="I69" s="2">
+      <c r="I69" s="7">
         <v>35</v>
       </c>
-      <c r="J69" s="2">
+      <c r="J69" s="7">
         <v>97</v>
       </c>
-      <c r="K69" s="2">
+      <c r="K69" s="8">
         <v>3.2100000381469727</v>
       </c>
-      <c r="L69" s="2" t="s">
+      <c r="L69" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="M69" s="2" t="s">
+      <c r="M69" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N69" s="2" t="s">
+      <c r="N69" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="2" t="s">
+      <c r="A70" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B70" s="6">
         <v>5719</v>
       </c>
-      <c r="C70" s="2">
+      <c r="C70" s="7">
         <v>18</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="D70" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E70" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F70" s="2">
+      <c r="E70" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F70" s="7">
         <v>11</v>
       </c>
-      <c r="G70" s="2">
+      <c r="G70" s="6">
         <v>2670</v>
       </c>
-      <c r="H70" s="2">
+      <c r="H70" s="7">
         <v>175</v>
       </c>
-      <c r="I70" s="2">
+      <c r="I70" s="7">
         <v>36</v>
       </c>
-      <c r="J70" s="2">
+      <c r="J70" s="7">
         <v>134</v>
       </c>
-      <c r="K70" s="2">
+      <c r="K70" s="8">
         <v>3.0499999523162842</v>
       </c>
-      <c r="L70" s="2" t="s">
+      <c r="L70" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="M70" s="2" t="s">
+      <c r="M70" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N70" s="2" t="s">
+      <c r="N70" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="2" t="s">
+      <c r="A71" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B71" s="6">
         <v>7140</v>
       </c>
-      <c r="C71" s="2">
+      <c r="C71" s="7">
         <v>23</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D71" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E71" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F71" s="2">
+      <c r="E71" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F71" s="7">
         <v>12</v>
       </c>
-      <c r="G71" s="2">
+      <c r="G71" s="6">
         <v>2160</v>
       </c>
-      <c r="H71" s="2">
+      <c r="H71" s="7">
         <v>172</v>
       </c>
-      <c r="I71" s="2">
+      <c r="I71" s="7">
         <v>36</v>
       </c>
-      <c r="J71" s="2">
+      <c r="J71" s="7">
         <v>97</v>
       </c>
-      <c r="K71" s="2">
+      <c r="K71" s="8">
         <v>3.7400000095367432</v>
       </c>
-      <c r="L71" s="2" t="s">
+      <c r="L71" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="M71" s="2" t="s">
+      <c r="M71" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N71" s="2" t="s">
+      <c r="N71" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="2" t="s">
+      <c r="A72" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B72" s="6">
         <v>5397</v>
       </c>
-      <c r="C72" s="2">
+      <c r="C72" s="7">
         <v>41</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="D72" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E72" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F72" s="2">
+      <c r="E72" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F72" s="7">
         <v>15</v>
       </c>
-      <c r="G72" s="2">
+      <c r="G72" s="6">
         <v>2040</v>
       </c>
-      <c r="H72" s="2">
+      <c r="H72" s="7">
         <v>155</v>
       </c>
-      <c r="I72" s="2">
+      <c r="I72" s="7">
         <v>35</v>
       </c>
-      <c r="J72" s="2">
+      <c r="J72" s="7">
         <v>90</v>
       </c>
-      <c r="K72" s="2">
+      <c r="K72" s="8">
         <v>3.7799999713897705</v>
       </c>
-      <c r="L72" s="2" t="s">
+      <c r="L72" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="M72" s="2" t="s">
+      <c r="M72" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N72" s="2" t="s">
+      <c r="N72" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="2" t="s">
+      <c r="A73" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B73" s="6">
         <v>4697</v>
       </c>
-      <c r="C73" s="2">
+      <c r="C73" s="7">
         <v>25</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="D73" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E73" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F73" s="2">
+      <c r="E73" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F73" s="7">
         <v>15</v>
       </c>
-      <c r="G73" s="2">
+      <c r="G73" s="6">
         <v>1930</v>
       </c>
-      <c r="H73" s="2">
+      <c r="H73" s="7">
         <v>155</v>
       </c>
-      <c r="I73" s="2">
+      <c r="I73" s="7">
         <v>35</v>
       </c>
-      <c r="J73" s="2">
+      <c r="J73" s="7">
         <v>89</v>
       </c>
-      <c r="K73" s="2">
+      <c r="K73" s="8">
         <v>3.7799999713897705</v>
       </c>
-      <c r="L73" s="2" t="s">
+      <c r="L73" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="M73" s="2" t="s">
+      <c r="M73" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N73" s="2" t="s">
+      <c r="N73" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="2" t="s">
+      <c r="A74" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B74" s="2">
+      <c r="B74" s="6">
         <v>6850</v>
       </c>
-      <c r="C74" s="2">
+      <c r="C74" s="7">
         <v>25</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="D74" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E74" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F74" s="2">
+      <c r="E74" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F74" s="7">
         <v>16</v>
       </c>
-      <c r="G74" s="2">
+      <c r="G74" s="6">
         <v>1990</v>
       </c>
-      <c r="H74" s="2">
+      <c r="H74" s="7">
         <v>156</v>
       </c>
-      <c r="I74" s="2">
+      <c r="I74" s="7">
         <v>36</v>
       </c>
-      <c r="J74" s="2">
+      <c r="J74" s="7">
         <v>97</v>
       </c>
-      <c r="K74" s="2">
+      <c r="K74" s="8">
         <v>3.7799999713897705</v>
       </c>
-      <c r="L74" s="2" t="s">
+      <c r="L74" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="M74" s="2" t="s">
+      <c r="M74" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N74" s="2" t="s">
+      <c r="N74" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="2" t="s">
+      <c r="A75" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B75" s="2">
+      <c r="B75" s="6">
         <v>11995</v>
       </c>
-      <c r="C75" s="2">
+      <c r="C75" s="7">
         <v>17</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="D75" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E75" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F75" s="2">
+      <c r="E75" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F75" s="7">
         <v>14</v>
       </c>
-      <c r="G75" s="2">
+      <c r="G75" s="6">
         <v>3170</v>
       </c>
-      <c r="H75" s="2">
+      <c r="H75" s="7">
         <v>193</v>
       </c>
-      <c r="I75" s="2">
+      <c r="I75" s="7">
         <v>37</v>
       </c>
-      <c r="J75" s="2">
+      <c r="J75" s="7">
         <v>163</v>
       </c>
-      <c r="K75" s="2">
+      <c r="K75" s="8">
         <v>2.9800000190734863</v>
       </c>
-      <c r="L75" s="2" t="s">
+      <c r="L75" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="M75" s="2" t="s">
+      <c r="M75" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N75" s="2" t="s">
+      <c r="N75" s="1" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:ZZ1048576 AAA1:XFD1">
-    <cfRule type="containsText" dxfId="26" priority="1" operator="containsText" text="↓">
+    <cfRule type="containsText" dxfId="47" priority="2" operator="containsText" text="↓">
       <formula>NOT(ISERROR(SEARCH("↓",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="2" operator="containsText" text="→">
+    <cfRule type="containsText" dxfId="46" priority="3" operator="containsText" text="→">
       <formula>NOT(ISERROR(SEARCH("→",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="3" operator="containsText" text="➚">
+    <cfRule type="containsText" dxfId="45" priority="4" operator="containsText" text="➚">
       <formula>NOT(ISERROR(SEARCH("➚",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="4" operator="containsText" text="↑">
+    <cfRule type="containsText" dxfId="44" priority="5" operator="containsText" text="↑">
       <formula>NOT(ISERROR(SEARCH("↑",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="5" operator="containsText" text="gray">
+    <cfRule type="containsText" dxfId="43" priority="6" operator="containsText" text="gray">
       <formula>NOT(ISERROR(SEARCH("gray",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="6" operator="containsText" text="orange">
+    <cfRule type="containsText" dxfId="42" priority="7" operator="containsText" text="orange">
       <formula>NOT(ISERROR(SEARCH("orange",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="7" operator="containsText" text="yellow">
+    <cfRule type="containsText" dxfId="41" priority="8" operator="containsText" text="yellow">
       <formula>NOT(ISERROR(SEARCH("yellow",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="8" operator="containsText" text="red">
+    <cfRule type="containsText" dxfId="40" priority="9" operator="containsText" text="red">
       <formula>NOT(ISERROR(SEARCH("red",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="9" operator="containsText" text="green">
+    <cfRule type="containsText" dxfId="39" priority="10" operator="containsText" text="green">
       <formula>NOT(ISERROR(SEARCH("green",A1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:XFD1">
+    <cfRule type="expression" dxfId="38" priority="1">
+      <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4695,23 +5159,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3AF4C6E-3E65-4E26-AFB9-A800448A3220}">
   <dimension ref="A1:N75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="27" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>90</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -4748,14 +5210,14 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="true" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2">
+      <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="6">
         <v>4099</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="7">
         <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -4764,22 +5226,22 @@
       <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="7">
         <v>11</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="6">
         <v>2930</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="7">
         <v>186</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="7">
         <v>40</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="7">
         <v>121</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="8">
         <v>3.5799999237060547</v>
       </c>
       <c r="L2" s="2" t="s">
@@ -4792,14 +5254,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="true" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3">
+      <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="6">
         <v>4749</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="7">
         <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -4808,22 +5270,22 @@
       <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="7">
         <v>11</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="6">
         <v>3350</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="7">
         <v>173</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="7">
         <v>40</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="7">
         <v>258</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="8">
         <v>2.5299999713897705</v>
       </c>
       <c r="L3" s="2" t="s">
@@ -4836,14 +5298,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="true" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4">
+      <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="6">
         <v>3799</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="7">
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -4852,22 +5314,22 @@
       <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="7">
         <v>12</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="6">
         <v>2640</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="7">
         <v>168</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="7">
         <v>35</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="7">
         <v>121</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="8">
         <v>3.0799999237060547</v>
       </c>
       <c r="L4" s="2" t="s">
@@ -4880,14 +5342,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" s="3" customFormat="true" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5">
+      <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="6">
         <v>4816</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="7">
         <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -4896,22 +5358,22 @@
       <c r="E5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="7">
         <v>16</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="6">
         <v>3250</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="7">
         <v>196</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="7">
         <v>40</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="7">
         <v>196</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="8">
         <v>2.9300000667572021</v>
       </c>
       <c r="L5" s="2" t="s">
@@ -4924,38 +5386,38 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="true" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6">
+      <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="6">
         <v>7827</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="7">
         <v>15</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="7">
         <v>20</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="6">
         <v>4080</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="7">
         <v>222</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="7">
         <v>43</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="7">
         <v>350</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="8">
         <v>2.4100000858306885</v>
       </c>
       <c r="L6" s="2" t="s">
@@ -4968,14 +5430,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="true" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+    <row r="7">
+      <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="6">
         <v>5788</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="7">
         <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -4984,22 +5446,22 @@
       <c r="E7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="7">
         <v>21</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="6">
         <v>3670</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="7">
         <v>218</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="7">
         <v>43</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="7">
         <v>231</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="8">
         <v>2.7300000190734863</v>
       </c>
       <c r="L7" s="2" t="s">
@@ -5012,14 +5474,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="true" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="6">
         <v>4453</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="7">
         <v>26</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -5028,22 +5490,22 @@
       <c r="E8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="2">
-        <v>10</v>
-      </c>
-      <c r="G8" s="2">
+      <c r="F8" s="7">
+        <v>10</v>
+      </c>
+      <c r="G8" s="6">
         <v>2230</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="7">
         <v>170</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="7">
         <v>34</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="7">
         <v>304</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="8">
         <v>2.869999885559082</v>
       </c>
       <c r="L8" s="2" t="s">
@@ -5056,14 +5518,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="true" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="6">
         <v>5189</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="7">
         <v>20</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -5072,22 +5534,22 @@
       <c r="E9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="7">
         <v>16</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="6">
         <v>3280</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="7">
         <v>200</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="7">
         <v>42</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="7">
         <v>196</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="8">
         <v>2.9300000667572021</v>
       </c>
       <c r="L9" s="2" t="s">
@@ -5100,14 +5562,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" s="3" customFormat="true" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="6">
         <v>10372</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="7">
         <v>16</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -5116,22 +5578,22 @@
       <c r="E10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="7">
         <v>17</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="6">
         <v>3880</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="7">
         <v>207</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="7">
         <v>43</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="7">
         <v>231</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="8">
         <v>2.9300000667572021</v>
       </c>
       <c r="L10" s="2" t="s">
@@ -5144,14 +5606,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" s="3" customFormat="true" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="6">
         <v>4082</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="7">
         <v>19</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -5160,22 +5622,22 @@
       <c r="E11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="7">
         <v>13</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="6">
         <v>3400</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="7">
         <v>200</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="7">
         <v>42</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="7">
         <v>231</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="8">
         <v>3.0799999237060547</v>
       </c>
       <c r="L11" s="2" t="s">
@@ -5188,14 +5650,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" s="3" customFormat="true" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="6">
         <v>11385</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="7">
         <v>14</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -5204,22 +5666,22 @@
       <c r="E12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="7">
         <v>20</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="6">
         <v>4330</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="7">
         <v>221</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="7">
         <v>44</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="7">
         <v>425</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="8">
         <v>2.2799999713897705</v>
       </c>
       <c r="L12" s="2" t="s">
@@ -5232,14 +5694,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" s="3" customFormat="true" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="6">
         <v>14500</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="7">
         <v>14</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -5248,22 +5710,22 @@
       <c r="E13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="7">
         <v>16</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="6">
         <v>3900</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="7">
         <v>204</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="7">
         <v>43</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="7">
         <v>350</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13" s="8">
         <v>2.190000057220459</v>
       </c>
       <c r="L13" s="2" t="s">
@@ -5276,14 +5738,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" s="3" customFormat="true" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="6">
         <v>15906</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="7">
         <v>21</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -5292,22 +5754,22 @@
       <c r="E14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="7">
         <v>13</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="6">
         <v>4290</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="7">
         <v>204</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="7">
         <v>45</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="7">
         <v>350</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="8">
         <v>2.2400000095367432</v>
       </c>
       <c r="L14" s="2" t="s">
@@ -5320,14 +5782,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" s="3" customFormat="true" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="6">
         <v>3299</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="7">
         <v>29</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -5336,22 +5798,22 @@
       <c r="E15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="2">
-        <v>9</v>
-      </c>
-      <c r="G15" s="2">
+      <c r="F15" s="7">
+        <v>9</v>
+      </c>
+      <c r="G15" s="6">
         <v>2110</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="7">
         <v>163</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="7">
         <v>34</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="7">
         <v>231</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15" s="8">
         <v>2.9300000667572021</v>
       </c>
       <c r="L15" s="2" t="s">
@@ -5364,14 +5826,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" s="3" customFormat="true" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="6">
         <v>5705</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="7">
         <v>16</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -5380,22 +5842,22 @@
       <c r="E16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="7">
         <v>20</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="6">
         <v>3690</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="7">
         <v>212</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="7">
         <v>43</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="7">
         <v>250</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16" s="8">
         <v>2.559999942779541</v>
       </c>
       <c r="L16" s="2" t="s">
@@ -5408,14 +5870,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" s="3" customFormat="true" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="6">
         <v>4504</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="7">
         <v>22</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -5424,22 +5886,22 @@
       <c r="E17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="7">
         <v>17</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="6">
         <v>3180</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="7">
         <v>193</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="7">
         <v>31</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="7">
         <v>200</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K17" s="8">
         <v>2.7300000190734863</v>
       </c>
       <c r="L17" s="2" t="s">
@@ -5452,14 +5914,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" s="3" customFormat="true" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="6">
         <v>5104</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="7">
         <v>22</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -5468,22 +5930,22 @@
       <c r="E18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="7">
         <v>16</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="6">
         <v>3220</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="7">
         <v>200</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="7">
         <v>41</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18" s="7">
         <v>200</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K18" s="8">
         <v>2.7300000190734863</v>
       </c>
       <c r="L18" s="2" t="s">
@@ -5496,14 +5958,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" s="3" customFormat="true" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="6">
         <v>3667</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="7">
         <v>24</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -5512,22 +5974,22 @@
       <c r="E19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="7">
         <v>7</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="6">
         <v>2750</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="7">
         <v>179</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19" s="7">
         <v>40</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19" s="7">
         <v>151</v>
       </c>
-      <c r="K19" s="2">
+      <c r="K19" s="8">
         <v>2.7300000190734863</v>
       </c>
       <c r="L19" s="2" t="s">
@@ -5540,14 +6002,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" s="3" customFormat="true" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="A20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="6">
         <v>3955</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="7">
         <v>19</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -5556,22 +6018,22 @@
       <c r="E20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="7">
         <v>13</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="6">
         <v>3430</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="7">
         <v>197</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="7">
         <v>43</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J20" s="7">
         <v>250</v>
       </c>
-      <c r="K20" s="2">
+      <c r="K20" s="8">
         <v>2.559999942779541</v>
       </c>
       <c r="L20" s="2" t="s">
@@ -5588,10 +6050,10 @@
       <c r="A21" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="6">
         <v>3984</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="7">
         <v>30</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -5600,22 +6062,22 @@
       <c r="E21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="7">
         <v>8</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="6">
         <v>2120</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21" s="7">
         <v>163</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21" s="7">
         <v>35</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J21" s="7">
         <v>98</v>
       </c>
-      <c r="K21" s="2">
+      <c r="K21" s="8">
         <v>3.5399999618530273</v>
       </c>
       <c r="L21" s="2" t="s">
@@ -5632,10 +6094,10 @@
       <c r="A22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="6">
         <v>4010</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="7">
         <v>18</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -5644,22 +6106,22 @@
       <c r="E22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="7">
         <v>17</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="6">
         <v>3600</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="7">
         <v>206</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I22" s="7">
         <v>46</v>
       </c>
-      <c r="J22" s="2">
+      <c r="J22" s="7">
         <v>318</v>
       </c>
-      <c r="K22" s="2">
+      <c r="K22" s="8">
         <v>2.4700000286102295</v>
       </c>
       <c r="L22" s="2" t="s">
@@ -5676,10 +6138,10 @@
       <c r="A23" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="6">
         <v>5886</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="7">
         <v>16</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -5688,22 +6150,22 @@
       <c r="E23" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="7">
         <v>17</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="6">
         <v>3600</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="7">
         <v>206</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23" s="7">
         <v>46</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J23" s="7">
         <v>318</v>
       </c>
-      <c r="K23" s="2">
+      <c r="K23" s="8">
         <v>2.4700000286102295</v>
       </c>
       <c r="L23" s="2" t="s">
@@ -5720,10 +6182,10 @@
       <c r="A24" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="6">
         <v>6342</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="7">
         <v>17</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -5732,22 +6194,22 @@
       <c r="E24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="7">
         <v>21</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="6">
         <v>3740</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24" s="7">
         <v>220</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I24" s="7">
         <v>46</v>
       </c>
-      <c r="J24" s="2">
+      <c r="J24" s="7">
         <v>225</v>
       </c>
-      <c r="K24" s="2">
+      <c r="K24" s="8">
         <v>2.940000057220459</v>
       </c>
       <c r="L24" s="2" t="s">
@@ -5764,10 +6226,10 @@
       <c r="A25" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="6">
         <v>4389</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="7">
         <v>28</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -5776,22 +6238,22 @@
       <c r="E25" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F25" s="2">
-        <v>9</v>
-      </c>
-      <c r="G25" s="2">
+      <c r="F25" s="7">
+        <v>9</v>
+      </c>
+      <c r="G25" s="6">
         <v>1800</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="7">
         <v>147</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25" s="7">
         <v>33</v>
       </c>
-      <c r="J25" s="2">
+      <c r="J25" s="7">
         <v>98</v>
       </c>
-      <c r="K25" s="2">
+      <c r="K25" s="8">
         <v>3.1500000953674316</v>
       </c>
       <c r="L25" s="2" t="s">
@@ -5808,10 +6270,10 @@
       <c r="A26" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="6">
         <v>4187</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="7">
         <v>21</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -5820,22 +6282,22 @@
       <c r="E26" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="2">
-        <v>10</v>
-      </c>
-      <c r="G26" s="2">
+      <c r="F26" s="7">
+        <v>10</v>
+      </c>
+      <c r="G26" s="6">
         <v>2650</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="7">
         <v>179</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I26" s="7">
         <v>43</v>
       </c>
-      <c r="J26" s="2">
+      <c r="J26" s="7">
         <v>140</v>
       </c>
-      <c r="K26" s="2">
+      <c r="K26" s="8">
         <v>3.0799999237060547</v>
       </c>
       <c r="L26" s="2" t="s">
@@ -5852,10 +6314,10 @@
       <c r="A27" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="6">
         <v>11497</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="7">
         <v>12</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -5864,22 +6326,22 @@
       <c r="E27" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="7">
         <v>22</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27" s="6">
         <v>4840</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="7">
         <v>233</v>
       </c>
-      <c r="I27" s="2">
+      <c r="I27" s="7">
         <v>51</v>
       </c>
-      <c r="J27" s="2">
+      <c r="J27" s="7">
         <v>400</v>
       </c>
-      <c r="K27" s="2">
+      <c r="K27" s="8">
         <v>2.4700000286102295</v>
       </c>
       <c r="L27" s="2" t="s">
@@ -5896,10 +6358,10 @@
       <c r="A28" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="6">
         <v>13594</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="7">
         <v>12</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -5908,22 +6370,22 @@
       <c r="E28" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="7">
         <v>18</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28" s="6">
         <v>4720</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28" s="7">
         <v>230</v>
       </c>
-      <c r="I28" s="2">
+      <c r="I28" s="7">
         <v>48</v>
       </c>
-      <c r="J28" s="2">
+      <c r="J28" s="7">
         <v>400</v>
       </c>
-      <c r="K28" s="2">
+      <c r="K28" s="8">
         <v>2.4700000286102295</v>
       </c>
       <c r="L28" s="2" t="s">
@@ -5940,10 +6402,10 @@
       <c r="A29" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="6">
         <v>13466</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="7">
         <v>14</v>
       </c>
       <c r="D29" s="2" t="s">
@@ -5952,22 +6414,22 @@
       <c r="E29" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="7">
         <v>15</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29" s="6">
         <v>3830</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H29" s="7">
         <v>201</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I29" s="7">
         <v>41</v>
       </c>
-      <c r="J29" s="2">
+      <c r="J29" s="7">
         <v>302</v>
       </c>
-      <c r="K29" s="2">
+      <c r="K29" s="8">
         <v>2.4700000286102295</v>
       </c>
       <c r="L29" s="2" t="s">
@@ -5984,10 +6446,10 @@
       <c r="A30" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="6">
         <v>3829</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="7">
         <v>22</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -5996,22 +6458,22 @@
       <c r="E30" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F30" s="2">
-        <v>9</v>
-      </c>
-      <c r="G30" s="2">
+      <c r="F30" s="7">
+        <v>9</v>
+      </c>
+      <c r="G30" s="6">
         <v>2580</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30" s="7">
         <v>169</v>
       </c>
-      <c r="I30" s="2">
+      <c r="I30" s="7">
         <v>39</v>
       </c>
-      <c r="J30" s="2">
+      <c r="J30" s="7">
         <v>140</v>
       </c>
-      <c r="K30" s="2">
+      <c r="K30" s="8">
         <v>2.7300000190734863</v>
       </c>
       <c r="L30" s="2" t="s">
@@ -6028,10 +6490,10 @@
       <c r="A31" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="6">
         <v>5379</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="7">
         <v>14</v>
       </c>
       <c r="D31" s="2" t="s">
@@ -6040,22 +6502,22 @@
       <c r="E31" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="7">
         <v>16</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31" s="6">
         <v>4060</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="7">
         <v>221</v>
       </c>
-      <c r="I31" s="2">
+      <c r="I31" s="7">
         <v>48</v>
       </c>
-      <c r="J31" s="2">
+      <c r="J31" s="7">
         <v>302</v>
       </c>
-      <c r="K31" s="2">
+      <c r="K31" s="8">
         <v>2.75</v>
       </c>
       <c r="L31" s="2" t="s">
@@ -6072,10 +6534,10 @@
       <c r="A32" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="6">
         <v>6165</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="7">
         <v>15</v>
       </c>
       <c r="D32" s="2" t="s">
@@ -6084,22 +6546,22 @@
       <c r="E32" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="7">
         <v>23</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32" s="6">
         <v>3720</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H32" s="7">
         <v>212</v>
       </c>
-      <c r="I32" s="2">
+      <c r="I32" s="7">
         <v>44</v>
       </c>
-      <c r="J32" s="2">
+      <c r="J32" s="7">
         <v>302</v>
       </c>
-      <c r="K32" s="2">
+      <c r="K32" s="8">
         <v>2.2599999904632568</v>
       </c>
       <c r="L32" s="2" t="s">
@@ -6116,10 +6578,10 @@
       <c r="A33" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="6">
         <v>4516</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="7">
         <v>18</v>
       </c>
       <c r="D33" s="2" t="s">
@@ -6128,22 +6590,22 @@
       <c r="E33" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="7">
         <v>15</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G33" s="6">
         <v>3370</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H33" s="7">
         <v>198</v>
       </c>
-      <c r="I33" s="2">
+      <c r="I33" s="7">
         <v>41</v>
       </c>
-      <c r="J33" s="2">
+      <c r="J33" s="7">
         <v>250</v>
       </c>
-      <c r="K33" s="2">
+      <c r="K33" s="8">
         <v>2.4300000667572021</v>
       </c>
       <c r="L33" s="2" t="s">
@@ -6160,10 +6622,10 @@
       <c r="A34" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="6">
         <v>6303</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="7">
         <v>14</v>
       </c>
       <c r="D34" s="2" t="s">
@@ -6172,22 +6634,22 @@
       <c r="E34" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="7">
         <v>16</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G34" s="6">
         <v>4130</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H34" s="7">
         <v>217</v>
       </c>
-      <c r="I34" s="2">
+      <c r="I34" s="7">
         <v>45</v>
       </c>
-      <c r="J34" s="2">
+      <c r="J34" s="7">
         <v>302</v>
       </c>
-      <c r="K34" s="2">
+      <c r="K34" s="8">
         <v>2.75</v>
       </c>
       <c r="L34" s="2" t="s">
@@ -6204,10 +6666,10 @@
       <c r="A35" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="6">
         <v>3291</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="7">
         <v>20</v>
       </c>
       <c r="D35" s="2" t="s">
@@ -6216,22 +6678,22 @@
       <c r="E35" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="7">
         <v>17</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G35" s="6">
         <v>2830</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H35" s="7">
         <v>195</v>
       </c>
-      <c r="I35" s="2">
+      <c r="I35" s="7">
         <v>43</v>
       </c>
-      <c r="J35" s="2">
+      <c r="J35" s="7">
         <v>140</v>
       </c>
-      <c r="K35" s="2">
+      <c r="K35" s="8">
         <v>3.0799999237060547</v>
       </c>
       <c r="L35" s="2" t="s">
@@ -6248,10 +6710,10 @@
       <c r="A36" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="6">
         <v>8814</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="7">
         <v>21</v>
       </c>
       <c r="D36" s="2" t="s">
@@ -6260,22 +6722,22 @@
       <c r="E36" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="7">
         <v>20</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G36" s="6">
         <v>4060</v>
       </c>
-      <c r="H36" s="2">
+      <c r="H36" s="7">
         <v>220</v>
       </c>
-      <c r="I36" s="2">
+      <c r="I36" s="7">
         <v>43</v>
       </c>
-      <c r="J36" s="2">
+      <c r="J36" s="7">
         <v>350</v>
       </c>
-      <c r="K36" s="2">
+      <c r="K36" s="8">
         <v>2.4100000858306885</v>
       </c>
       <c r="L36" s="2" t="s">
@@ -6292,10 +6754,10 @@
       <c r="A37" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="6">
         <v>5172</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="7">
         <v>19</v>
       </c>
       <c r="D37" s="2" t="s">
@@ -6304,22 +6766,22 @@
       <c r="E37" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="7">
         <v>16</v>
       </c>
-      <c r="G37" s="2">
+      <c r="G37" s="6">
         <v>3310</v>
       </c>
-      <c r="H37" s="2">
+      <c r="H37" s="7">
         <v>198</v>
       </c>
-      <c r="I37" s="2">
+      <c r="I37" s="7">
         <v>42</v>
       </c>
-      <c r="J37" s="2">
+      <c r="J37" s="7">
         <v>231</v>
       </c>
-      <c r="K37" s="2">
+      <c r="K37" s="8">
         <v>2.9300000667572021</v>
       </c>
       <c r="L37" s="2" t="s">
@@ -6336,10 +6798,10 @@
       <c r="A38" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="6">
         <v>4733</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="7">
         <v>19</v>
       </c>
       <c r="D38" s="2" t="s">
@@ -6348,22 +6810,22 @@
       <c r="E38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38" s="7">
         <v>16</v>
       </c>
-      <c r="G38" s="2">
+      <c r="G38" s="6">
         <v>3300</v>
       </c>
-      <c r="H38" s="2">
+      <c r="H38" s="7">
         <v>198</v>
       </c>
-      <c r="I38" s="2">
+      <c r="I38" s="7">
         <v>42</v>
       </c>
-      <c r="J38" s="2">
+      <c r="J38" s="7">
         <v>231</v>
       </c>
-      <c r="K38" s="2">
+      <c r="K38" s="8">
         <v>2.9300000667572021</v>
       </c>
       <c r="L38" s="2" t="s">
@@ -6380,10 +6842,10 @@
       <c r="A39" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="6">
         <v>4890</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="7">
         <v>18</v>
       </c>
       <c r="D39" s="2" t="s">
@@ -6392,22 +6854,22 @@
       <c r="E39" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39" s="7">
         <v>20</v>
       </c>
-      <c r="G39" s="2">
+      <c r="G39" s="6">
         <v>3690</v>
       </c>
-      <c r="H39" s="2">
+      <c r="H39" s="7">
         <v>218</v>
       </c>
-      <c r="I39" s="2">
+      <c r="I39" s="7">
         <v>42</v>
       </c>
-      <c r="J39" s="2">
+      <c r="J39" s="7">
         <v>231</v>
       </c>
-      <c r="K39" s="2">
+      <c r="K39" s="8">
         <v>2.7300000190734863</v>
       </c>
       <c r="L39" s="2" t="s">
@@ -6424,10 +6886,10 @@
       <c r="A40" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="6">
         <v>4181</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="7">
         <v>19</v>
       </c>
       <c r="D40" s="2" t="s">
@@ -6436,22 +6898,22 @@
       <c r="E40" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40" s="7">
         <v>14</v>
       </c>
-      <c r="G40" s="2">
+      <c r="G40" s="6">
         <v>3370</v>
       </c>
-      <c r="H40" s="2">
+      <c r="H40" s="7">
         <v>200</v>
       </c>
-      <c r="I40" s="2">
+      <c r="I40" s="7">
         <v>43</v>
       </c>
-      <c r="J40" s="2">
+      <c r="J40" s="7">
         <v>231</v>
       </c>
-      <c r="K40" s="2">
+      <c r="K40" s="8">
         <v>3.0799999237060547</v>
       </c>
       <c r="L40" s="2" t="s">
@@ -6468,10 +6930,10 @@
       <c r="A41" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="6">
         <v>4195</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="7">
         <v>24</v>
       </c>
       <c r="D41" s="2" t="s">
@@ -6480,22 +6942,22 @@
       <c r="E41" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F41" s="2">
-        <v>10</v>
-      </c>
-      <c r="G41" s="2">
+      <c r="F41" s="7">
+        <v>10</v>
+      </c>
+      <c r="G41" s="6">
         <v>2730</v>
       </c>
-      <c r="H41" s="2">
+      <c r="H41" s="7">
         <v>180</v>
       </c>
-      <c r="I41" s="2">
+      <c r="I41" s="7">
         <v>40</v>
       </c>
-      <c r="J41" s="2">
+      <c r="J41" s="7">
         <v>151</v>
       </c>
-      <c r="K41" s="2">
+      <c r="K41" s="8">
         <v>2.7300000190734863</v>
       </c>
       <c r="L41" s="2" t="s">
@@ -6512,10 +6974,10 @@
       <c r="A42" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="6">
         <v>10371</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="7">
         <v>16</v>
       </c>
       <c r="D42" s="2" t="s">
@@ -6524,22 +6986,22 @@
       <c r="E42" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42" s="7">
         <v>17</v>
       </c>
-      <c r="G42" s="2">
+      <c r="G42" s="6">
         <v>4030</v>
       </c>
-      <c r="H42" s="2">
+      <c r="H42" s="7">
         <v>206</v>
       </c>
-      <c r="I42" s="2">
+      <c r="I42" s="7">
         <v>43</v>
       </c>
-      <c r="J42" s="2">
+      <c r="J42" s="7">
         <v>350</v>
       </c>
-      <c r="K42" s="2">
+      <c r="K42" s="8">
         <v>2.4100000858306885</v>
       </c>
       <c r="L42" s="2" t="s">
@@ -6556,10 +7018,10 @@
       <c r="A43" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="6">
         <v>4647</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="7">
         <v>28</v>
       </c>
       <c r="D43" s="2" t="s">
@@ -6568,22 +7030,22 @@
       <c r="E43" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43" s="7">
         <v>11</v>
       </c>
-      <c r="G43" s="2">
+      <c r="G43" s="6">
         <v>3260</v>
       </c>
-      <c r="H43" s="2">
+      <c r="H43" s="7">
         <v>170</v>
       </c>
-      <c r="I43" s="2">
+      <c r="I43" s="7">
         <v>37</v>
       </c>
-      <c r="J43" s="2">
+      <c r="J43" s="7">
         <v>156</v>
       </c>
-      <c r="K43" s="2">
+      <c r="K43" s="8">
         <v>3.0499999523162842</v>
       </c>
       <c r="L43" s="2" t="s">
@@ -6600,10 +7062,10 @@
       <c r="A44" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="6">
         <v>4425</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="7">
         <v>34</v>
       </c>
       <c r="D44" s="2" t="s">
@@ -6612,22 +7074,22 @@
       <c r="E44" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F44" s="7">
         <v>11</v>
       </c>
-      <c r="G44" s="2">
+      <c r="G44" s="6">
         <v>1800</v>
       </c>
-      <c r="H44" s="2">
+      <c r="H44" s="7">
         <v>157</v>
       </c>
-      <c r="I44" s="2">
+      <c r="I44" s="7">
         <v>37</v>
       </c>
-      <c r="J44" s="2">
+      <c r="J44" s="7">
         <v>86</v>
       </c>
-      <c r="K44" s="2">
+      <c r="K44" s="8">
         <v>2.9700000286102295</v>
       </c>
       <c r="L44" s="2" t="s">
@@ -6644,10 +7106,10 @@
       <c r="A45" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="6">
         <v>4482</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="7">
         <v>25</v>
       </c>
       <c r="D45" s="2" t="s">
@@ -6656,22 +7118,22 @@
       <c r="E45" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45" s="7">
         <v>17</v>
       </c>
-      <c r="G45" s="2">
+      <c r="G45" s="6">
         <v>2200</v>
       </c>
-      <c r="H45" s="2">
+      <c r="H45" s="7">
         <v>165</v>
       </c>
-      <c r="I45" s="2">
+      <c r="I45" s="7">
         <v>36</v>
       </c>
-      <c r="J45" s="2">
+      <c r="J45" s="7">
         <v>105</v>
       </c>
-      <c r="K45" s="2">
+      <c r="K45" s="8">
         <v>3.369999885559082</v>
       </c>
       <c r="L45" s="2" t="s">
@@ -6688,10 +7150,10 @@
       <c r="A46" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="6">
         <v>6486</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46" s="7">
         <v>26</v>
       </c>
       <c r="D46" s="2" t="s">
@@ -6700,22 +7162,22 @@
       <c r="E46" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F46" s="7">
         <v>8</v>
       </c>
-      <c r="G46" s="2">
+      <c r="G46" s="6">
         <v>2520</v>
       </c>
-      <c r="H46" s="2">
+      <c r="H46" s="7">
         <v>182</v>
       </c>
-      <c r="I46" s="2">
+      <c r="I46" s="7">
         <v>38</v>
       </c>
-      <c r="J46" s="2">
+      <c r="J46" s="7">
         <v>119</v>
       </c>
-      <c r="K46" s="2">
+      <c r="K46" s="8">
         <v>3.5399999618530273</v>
       </c>
       <c r="L46" s="2" t="s">
@@ -6732,10 +7194,10 @@
       <c r="A47" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="6">
         <v>4060</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47" s="7">
         <v>18</v>
       </c>
       <c r="D47" s="2" t="s">
@@ -6744,22 +7206,22 @@
       <c r="E47" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F47" s="7">
         <v>16</v>
       </c>
-      <c r="G47" s="2">
+      <c r="G47" s="6">
         <v>3330</v>
       </c>
-      <c r="H47" s="2">
+      <c r="H47" s="7">
         <v>201</v>
       </c>
-      <c r="I47" s="2">
+      <c r="I47" s="7">
         <v>44</v>
       </c>
-      <c r="J47" s="2">
+      <c r="J47" s="7">
         <v>225</v>
       </c>
-      <c r="K47" s="2">
+      <c r="K47" s="8">
         <v>3.2300000190734863</v>
       </c>
       <c r="L47" s="2" t="s">
@@ -6776,10 +7238,10 @@
       <c r="A48" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="6">
         <v>5798</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48" s="7">
         <v>18</v>
       </c>
       <c r="D48" s="2" t="s">
@@ -6788,22 +7250,22 @@
       <c r="E48" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F48" s="7">
         <v>20</v>
       </c>
-      <c r="G48" s="2">
+      <c r="G48" s="6">
         <v>3700</v>
       </c>
-      <c r="H48" s="2">
+      <c r="H48" s="7">
         <v>214</v>
       </c>
-      <c r="I48" s="2">
+      <c r="I48" s="7">
         <v>42</v>
       </c>
-      <c r="J48" s="2">
+      <c r="J48" s="7">
         <v>231</v>
       </c>
-      <c r="K48" s="2">
+      <c r="K48" s="8">
         <v>2.7300000190734863</v>
       </c>
       <c r="L48" s="2" t="s">
@@ -6820,10 +7282,10 @@
       <c r="A49" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49" s="6">
         <v>4934</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49" s="7">
         <v>18</v>
       </c>
       <c r="D49" s="2" t="s">
@@ -6832,22 +7294,22 @@
       <c r="E49" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F49" s="2">
+      <c r="F49" s="7">
         <v>7</v>
       </c>
-      <c r="G49" s="2">
+      <c r="G49" s="6">
         <v>3470</v>
       </c>
-      <c r="H49" s="2">
+      <c r="H49" s="7">
         <v>198</v>
       </c>
-      <c r="I49" s="2">
+      <c r="I49" s="7">
         <v>42</v>
       </c>
-      <c r="J49" s="2">
+      <c r="J49" s="7">
         <v>231</v>
       </c>
-      <c r="K49" s="2">
+      <c r="K49" s="8">
         <v>3.0799999237060547</v>
       </c>
       <c r="L49" s="2" t="s">
@@ -6864,10 +7326,10 @@
       <c r="A50" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" s="6">
         <v>5222</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50" s="7">
         <v>19</v>
       </c>
       <c r="D50" s="2" t="s">
@@ -6876,22 +7338,22 @@
       <c r="E50" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F50" s="2">
+      <c r="F50" s="7">
         <v>16</v>
       </c>
-      <c r="G50" s="2">
+      <c r="G50" s="6">
         <v>3210</v>
       </c>
-      <c r="H50" s="2">
+      <c r="H50" s="7">
         <v>201</v>
       </c>
-      <c r="I50" s="2">
+      <c r="I50" s="7">
         <v>45</v>
       </c>
-      <c r="J50" s="2">
+      <c r="J50" s="7">
         <v>231</v>
       </c>
-      <c r="K50" s="2">
+      <c r="K50" s="8">
         <v>2.9300000667572021</v>
       </c>
       <c r="L50" s="2" t="s">
@@ -6908,10 +7370,10 @@
       <c r="A51" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="6">
         <v>4723</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51" s="7">
         <v>19</v>
       </c>
       <c r="D51" s="2" t="s">
@@ -6920,22 +7382,22 @@
       <c r="E51" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F51" s="7">
         <v>17</v>
       </c>
-      <c r="G51" s="2">
+      <c r="G51" s="6">
         <v>3200</v>
       </c>
-      <c r="H51" s="2">
+      <c r="H51" s="7">
         <v>199</v>
       </c>
-      <c r="I51" s="2">
+      <c r="I51" s="7">
         <v>40</v>
       </c>
-      <c r="J51" s="2">
+      <c r="J51" s="7">
         <v>231</v>
       </c>
-      <c r="K51" s="2">
+      <c r="K51" s="8">
         <v>2.9300000667572021</v>
       </c>
       <c r="L51" s="2" t="s">
@@ -6952,10 +7414,10 @@
       <c r="A52" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="6">
         <v>4424</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52" s="7">
         <v>19</v>
       </c>
       <c r="D52" s="2" t="s">
@@ -6964,22 +7426,22 @@
       <c r="E52" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F52" s="2">
+      <c r="F52" s="7">
         <v>13</v>
       </c>
-      <c r="G52" s="2">
+      <c r="G52" s="6">
         <v>3420</v>
       </c>
-      <c r="H52" s="2">
+      <c r="H52" s="7">
         <v>203</v>
       </c>
-      <c r="I52" s="2">
+      <c r="I52" s="7">
         <v>43</v>
       </c>
-      <c r="J52" s="2">
+      <c r="J52" s="7">
         <v>231</v>
       </c>
-      <c r="K52" s="2">
+      <c r="K52" s="8">
         <v>3.0799999237060547</v>
       </c>
       <c r="L52" s="2" t="s">
@@ -6996,10 +7458,10 @@
       <c r="A53" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53" s="6">
         <v>4172</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C53" s="7">
         <v>24</v>
       </c>
       <c r="D53" s="2" t="s">
@@ -7008,22 +7470,22 @@
       <c r="E53" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F53" s="2">
+      <c r="F53" s="7">
         <v>7</v>
       </c>
-      <c r="G53" s="2">
+      <c r="G53" s="6">
         <v>2690</v>
       </c>
-      <c r="H53" s="2">
+      <c r="H53" s="7">
         <v>179</v>
       </c>
-      <c r="I53" s="2">
+      <c r="I53" s="7">
         <v>41</v>
       </c>
-      <c r="J53" s="2">
+      <c r="J53" s="7">
         <v>151</v>
       </c>
-      <c r="K53" s="2">
+      <c r="K53" s="8">
         <v>2.7300000190734863</v>
       </c>
       <c r="L53" s="2" t="s">
@@ -7040,10 +7502,10 @@
       <c r="A54" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54" s="6">
         <v>9690</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C54" s="7">
         <v>17</v>
       </c>
       <c r="D54" s="2" t="s">
@@ -7052,22 +7514,22 @@
       <c r="E54" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F54" s="2">
+      <c r="F54" s="7">
         <v>15</v>
       </c>
-      <c r="G54" s="2">
+      <c r="G54" s="6">
         <v>2830</v>
       </c>
-      <c r="H54" s="2">
+      <c r="H54" s="7">
         <v>189</v>
       </c>
-      <c r="I54" s="2">
+      <c r="I54" s="7">
         <v>37</v>
       </c>
-      <c r="J54" s="2">
+      <c r="J54" s="7">
         <v>131</v>
       </c>
-      <c r="K54" s="2">
+      <c r="K54" s="8">
         <v>3.2000000476837158</v>
       </c>
       <c r="L54" s="2" t="s">
@@ -7084,10 +7546,10 @@
       <c r="A55" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55" s="6">
         <v>6295</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C55" s="7">
         <v>23</v>
       </c>
       <c r="D55" s="2" t="s">
@@ -7096,22 +7558,22 @@
       <c r="E55" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F55" s="2">
+      <c r="F55" s="7">
         <v>11</v>
       </c>
-      <c r="G55" s="2">
+      <c r="G55" s="6">
         <v>2070</v>
       </c>
-      <c r="H55" s="2">
+      <c r="H55" s="7">
         <v>174</v>
       </c>
-      <c r="I55" s="2">
+      <c r="I55" s="7">
         <v>36</v>
       </c>
-      <c r="J55" s="2">
+      <c r="J55" s="7">
         <v>97</v>
       </c>
-      <c r="K55" s="2">
+      <c r="K55" s="8">
         <v>3.7000000476837158</v>
       </c>
       <c r="L55" s="2" t="s">
@@ -7128,10 +7590,10 @@
       <c r="A56" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56" s="6">
         <v>9735</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C56" s="7">
         <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
@@ -7140,22 +7602,22 @@
       <c r="E56" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F56" s="2">
+      <c r="F56" s="7">
         <v>12</v>
       </c>
-      <c r="G56" s="2">
+      <c r="G56" s="6">
         <v>2650</v>
       </c>
-      <c r="H56" s="2">
+      <c r="H56" s="7">
         <v>177</v>
       </c>
-      <c r="I56" s="2">
+      <c r="I56" s="7">
         <v>34</v>
       </c>
-      <c r="J56" s="2">
+      <c r="J56" s="7">
         <v>121</v>
       </c>
-      <c r="K56" s="2">
+      <c r="K56" s="8">
         <v>3.6400001049041748</v>
       </c>
       <c r="L56" s="2" t="s">
@@ -7172,10 +7634,10 @@
       <c r="A57" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57" s="6">
         <v>6229</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C57" s="7">
         <v>23</v>
       </c>
       <c r="D57" s="2" t="s">
@@ -7184,22 +7646,22 @@
       <c r="E57" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F57" s="2">
+      <c r="F57" s="7">
         <v>6</v>
       </c>
-      <c r="G57" s="2">
+      <c r="G57" s="6">
         <v>2370</v>
       </c>
-      <c r="H57" s="2">
+      <c r="H57" s="7">
         <v>170</v>
       </c>
-      <c r="I57" s="2">
+      <c r="I57" s="7">
         <v>35</v>
       </c>
-      <c r="J57" s="2">
+      <c r="J57" s="7">
         <v>119</v>
       </c>
-      <c r="K57" s="2">
+      <c r="K57" s="8">
         <v>3.8900001049041748</v>
       </c>
       <c r="L57" s="2" t="s">
@@ -7216,10 +7678,10 @@
       <c r="A58" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58" s="6">
         <v>4589</v>
       </c>
-      <c r="C58" s="2">
+      <c r="C58" s="7">
         <v>35</v>
       </c>
       <c r="D58" s="2" t="s">
@@ -7228,22 +7690,22 @@
       <c r="E58" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F58" s="2">
+      <c r="F58" s="7">
         <v>8</v>
       </c>
-      <c r="G58" s="2">
+      <c r="G58" s="6">
         <v>2020</v>
       </c>
-      <c r="H58" s="2">
+      <c r="H58" s="7">
         <v>165</v>
       </c>
-      <c r="I58" s="2">
+      <c r="I58" s="7">
         <v>32</v>
       </c>
-      <c r="J58" s="2">
+      <c r="J58" s="7">
         <v>85</v>
       </c>
-      <c r="K58" s="2">
+      <c r="K58" s="8">
         <v>3.7000000476837158</v>
       </c>
       <c r="L58" s="2" t="s">
@@ -7260,10 +7722,10 @@
       <c r="A59" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59" s="6">
         <v>5079</v>
       </c>
-      <c r="C59" s="2">
+      <c r="C59" s="7">
         <v>24</v>
       </c>
       <c r="D59" s="2" t="s">
@@ -7272,22 +7734,22 @@
       <c r="E59" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F59" s="2">
+      <c r="F59" s="7">
         <v>8</v>
       </c>
-      <c r="G59" s="2">
+      <c r="G59" s="6">
         <v>2280</v>
       </c>
-      <c r="H59" s="2">
+      <c r="H59" s="7">
         <v>170</v>
       </c>
-      <c r="I59" s="2">
+      <c r="I59" s="7">
         <v>34</v>
       </c>
-      <c r="J59" s="2">
+      <c r="J59" s="7">
         <v>119</v>
       </c>
-      <c r="K59" s="2">
+      <c r="K59" s="8">
         <v>3.5399999618530273</v>
       </c>
       <c r="L59" s="2" t="s">
@@ -7304,10 +7766,10 @@
       <c r="A60" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B60" s="6">
         <v>8129</v>
       </c>
-      <c r="C60" s="2">
+      <c r="C60" s="7">
         <v>21</v>
       </c>
       <c r="D60" s="2" t="s">
@@ -7316,22 +7778,22 @@
       <c r="E60" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F60" s="2">
+      <c r="F60" s="7">
         <v>8</v>
       </c>
-      <c r="G60" s="2">
+      <c r="G60" s="6">
         <v>2750</v>
       </c>
-      <c r="H60" s="2">
+      <c r="H60" s="7">
         <v>184</v>
       </c>
-      <c r="I60" s="2">
+      <c r="I60" s="7">
         <v>38</v>
       </c>
-      <c r="J60" s="2">
+      <c r="J60" s="7">
         <v>146</v>
       </c>
-      <c r="K60" s="2">
+      <c r="K60" s="8">
         <v>3.5499999523162842</v>
       </c>
       <c r="L60" s="2" t="s">
@@ -7348,10 +7810,10 @@
       <c r="A61" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61" s="6">
         <v>4296</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C61" s="7">
         <v>21</v>
       </c>
       <c r="D61" s="2" t="s">
@@ -7360,22 +7822,22 @@
       <c r="E61" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F61" s="2">
+      <c r="F61" s="7">
         <v>16</v>
       </c>
-      <c r="G61" s="2">
+      <c r="G61" s="6">
         <v>2130</v>
       </c>
-      <c r="H61" s="2">
+      <c r="H61" s="7">
         <v>161</v>
       </c>
-      <c r="I61" s="2">
+      <c r="I61" s="7">
         <v>36</v>
       </c>
-      <c r="J61" s="2">
+      <c r="J61" s="7">
         <v>105</v>
       </c>
-      <c r="K61" s="2">
+      <c r="K61" s="8">
         <v>3.369999885559082</v>
       </c>
       <c r="L61" s="2" t="s">
@@ -7392,10 +7854,10 @@
       <c r="A62" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B62" s="6">
         <v>5799</v>
       </c>
-      <c r="C62" s="2">
+      <c r="C62" s="7">
         <v>25</v>
       </c>
       <c r="D62" s="2" t="s">
@@ -7404,22 +7866,22 @@
       <c r="E62" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F62" s="2">
-        <v>10</v>
-      </c>
-      <c r="G62" s="2">
+      <c r="F62" s="7">
+        <v>10</v>
+      </c>
+      <c r="G62" s="6">
         <v>2240</v>
       </c>
-      <c r="H62" s="2">
+      <c r="H62" s="7">
         <v>172</v>
       </c>
-      <c r="I62" s="2">
+      <c r="I62" s="7">
         <v>36</v>
       </c>
-      <c r="J62" s="2">
+      <c r="J62" s="7">
         <v>107</v>
       </c>
-      <c r="K62" s="2">
+      <c r="K62" s="8">
         <v>3.0499999523162842</v>
       </c>
       <c r="L62" s="2" t="s">
@@ -7436,10 +7898,10 @@
       <c r="A63" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B63" s="6">
         <v>4499</v>
       </c>
-      <c r="C63" s="2">
+      <c r="C63" s="7">
         <v>28</v>
       </c>
       <c r="D63" s="2" t="s">
@@ -7448,22 +7910,22 @@
       <c r="E63" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F63" s="2">
+      <c r="F63" s="7">
         <v>5</v>
       </c>
-      <c r="G63" s="2">
+      <c r="G63" s="6">
         <v>1760</v>
       </c>
-      <c r="H63" s="2">
+      <c r="H63" s="7">
         <v>149</v>
       </c>
-      <c r="I63" s="2">
+      <c r="I63" s="7">
         <v>34</v>
       </c>
-      <c r="J63" s="2">
+      <c r="J63" s="7">
         <v>91</v>
       </c>
-      <c r="K63" s="2">
+      <c r="K63" s="8">
         <v>3.2999999523162842</v>
       </c>
       <c r="L63" s="2" t="s">
@@ -7480,10 +7942,10 @@
       <c r="A64" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B64" s="6">
         <v>3995</v>
       </c>
-      <c r="C64" s="2">
+      <c r="C64" s="7">
         <v>30</v>
       </c>
       <c r="D64" s="2" t="s">
@@ -7492,22 +7954,22 @@
       <c r="E64" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F64" s="2">
+      <c r="F64" s="7">
         <v>11</v>
       </c>
-      <c r="G64" s="2">
+      <c r="G64" s="6">
         <v>1980</v>
       </c>
-      <c r="H64" s="2">
+      <c r="H64" s="7">
         <v>154</v>
       </c>
-      <c r="I64" s="2">
+      <c r="I64" s="7">
         <v>33</v>
       </c>
-      <c r="J64" s="2">
+      <c r="J64" s="7">
         <v>86</v>
       </c>
-      <c r="K64" s="2">
+      <c r="K64" s="8">
         <v>3.7300000190734863</v>
       </c>
       <c r="L64" s="2" t="s">
@@ -7524,10 +7986,10 @@
       <c r="A65" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B65" s="6">
         <v>12990</v>
       </c>
-      <c r="C65" s="2">
+      <c r="C65" s="7">
         <v>14</v>
       </c>
       <c r="D65" s="2" t="s">
@@ -7536,22 +7998,22 @@
       <c r="E65" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F65" s="2">
+      <c r="F65" s="7">
         <v>14</v>
       </c>
-      <c r="G65" s="2">
+      <c r="G65" s="6">
         <v>3420</v>
       </c>
-      <c r="H65" s="2">
+      <c r="H65" s="7">
         <v>192</v>
       </c>
-      <c r="I65" s="2">
+      <c r="I65" s="7">
         <v>38</v>
       </c>
-      <c r="J65" s="2">
+      <c r="J65" s="7">
         <v>163</v>
       </c>
-      <c r="K65" s="2">
+      <c r="K65" s="8">
         <v>3.5799999237060547</v>
       </c>
       <c r="L65" s="2" t="s">
@@ -7568,10 +8030,10 @@
       <c r="A66" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B66" s="6">
         <v>3895</v>
       </c>
-      <c r="C66" s="2">
+      <c r="C66" s="7">
         <v>26</v>
       </c>
       <c r="D66" s="2" t="s">
@@ -7580,22 +8042,22 @@
       <c r="E66" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F66" s="2">
-        <v>10</v>
-      </c>
-      <c r="G66" s="2">
+      <c r="F66" s="7">
+        <v>10</v>
+      </c>
+      <c r="G66" s="6">
         <v>1830</v>
       </c>
-      <c r="H66" s="2">
+      <c r="H66" s="7">
         <v>142</v>
       </c>
-      <c r="I66" s="2">
+      <c r="I66" s="7">
         <v>34</v>
       </c>
-      <c r="J66" s="2">
+      <c r="J66" s="7">
         <v>79</v>
       </c>
-      <c r="K66" s="2">
+      <c r="K66" s="8">
         <v>3.7200000286102295</v>
       </c>
       <c r="L66" s="2" t="s">
@@ -7612,10 +8074,10 @@
       <c r="A67" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B67" s="6">
         <v>3798</v>
       </c>
-      <c r="C67" s="2">
+      <c r="C67" s="7">
         <v>35</v>
       </c>
       <c r="D67" s="2" t="s">
@@ -7624,22 +8086,22 @@
       <c r="E67" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F67" s="2">
+      <c r="F67" s="7">
         <v>11</v>
       </c>
-      <c r="G67" s="2">
+      <c r="G67" s="6">
         <v>2050</v>
       </c>
-      <c r="H67" s="2">
+      <c r="H67" s="7">
         <v>164</v>
       </c>
-      <c r="I67" s="2">
+      <c r="I67" s="7">
         <v>36</v>
       </c>
-      <c r="J67" s="2">
+      <c r="J67" s="7">
         <v>97</v>
       </c>
-      <c r="K67" s="2">
+      <c r="K67" s="8">
         <v>3.809999942779541</v>
       </c>
       <c r="L67" s="2" t="s">
@@ -7656,10 +8118,10 @@
       <c r="A68" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B68" s="6">
         <v>5899</v>
       </c>
-      <c r="C68" s="2">
+      <c r="C68" s="7">
         <v>18</v>
       </c>
       <c r="D68" s="2" t="s">
@@ -7668,22 +8130,22 @@
       <c r="E68" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F68" s="2">
+      <c r="F68" s="7">
         <v>14</v>
       </c>
-      <c r="G68" s="2">
+      <c r="G68" s="6">
         <v>2410</v>
       </c>
-      <c r="H68" s="2">
+      <c r="H68" s="7">
         <v>174</v>
       </c>
-      <c r="I68" s="2">
+      <c r="I68" s="7">
         <v>36</v>
       </c>
-      <c r="J68" s="2">
+      <c r="J68" s="7">
         <v>134</v>
       </c>
-      <c r="K68" s="2">
+      <c r="K68" s="8">
         <v>3.059999942779541</v>
       </c>
       <c r="L68" s="2" t="s">
@@ -7700,10 +8162,10 @@
       <c r="A69" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B69" s="6">
         <v>3748</v>
       </c>
-      <c r="C69" s="2">
+      <c r="C69" s="7">
         <v>31</v>
       </c>
       <c r="D69" s="2" t="s">
@@ -7712,22 +8174,22 @@
       <c r="E69" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F69" s="2">
-        <v>9</v>
-      </c>
-      <c r="G69" s="2">
+      <c r="F69" s="7">
+        <v>9</v>
+      </c>
+      <c r="G69" s="6">
         <v>2200</v>
       </c>
-      <c r="H69" s="2">
+      <c r="H69" s="7">
         <v>165</v>
       </c>
-      <c r="I69" s="2">
+      <c r="I69" s="7">
         <v>35</v>
       </c>
-      <c r="J69" s="2">
+      <c r="J69" s="7">
         <v>97</v>
       </c>
-      <c r="K69" s="2">
+      <c r="K69" s="8">
         <v>3.2100000381469727</v>
       </c>
       <c r="L69" s="2" t="s">
@@ -7744,10 +8206,10 @@
       <c r="A70" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B70" s="6">
         <v>5719</v>
       </c>
-      <c r="C70" s="2">
+      <c r="C70" s="7">
         <v>18</v>
       </c>
       <c r="D70" s="2" t="s">
@@ -7756,22 +8218,22 @@
       <c r="E70" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F70" s="2">
+      <c r="F70" s="7">
         <v>11</v>
       </c>
-      <c r="G70" s="2">
+      <c r="G70" s="6">
         <v>2670</v>
       </c>
-      <c r="H70" s="2">
+      <c r="H70" s="7">
         <v>175</v>
       </c>
-      <c r="I70" s="2">
+      <c r="I70" s="7">
         <v>36</v>
       </c>
-      <c r="J70" s="2">
+      <c r="J70" s="7">
         <v>134</v>
       </c>
-      <c r="K70" s="2">
+      <c r="K70" s="8">
         <v>3.0499999523162842</v>
       </c>
       <c r="L70" s="2" t="s">
@@ -7788,10 +8250,10 @@
       <c r="A71" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B71" s="6">
         <v>7140</v>
       </c>
-      <c r="C71" s="2">
+      <c r="C71" s="7">
         <v>23</v>
       </c>
       <c r="D71" s="2" t="s">
@@ -7800,22 +8262,22 @@
       <c r="E71" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F71" s="2">
+      <c r="F71" s="7">
         <v>12</v>
       </c>
-      <c r="G71" s="2">
+      <c r="G71" s="6">
         <v>2160</v>
       </c>
-      <c r="H71" s="2">
+      <c r="H71" s="7">
         <v>172</v>
       </c>
-      <c r="I71" s="2">
+      <c r="I71" s="7">
         <v>36</v>
       </c>
-      <c r="J71" s="2">
+      <c r="J71" s="7">
         <v>97</v>
       </c>
-      <c r="K71" s="2">
+      <c r="K71" s="8">
         <v>3.7400000095367432</v>
       </c>
       <c r="L71" s="2" t="s">
@@ -7832,10 +8294,10 @@
       <c r="A72" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B72" s="6">
         <v>5397</v>
       </c>
-      <c r="C72" s="2">
+      <c r="C72" s="7">
         <v>41</v>
       </c>
       <c r="D72" s="2" t="s">
@@ -7844,22 +8306,22 @@
       <c r="E72" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F72" s="2">
+      <c r="F72" s="7">
         <v>15</v>
       </c>
-      <c r="G72" s="2">
+      <c r="G72" s="6">
         <v>2040</v>
       </c>
-      <c r="H72" s="2">
+      <c r="H72" s="7">
         <v>155</v>
       </c>
-      <c r="I72" s="2">
+      <c r="I72" s="7">
         <v>35</v>
       </c>
-      <c r="J72" s="2">
+      <c r="J72" s="7">
         <v>90</v>
       </c>
-      <c r="K72" s="2">
+      <c r="K72" s="8">
         <v>3.7799999713897705</v>
       </c>
       <c r="L72" s="2" t="s">
@@ -7876,10 +8338,10 @@
       <c r="A73" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B73" s="6">
         <v>4697</v>
       </c>
-      <c r="C73" s="2">
+      <c r="C73" s="7">
         <v>25</v>
       </c>
       <c r="D73" s="2" t="s">
@@ -7888,22 +8350,22 @@
       <c r="E73" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F73" s="2">
+      <c r="F73" s="7">
         <v>15</v>
       </c>
-      <c r="G73" s="2">
+      <c r="G73" s="6">
         <v>1930</v>
       </c>
-      <c r="H73" s="2">
+      <c r="H73" s="7">
         <v>155</v>
       </c>
-      <c r="I73" s="2">
+      <c r="I73" s="7">
         <v>35</v>
       </c>
-      <c r="J73" s="2">
+      <c r="J73" s="7">
         <v>89</v>
       </c>
-      <c r="K73" s="2">
+      <c r="K73" s="8">
         <v>3.7799999713897705</v>
       </c>
       <c r="L73" s="2" t="s">
@@ -7920,10 +8382,10 @@
       <c r="A74" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B74" s="2">
+      <c r="B74" s="6">
         <v>6850</v>
       </c>
-      <c r="C74" s="2">
+      <c r="C74" s="7">
         <v>25</v>
       </c>
       <c r="D74" s="2" t="s">
@@ -7932,22 +8394,22 @@
       <c r="E74" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F74" s="2">
+      <c r="F74" s="7">
         <v>16</v>
       </c>
-      <c r="G74" s="2">
+      <c r="G74" s="6">
         <v>1990</v>
       </c>
-      <c r="H74" s="2">
+      <c r="H74" s="7">
         <v>156</v>
       </c>
-      <c r="I74" s="2">
+      <c r="I74" s="7">
         <v>36</v>
       </c>
-      <c r="J74" s="2">
+      <c r="J74" s="7">
         <v>97</v>
       </c>
-      <c r="K74" s="2">
+      <c r="K74" s="8">
         <v>3.7799999713897705</v>
       </c>
       <c r="L74" s="2" t="s">
@@ -7964,10 +8426,10 @@
       <c r="A75" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B75" s="2">
+      <c r="B75" s="6">
         <v>11995</v>
       </c>
-      <c r="C75" s="2">
+      <c r="C75" s="7">
         <v>17</v>
       </c>
       <c r="D75" s="2" t="s">
@@ -7976,22 +8438,22 @@
       <c r="E75" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F75" s="2">
+      <c r="F75" s="7">
         <v>14</v>
       </c>
-      <c r="G75" s="2">
+      <c r="G75" s="6">
         <v>3170</v>
       </c>
-      <c r="H75" s="2">
+      <c r="H75" s="7">
         <v>193</v>
       </c>
-      <c r="I75" s="2">
+      <c r="I75" s="7">
         <v>37</v>
       </c>
-      <c r="J75" s="2">
+      <c r="J75" s="7">
         <v>163</v>
       </c>
-      <c r="K75" s="2">
+      <c r="K75" s="8">
         <v>2.9800000190734863</v>
       </c>
       <c r="L75" s="2" t="s">
@@ -8005,33 +8467,67 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:ZZ1048576 AAA1:XFD1">
-    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="↓">
+  <conditionalFormatting sqref="A2:XFD1048576">
+    <cfRule type="containsText" dxfId="37" priority="11" operator="containsText" text="↓">
+      <formula>NOT(ISERROR(SEARCH("↓",A2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="36" priority="12" operator="containsText" text="→">
+      <formula>NOT(ISERROR(SEARCH("→",A2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="35" priority="13" operator="containsText" text="➚">
+      <formula>NOT(ISERROR(SEARCH("➚",A2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="14" operator="containsText" text="↑">
+      <formula>NOT(ISERROR(SEARCH("↑",A2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="33" priority="15" operator="containsText" text="gray">
+      <formula>NOT(ISERROR(SEARCH("gray",A2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="32" priority="16" operator="containsText" text="orange">
+      <formula>NOT(ISERROR(SEARCH("orange",A2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="31" priority="17" operator="containsText" text="yellow">
+      <formula>NOT(ISERROR(SEARCH("yellow",A2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="18" operator="containsText" text="red">
+      <formula>NOT(ISERROR(SEARCH("red",A2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="29" priority="19" operator="containsText" text="green">
+      <formula>NOT(ISERROR(SEARCH("green",A2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:XFD1">
+    <cfRule type="containsText" dxfId="28" priority="2" operator="containsText" text="↓">
       <formula>NOT(ISERROR(SEARCH("↓",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="→">
+    <cfRule type="containsText" dxfId="27" priority="3" operator="containsText" text="→">
       <formula>NOT(ISERROR(SEARCH("→",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="3" operator="containsText" text="➚">
+    <cfRule type="containsText" dxfId="26" priority="4" operator="containsText" text="➚">
       <formula>NOT(ISERROR(SEARCH("➚",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="4" operator="containsText" text="↑">
+    <cfRule type="containsText" dxfId="25" priority="5" operator="containsText" text="↑">
       <formula>NOT(ISERROR(SEARCH("↑",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="5" operator="containsText" text="gray">
+    <cfRule type="containsText" dxfId="24" priority="6" operator="containsText" text="gray">
       <formula>NOT(ISERROR(SEARCH("gray",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="6" operator="containsText" text="orange">
+    <cfRule type="containsText" dxfId="23" priority="7" operator="containsText" text="orange">
       <formula>NOT(ISERROR(SEARCH("orange",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="yellow">
+    <cfRule type="containsText" dxfId="22" priority="8" operator="containsText" text="yellow">
       <formula>NOT(ISERROR(SEARCH("yellow",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="red">
+    <cfRule type="containsText" dxfId="21" priority="9" operator="containsText" text="red">
       <formula>NOT(ISERROR(SEARCH("red",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="green">
+    <cfRule type="containsText" dxfId="20" priority="10" operator="containsText" text="green">
       <formula>NOT(ISERROR(SEARCH("green",A1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:XFD1">
+    <cfRule type="expression" dxfId="19" priority="1">
+      <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8044,124 +8540,158 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="27" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="5" customFormat="true" ht="27" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="true" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" s="2" customFormat="true" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="true" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" s="2" customFormat="true" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>15.5</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="true" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" s="2" customFormat="true" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>27.6</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" s="3" customFormat="true" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" s="2" customFormat="true" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" s="3" customFormat="true" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="true" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" s="3" customFormat="true" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" s="2" customFormat="true" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" s="3" customFormat="true" x14ac:dyDescent="0.25"/>
-    <row r="9" s="3" customFormat="true" x14ac:dyDescent="0.25"/>
-    <row r="10" s="3" customFormat="true" x14ac:dyDescent="0.25"/>
-    <row r="11" s="3" customFormat="true" x14ac:dyDescent="0.25"/>
-    <row r="12" s="3" customFormat="true" x14ac:dyDescent="0.25"/>
-    <row r="13" s="3" customFormat="true" x14ac:dyDescent="0.25"/>
-    <row r="14" s="3" customFormat="true" x14ac:dyDescent="0.25"/>
-    <row r="15" s="3" customFormat="true" x14ac:dyDescent="0.25"/>
-    <row r="16" s="3" customFormat="true" x14ac:dyDescent="0.25"/>
-    <row r="17" s="3" customFormat="true" x14ac:dyDescent="0.25"/>
-    <row r="18" s="3" customFormat="true" x14ac:dyDescent="0.25"/>
-    <row r="19" s="3" customFormat="true" x14ac:dyDescent="0.25"/>
-    <row r="20" s="3" customFormat="true" x14ac:dyDescent="0.25"/>
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="true" x14ac:dyDescent="0.25"/>
+    <row r="9" s="2" customFormat="true" x14ac:dyDescent="0.25"/>
+    <row r="10" s="2" customFormat="true" x14ac:dyDescent="0.25"/>
+    <row r="11" s="2" customFormat="true" x14ac:dyDescent="0.25"/>
+    <row r="12" s="2" customFormat="true" x14ac:dyDescent="0.25"/>
+    <row r="13" s="2" customFormat="true" x14ac:dyDescent="0.25"/>
+    <row r="14" s="2" customFormat="true" x14ac:dyDescent="0.25"/>
+    <row r="15" s="2" customFormat="true" x14ac:dyDescent="0.25"/>
+    <row r="16" s="2" customFormat="true" x14ac:dyDescent="0.25"/>
+    <row r="17" s="2" customFormat="true" x14ac:dyDescent="0.25"/>
+    <row r="18" s="2" customFormat="true" x14ac:dyDescent="0.25"/>
+    <row r="19" s="2" customFormat="true" x14ac:dyDescent="0.25"/>
+    <row r="20" s="2" customFormat="true" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <conditionalFormatting sqref="A1:ZZ1048576 AAA1:XFD1">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="↓">
+  <conditionalFormatting sqref="A2:ZZ1048576">
+    <cfRule type="containsText" dxfId="18" priority="11" operator="containsText" text="↓">
+      <formula>NOT(ISERROR(SEARCH("↓",A2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="17" priority="12" operator="containsText" text="→">
+      <formula>NOT(ISERROR(SEARCH("→",A2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="13" operator="containsText" text="➚">
+      <formula>NOT(ISERROR(SEARCH("➚",A2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="14" operator="containsText" text="↑">
+      <formula>NOT(ISERROR(SEARCH("↑",A2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="gray">
+      <formula>NOT(ISERROR(SEARCH("gray",A2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="16" operator="containsText" text="orange">
+      <formula>NOT(ISERROR(SEARCH("orange",A2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="17" operator="containsText" text="yellow">
+      <formula>NOT(ISERROR(SEARCH("yellow",A2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="11" priority="18" operator="containsText" text="red">
+      <formula>NOT(ISERROR(SEARCH("red",A2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="19" operator="containsText" text="green">
+      <formula>NOT(ISERROR(SEARCH("green",A2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:XFD1">
+    <cfRule type="containsText" dxfId="9" priority="2" operator="containsText" text="↓">
       <formula>NOT(ISERROR(SEARCH("↓",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="→">
+    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="→">
       <formula>NOT(ISERROR(SEARCH("→",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="➚">
+    <cfRule type="containsText" dxfId="7" priority="4" operator="containsText" text="➚">
       <formula>NOT(ISERROR(SEARCH("➚",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="↑">
+    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="↑">
       <formula>NOT(ISERROR(SEARCH("↑",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="gray">
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="gray">
       <formula>NOT(ISERROR(SEARCH("gray",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="orange">
+    <cfRule type="containsText" dxfId="4" priority="7" operator="containsText" text="orange">
       <formula>NOT(ISERROR(SEARCH("orange",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="7" operator="containsText" text="yellow">
+    <cfRule type="containsText" dxfId="3" priority="8" operator="containsText" text="yellow">
       <formula>NOT(ISERROR(SEARCH("yellow",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="8" operator="containsText" text="red">
+    <cfRule type="containsText" dxfId="2" priority="9" operator="containsText" text="red">
       <formula>NOT(ISERROR(SEARCH("red",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="9" operator="containsText" text="green">
+    <cfRule type="containsText" dxfId="1" priority="10" operator="containsText" text="green">
       <formula>NOT(ISERROR(SEARCH("green",A1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:XFD1">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8180,17 +8710,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" s="5" customFormat="true" ht="27" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" s="4" customFormat="true" ht="27" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
     </row>

--- a/sdgindex.xlsx
+++ b/sdgindex.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Finn Woelm\Projects\stata-excel-template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C6B9D0-E910-491C-92AA-CC4ADA4050E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB2072B-F8E2-409C-8D0F-A5FF66218538}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="945" yWindow="1410" windowWidth="23040" windowHeight="11835"/>
+    <workbookView xWindow="945" yWindow="1410" windowWidth="23040" windowHeight="11835" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Overall Results" sheetId="8" r:id="rId1"/>
@@ -1808,7 +1808,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CAFD747-961D-4958-B282-966AFB409A3E}">
   <dimension ref="A1:N75"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5159,7 +5164,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3AF4C6E-3E65-4E26-AFB9-A800448A3220}">
   <dimension ref="A1:N75"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8539,8 +8549,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81D59EDA-29EF-4B54-BF6D-02E731E6D405}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="true" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/sdgindex.xlsx
+++ b/sdgindex.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Finn Woelm\Projects\stata-excel-template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB2072B-F8E2-409C-8D0F-A5FF66218538}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{541A406C-E18C-4D33-AF88-2DABD1417005}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="945" yWindow="1410" windowWidth="23040" windowHeight="11835" activeTab="2"/>
+    <workbookView xWindow="945" yWindow="1410" windowWidth="23040" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Overall Results" sheetId="8" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="107">
   <si>
     <t>title</t>
   </si>
@@ -70,6 +70,15 @@
   </si>
   <si>
     <t>value</t>
+  </si>
+  <si>
+    <t>big column</t>
+  </si>
+  <si>
+    <t>normal col</t>
+  </si>
+  <si>
+    <t>tiny</t>
   </si>
   <si>
     <t>Make and Model</t>
@@ -384,7 +393,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true"/>
@@ -394,6 +403,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment textRotation="45" wrapText="true"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -1808,70 +1820,72 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CAFD747-961D-4958-B282-966AFB409A3E}">
   <dimension ref="A1:N75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="true" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="32.28515625" style="1" customWidth="true"/>
+    <col min="2" max="2" width="4.42578125" style="1" customWidth="true"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="6">
+        <v>18</v>
+      </c>
+      <c r="B2" s="7">
         <v>4099</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="8">
         <v>22</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -1880,26 +1894,26 @@
       <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="8">
         <v>11</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="7">
         <v>2930</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="8">
         <v>186</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="8">
         <v>40</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="8">
         <v>121</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="9">
         <v>3.5799999237060547</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>4</v>
@@ -1910,12 +1924,12 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="6">
+        <v>19</v>
+      </c>
+      <c r="B3" s="7">
         <v>4749</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="8">
         <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1924,26 +1938,26 @@
       <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="8">
         <v>11</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="7">
         <v>3350</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="8">
         <v>173</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="8">
         <v>40</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="8">
         <v>258</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="9">
         <v>2.5299999713897705</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>4</v>
@@ -1954,43 +1968,43 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="6">
+        <v>20</v>
+      </c>
+      <c r="B4" s="7">
         <v>3799</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="8">
         <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="8">
         <v>12</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="7">
         <v>2640</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="8">
         <v>168</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="8">
         <v>35</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="8">
         <v>121</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="9">
         <v>3.0799999237060547</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>10</v>
@@ -1998,12 +2012,12 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="6">
+        <v>21</v>
+      </c>
+      <c r="B5" s="7">
         <v>4816</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="8">
         <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -2012,26 +2026,26 @@
       <c r="E5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="8">
         <v>16</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="7">
         <v>3250</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="8">
         <v>196</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="8">
         <v>40</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="8">
         <v>196</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="9">
         <v>2.9300000667572021</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>4</v>
@@ -2042,12 +2056,12 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="6">
+        <v>22</v>
+      </c>
+      <c r="B6" s="7">
         <v>7827</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="8">
         <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -2056,26 +2070,26 @@
       <c r="E6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="8">
         <v>20</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="7">
         <v>4080</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="8">
         <v>222</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="8">
         <v>43</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="8">
         <v>350</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="9">
         <v>2.4100000858306885</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>5</v>
@@ -2086,12 +2100,12 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="6">
+        <v>23</v>
+      </c>
+      <c r="B7" s="7">
         <v>5788</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="8">
         <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -2100,26 +2114,26 @@
       <c r="E7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="8">
         <v>21</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="7">
         <v>3670</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="8">
         <v>218</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="8">
         <v>43</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="8">
         <v>231</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="9">
         <v>2.7300000190734863</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>4</v>
@@ -2130,43 +2144,43 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="6">
+        <v>24</v>
+      </c>
+      <c r="B8" s="7">
         <v>4453</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="8">
         <v>26</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="7">
-        <v>10</v>
-      </c>
-      <c r="G8" s="6">
+      <c r="F8" s="8">
+        <v>10</v>
+      </c>
+      <c r="G8" s="7">
         <v>2230</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="8">
         <v>170</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="8">
         <v>34</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="8">
         <v>304</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="9">
         <v>2.869999885559082</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>10</v>
@@ -2174,12 +2188,12 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="6">
+        <v>25</v>
+      </c>
+      <c r="B9" s="7">
         <v>5189</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="8">
         <v>20</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -2188,26 +2202,26 @@
       <c r="E9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="8">
         <v>16</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="7">
         <v>3280</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="8">
         <v>200</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="8">
         <v>42</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="8">
         <v>196</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="9">
         <v>2.9300000667572021</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>4</v>
@@ -2218,12 +2232,12 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="6">
+        <v>26</v>
+      </c>
+      <c r="B10" s="7">
         <v>10372</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="8">
         <v>16</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -2232,26 +2246,26 @@
       <c r="E10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="8">
         <v>17</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="7">
         <v>3880</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="8">
         <v>207</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="8">
         <v>43</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="8">
         <v>231</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="9">
         <v>2.9300000667572021</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>4</v>
@@ -2262,12 +2276,12 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="6">
+        <v>27</v>
+      </c>
+      <c r="B11" s="7">
         <v>4082</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="8">
         <v>19</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -2276,26 +2290,26 @@
       <c r="E11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="8">
         <v>13</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="7">
         <v>3400</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="8">
         <v>200</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="8">
         <v>42</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="8">
         <v>231</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="9">
         <v>3.0799999237060547</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>4</v>
@@ -2306,12 +2320,12 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="6">
+        <v>28</v>
+      </c>
+      <c r="B12" s="7">
         <v>11385</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="8">
         <v>14</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -2320,26 +2334,26 @@
       <c r="E12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="8">
         <v>20</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="7">
         <v>4330</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="8">
         <v>221</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="8">
         <v>44</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="8">
         <v>425</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="9">
         <v>2.2799999713897705</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>4</v>
@@ -2350,12 +2364,12 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="6">
+        <v>29</v>
+      </c>
+      <c r="B13" s="7">
         <v>14500</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="8">
         <v>14</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -2364,26 +2378,26 @@
       <c r="E13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="8">
         <v>16</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="7">
         <v>3900</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="8">
         <v>204</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="8">
         <v>43</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="8">
         <v>350</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K13" s="9">
         <v>2.190000057220459</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>3</v>
@@ -2394,12 +2408,12 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="6">
+        <v>30</v>
+      </c>
+      <c r="B14" s="7">
         <v>15906</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="8">
         <v>21</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -2408,26 +2422,26 @@
       <c r="E14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="8">
         <v>13</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="7">
         <v>4290</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="8">
         <v>204</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="8">
         <v>45</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="8">
         <v>350</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K14" s="9">
         <v>2.2400000095367432</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>4</v>
@@ -2438,12 +2452,12 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="6">
+        <v>31</v>
+      </c>
+      <c r="B15" s="7">
         <v>3299</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="8">
         <v>29</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -2452,26 +2466,26 @@
       <c r="E15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="7">
-        <v>9</v>
-      </c>
-      <c r="G15" s="6">
+      <c r="F15" s="8">
+        <v>9</v>
+      </c>
+      <c r="G15" s="7">
         <v>2110</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="8">
         <v>163</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="8">
         <v>34</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="8">
         <v>231</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K15" s="9">
         <v>2.9300000667572021</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>4</v>
@@ -2482,12 +2496,12 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="6">
+        <v>32</v>
+      </c>
+      <c r="B16" s="7">
         <v>5705</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="8">
         <v>16</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -2496,26 +2510,26 @@
       <c r="E16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="8">
         <v>20</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="7">
         <v>3690</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="8">
         <v>212</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="8">
         <v>43</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="8">
         <v>250</v>
       </c>
-      <c r="K16" s="8">
+      <c r="K16" s="9">
         <v>2.559999942779541</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>5</v>
@@ -2526,12 +2540,12 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="6">
+        <v>33</v>
+      </c>
+      <c r="B17" s="7">
         <v>4504</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="8">
         <v>22</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -2540,26 +2554,26 @@
       <c r="E17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="8">
         <v>17</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="7">
         <v>3180</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="8">
         <v>193</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="8">
         <v>31</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="8">
         <v>200</v>
       </c>
-      <c r="K17" s="8">
+      <c r="K17" s="9">
         <v>2.7300000190734863</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>4</v>
@@ -2570,12 +2584,12 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="6">
+        <v>34</v>
+      </c>
+      <c r="B18" s="7">
         <v>5104</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="8">
         <v>22</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -2584,26 +2598,26 @@
       <c r="E18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="8">
         <v>16</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="7">
         <v>3220</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="8">
         <v>200</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="8">
         <v>41</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="8">
         <v>200</v>
       </c>
-      <c r="K18" s="8">
+      <c r="K18" s="9">
         <v>2.7300000190734863</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>3</v>
@@ -2614,12 +2628,12 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="6">
+        <v>35</v>
+      </c>
+      <c r="B19" s="7">
         <v>3667</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="8">
         <v>24</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -2628,26 +2642,26 @@
       <c r="E19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="8">
         <v>7</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="7">
         <v>2750</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="8">
         <v>179</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="8">
         <v>40</v>
       </c>
-      <c r="J19" s="7">
+      <c r="J19" s="8">
         <v>151</v>
       </c>
-      <c r="K19" s="8">
+      <c r="K19" s="9">
         <v>2.7300000190734863</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M19" s="1" t="s">
         <v>3</v>
@@ -2658,12 +2672,12 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="6">
+        <v>36</v>
+      </c>
+      <c r="B20" s="7">
         <v>3955</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="8">
         <v>19</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -2672,26 +2686,26 @@
       <c r="E20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="8">
         <v>13</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="7">
         <v>3430</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="8">
         <v>197</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="8">
         <v>43</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J20" s="8">
         <v>250</v>
       </c>
-      <c r="K20" s="8">
+      <c r="K20" s="9">
         <v>2.559999942779541</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M20" s="1" t="s">
         <v>4</v>
@@ -2702,12 +2716,12 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="6">
+        <v>37</v>
+      </c>
+      <c r="B21" s="7">
         <v>3984</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="8">
         <v>30</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -2716,26 +2730,26 @@
       <c r="E21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="8">
         <v>8</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="7">
         <v>2120</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="8">
         <v>163</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="8">
         <v>35</v>
       </c>
-      <c r="J21" s="7">
+      <c r="J21" s="8">
         <v>98</v>
       </c>
-      <c r="K21" s="8">
+      <c r="K21" s="9">
         <v>3.5399999618530273</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M21" s="1" t="s">
         <v>6</v>
@@ -2746,12 +2760,12 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="6">
+        <v>38</v>
+      </c>
+      <c r="B22" s="7">
         <v>4010</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="8">
         <v>18</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -2760,26 +2774,26 @@
       <c r="E22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="8">
         <v>17</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="7">
         <v>3600</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="8">
         <v>206</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="8">
         <v>46</v>
       </c>
-      <c r="J22" s="7">
+      <c r="J22" s="8">
         <v>318</v>
       </c>
-      <c r="K22" s="8">
+      <c r="K22" s="9">
         <v>2.4700000286102295</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M22" s="1" t="s">
         <v>3</v>
@@ -2790,12 +2804,12 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="6">
+        <v>39</v>
+      </c>
+      <c r="B23" s="7">
         <v>5886</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="8">
         <v>16</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -2804,26 +2818,26 @@
       <c r="E23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="8">
         <v>17</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="7">
         <v>3600</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="8">
         <v>206</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="8">
         <v>46</v>
       </c>
-      <c r="J23" s="7">
+      <c r="J23" s="8">
         <v>318</v>
       </c>
-      <c r="K23" s="8">
+      <c r="K23" s="9">
         <v>2.4700000286102295</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>3</v>
@@ -2834,12 +2848,12 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="6">
+        <v>40</v>
+      </c>
+      <c r="B24" s="7">
         <v>6342</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="8">
         <v>17</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -2848,26 +2862,26 @@
       <c r="E24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="8">
         <v>21</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="7">
         <v>3740</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H24" s="8">
         <v>220</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="8">
         <v>46</v>
       </c>
-      <c r="J24" s="7">
+      <c r="J24" s="8">
         <v>225</v>
       </c>
-      <c r="K24" s="8">
+      <c r="K24" s="9">
         <v>2.940000057220459</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M24" s="1" t="s">
         <v>3</v>
@@ -2878,12 +2892,12 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="6">
+        <v>41</v>
+      </c>
+      <c r="B25" s="7">
         <v>4389</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="8">
         <v>28</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -2892,26 +2906,26 @@
       <c r="E25" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F25" s="7">
-        <v>9</v>
-      </c>
-      <c r="G25" s="6">
+      <c r="F25" s="8">
+        <v>9</v>
+      </c>
+      <c r="G25" s="7">
         <v>1800</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H25" s="8">
         <v>147</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I25" s="8">
         <v>33</v>
       </c>
-      <c r="J25" s="7">
+      <c r="J25" s="8">
         <v>98</v>
       </c>
-      <c r="K25" s="8">
+      <c r="K25" s="9">
         <v>3.1500000953674316</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>5</v>
@@ -2922,12 +2936,12 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" s="6">
+        <v>42</v>
+      </c>
+      <c r="B26" s="7">
         <v>4187</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="8">
         <v>21</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -2936,26 +2950,26 @@
       <c r="E26" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="7">
-        <v>10</v>
-      </c>
-      <c r="G26" s="6">
+      <c r="F26" s="8">
+        <v>10</v>
+      </c>
+      <c r="G26" s="7">
         <v>2650</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="8">
         <v>179</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I26" s="8">
         <v>43</v>
       </c>
-      <c r="J26" s="7">
+      <c r="J26" s="8">
         <v>140</v>
       </c>
-      <c r="K26" s="8">
+      <c r="K26" s="9">
         <v>3.0799999237060547</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M26" s="1" t="s">
         <v>4</v>
@@ -2966,12 +2980,12 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" s="6">
+        <v>43</v>
+      </c>
+      <c r="B27" s="7">
         <v>11497</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="8">
         <v>12</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -2980,26 +2994,26 @@
       <c r="E27" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="8">
         <v>22</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="7">
         <v>4840</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="8">
         <v>233</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I27" s="8">
         <v>51</v>
       </c>
-      <c r="J27" s="7">
+      <c r="J27" s="8">
         <v>400</v>
       </c>
-      <c r="K27" s="8">
+      <c r="K27" s="9">
         <v>2.4700000286102295</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M27" s="1" t="s">
         <v>4</v>
@@ -3010,12 +3024,12 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B28" s="6">
+        <v>44</v>
+      </c>
+      <c r="B28" s="7">
         <v>13594</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="8">
         <v>12</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -3024,26 +3038,26 @@
       <c r="E28" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="8">
         <v>18</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28" s="7">
         <v>4720</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H28" s="8">
         <v>230</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I28" s="8">
         <v>48</v>
       </c>
-      <c r="J28" s="7">
+      <c r="J28" s="8">
         <v>400</v>
       </c>
-      <c r="K28" s="8">
+      <c r="K28" s="9">
         <v>2.4700000286102295</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M28" s="1" t="s">
         <v>4</v>
@@ -3054,12 +3068,12 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" s="6">
+        <v>45</v>
+      </c>
+      <c r="B29" s="7">
         <v>13466</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="8">
         <v>14</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -3068,26 +3082,26 @@
       <c r="E29" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F29" s="8">
         <v>15</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29" s="7">
         <v>3830</v>
       </c>
-      <c r="H29" s="7">
+      <c r="H29" s="8">
         <v>201</v>
       </c>
-      <c r="I29" s="7">
+      <c r="I29" s="8">
         <v>41</v>
       </c>
-      <c r="J29" s="7">
+      <c r="J29" s="8">
         <v>302</v>
       </c>
-      <c r="K29" s="8">
+      <c r="K29" s="9">
         <v>2.4700000286102295</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M29" s="1" t="s">
         <v>4</v>
@@ -3098,12 +3112,12 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B30" s="6">
+        <v>46</v>
+      </c>
+      <c r="B30" s="7">
         <v>3829</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="8">
         <v>22</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -3112,26 +3126,26 @@
       <c r="E30" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F30" s="7">
-        <v>9</v>
-      </c>
-      <c r="G30" s="6">
+      <c r="F30" s="8">
+        <v>9</v>
+      </c>
+      <c r="G30" s="7">
         <v>2580</v>
       </c>
-      <c r="H30" s="7">
+      <c r="H30" s="8">
         <v>169</v>
       </c>
-      <c r="I30" s="7">
+      <c r="I30" s="8">
         <v>39</v>
       </c>
-      <c r="J30" s="7">
+      <c r="J30" s="8">
         <v>140</v>
       </c>
-      <c r="K30" s="8">
+      <c r="K30" s="9">
         <v>2.7300000190734863</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M30" s="1" t="s">
         <v>5</v>
@@ -3142,12 +3156,12 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B31" s="6">
+        <v>47</v>
+      </c>
+      <c r="B31" s="7">
         <v>5379</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="8">
         <v>14</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -3156,26 +3170,26 @@
       <c r="E31" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="8">
         <v>16</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G31" s="7">
         <v>4060</v>
       </c>
-      <c r="H31" s="7">
+      <c r="H31" s="8">
         <v>221</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I31" s="8">
         <v>48</v>
       </c>
-      <c r="J31" s="7">
+      <c r="J31" s="8">
         <v>302</v>
       </c>
-      <c r="K31" s="8">
+      <c r="K31" s="9">
         <v>2.75</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M31" s="1" t="s">
         <v>5</v>
@@ -3186,12 +3200,12 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B32" s="6">
+        <v>48</v>
+      </c>
+      <c r="B32" s="7">
         <v>6165</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="8">
         <v>15</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -3200,26 +3214,26 @@
       <c r="E32" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F32" s="8">
         <v>23</v>
       </c>
-      <c r="G32" s="6">
+      <c r="G32" s="7">
         <v>3720</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H32" s="8">
         <v>212</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I32" s="8">
         <v>44</v>
       </c>
-      <c r="J32" s="7">
+      <c r="J32" s="8">
         <v>302</v>
       </c>
-      <c r="K32" s="8">
+      <c r="K32" s="9">
         <v>2.2599999904632568</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M32" s="1" t="s">
         <v>4</v>
@@ -3230,12 +3244,12 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B33" s="6">
+        <v>49</v>
+      </c>
+      <c r="B33" s="7">
         <v>4516</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="8">
         <v>18</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -3244,26 +3258,26 @@
       <c r="E33" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F33" s="8">
         <v>15</v>
       </c>
-      <c r="G33" s="6">
+      <c r="G33" s="7">
         <v>3370</v>
       </c>
-      <c r="H33" s="7">
+      <c r="H33" s="8">
         <v>198</v>
       </c>
-      <c r="I33" s="7">
+      <c r="I33" s="8">
         <v>41</v>
       </c>
-      <c r="J33" s="7">
+      <c r="J33" s="8">
         <v>250</v>
       </c>
-      <c r="K33" s="8">
+      <c r="K33" s="9">
         <v>2.4300000667572021</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M33" s="1" t="s">
         <v>4</v>
@@ -3274,12 +3288,12 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B34" s="6">
+        <v>50</v>
+      </c>
+      <c r="B34" s="7">
         <v>6303</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="8">
         <v>14</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -3288,26 +3302,26 @@
       <c r="E34" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F34" s="8">
         <v>16</v>
       </c>
-      <c r="G34" s="6">
+      <c r="G34" s="7">
         <v>4130</v>
       </c>
-      <c r="H34" s="7">
+      <c r="H34" s="8">
         <v>217</v>
       </c>
-      <c r="I34" s="7">
+      <c r="I34" s="8">
         <v>45</v>
       </c>
-      <c r="J34" s="7">
+      <c r="J34" s="8">
         <v>302</v>
       </c>
-      <c r="K34" s="8">
+      <c r="K34" s="9">
         <v>2.75</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M34" s="1" t="s">
         <v>5</v>
@@ -3318,12 +3332,12 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B35" s="6">
+        <v>51</v>
+      </c>
+      <c r="B35" s="7">
         <v>3291</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="8">
         <v>20</v>
       </c>
       <c r="D35" s="1" t="s">
@@ -3332,26 +3346,26 @@
       <c r="E35" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F35" s="8">
         <v>17</v>
       </c>
-      <c r="G35" s="6">
+      <c r="G35" s="7">
         <v>2830</v>
       </c>
-      <c r="H35" s="7">
+      <c r="H35" s="8">
         <v>195</v>
       </c>
-      <c r="I35" s="7">
+      <c r="I35" s="8">
         <v>43</v>
       </c>
-      <c r="J35" s="7">
+      <c r="J35" s="8">
         <v>140</v>
       </c>
-      <c r="K35" s="8">
+      <c r="K35" s="9">
         <v>3.0799999237060547</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M35" s="1" t="s">
         <v>4</v>
@@ -3362,12 +3376,12 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B36" s="6">
+        <v>52</v>
+      </c>
+      <c r="B36" s="7">
         <v>8814</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="8">
         <v>21</v>
       </c>
       <c r="D36" s="1" t="s">
@@ -3376,26 +3390,26 @@
       <c r="E36" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F36" s="7">
+      <c r="F36" s="8">
         <v>20</v>
       </c>
-      <c r="G36" s="6">
+      <c r="G36" s="7">
         <v>4060</v>
       </c>
-      <c r="H36" s="7">
+      <c r="H36" s="8">
         <v>220</v>
       </c>
-      <c r="I36" s="7">
+      <c r="I36" s="8">
         <v>43</v>
       </c>
-      <c r="J36" s="7">
+      <c r="J36" s="8">
         <v>350</v>
       </c>
-      <c r="K36" s="8">
+      <c r="K36" s="9">
         <v>2.4100000858306885</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M36" s="1" t="s">
         <v>5</v>
@@ -3406,12 +3420,12 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B37" s="6">
+        <v>53</v>
+      </c>
+      <c r="B37" s="7">
         <v>5172</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="8">
         <v>19</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -3420,26 +3434,26 @@
       <c r="E37" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F37" s="8">
         <v>16</v>
       </c>
-      <c r="G37" s="6">
+      <c r="G37" s="7">
         <v>3310</v>
       </c>
-      <c r="H37" s="7">
+      <c r="H37" s="8">
         <v>198</v>
       </c>
-      <c r="I37" s="7">
+      <c r="I37" s="8">
         <v>42</v>
       </c>
-      <c r="J37" s="7">
+      <c r="J37" s="8">
         <v>231</v>
       </c>
-      <c r="K37" s="8">
+      <c r="K37" s="9">
         <v>2.9300000667572021</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M37" s="1" t="s">
         <v>4</v>
@@ -3450,12 +3464,12 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B38" s="6">
+        <v>54</v>
+      </c>
+      <c r="B38" s="7">
         <v>4733</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C38" s="8">
         <v>19</v>
       </c>
       <c r="D38" s="1" t="s">
@@ -3464,26 +3478,26 @@
       <c r="E38" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F38" s="8">
         <v>16</v>
       </c>
-      <c r="G38" s="6">
+      <c r="G38" s="7">
         <v>3300</v>
       </c>
-      <c r="H38" s="7">
+      <c r="H38" s="8">
         <v>198</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I38" s="8">
         <v>42</v>
       </c>
-      <c r="J38" s="7">
+      <c r="J38" s="8">
         <v>231</v>
       </c>
-      <c r="K38" s="8">
+      <c r="K38" s="9">
         <v>2.9300000667572021</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M38" s="1" t="s">
         <v>4</v>
@@ -3494,12 +3508,12 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B39" s="6">
+        <v>55</v>
+      </c>
+      <c r="B39" s="7">
         <v>4890</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C39" s="8">
         <v>18</v>
       </c>
       <c r="D39" s="1" t="s">
@@ -3508,26 +3522,26 @@
       <c r="E39" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F39" s="7">
+      <c r="F39" s="8">
         <v>20</v>
       </c>
-      <c r="G39" s="6">
+      <c r="G39" s="7">
         <v>3690</v>
       </c>
-      <c r="H39" s="7">
+      <c r="H39" s="8">
         <v>218</v>
       </c>
-      <c r="I39" s="7">
+      <c r="I39" s="8">
         <v>42</v>
       </c>
-      <c r="J39" s="7">
+      <c r="J39" s="8">
         <v>231</v>
       </c>
-      <c r="K39" s="8">
+      <c r="K39" s="9">
         <v>2.7300000190734863</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M39" s="1" t="s">
         <v>5</v>
@@ -3538,12 +3552,12 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B40" s="6">
+        <v>56</v>
+      </c>
+      <c r="B40" s="7">
         <v>4181</v>
       </c>
-      <c r="C40" s="7">
+      <c r="C40" s="8">
         <v>19</v>
       </c>
       <c r="D40" s="1" t="s">
@@ -3552,26 +3566,26 @@
       <c r="E40" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F40" s="7">
+      <c r="F40" s="8">
         <v>14</v>
       </c>
-      <c r="G40" s="6">
+      <c r="G40" s="7">
         <v>3370</v>
       </c>
-      <c r="H40" s="7">
+      <c r="H40" s="8">
         <v>200</v>
       </c>
-      <c r="I40" s="7">
+      <c r="I40" s="8">
         <v>43</v>
       </c>
-      <c r="J40" s="7">
+      <c r="J40" s="8">
         <v>231</v>
       </c>
-      <c r="K40" s="8">
+      <c r="K40" s="9">
         <v>3.0799999237060547</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M40" s="1" t="s">
         <v>4</v>
@@ -3582,12 +3596,12 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B41" s="6">
+        <v>57</v>
+      </c>
+      <c r="B41" s="7">
         <v>4195</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41" s="8">
         <v>24</v>
       </c>
       <c r="D41" s="1" t="s">
@@ -3596,26 +3610,26 @@
       <c r="E41" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F41" s="7">
-        <v>10</v>
-      </c>
-      <c r="G41" s="6">
+      <c r="F41" s="8">
+        <v>10</v>
+      </c>
+      <c r="G41" s="7">
         <v>2730</v>
       </c>
-      <c r="H41" s="7">
+      <c r="H41" s="8">
         <v>180</v>
       </c>
-      <c r="I41" s="7">
+      <c r="I41" s="8">
         <v>40</v>
       </c>
-      <c r="J41" s="7">
+      <c r="J41" s="8">
         <v>151</v>
       </c>
-      <c r="K41" s="8">
+      <c r="K41" s="9">
         <v>2.7300000190734863</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M41" s="1" t="s">
         <v>2</v>
@@ -3626,12 +3640,12 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B42" s="6">
+        <v>58</v>
+      </c>
+      <c r="B42" s="7">
         <v>10371</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C42" s="8">
         <v>16</v>
       </c>
       <c r="D42" s="1" t="s">
@@ -3640,26 +3654,26 @@
       <c r="E42" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F42" s="7">
+      <c r="F42" s="8">
         <v>17</v>
       </c>
-      <c r="G42" s="6">
+      <c r="G42" s="7">
         <v>4030</v>
       </c>
-      <c r="H42" s="7">
+      <c r="H42" s="8">
         <v>206</v>
       </c>
-      <c r="I42" s="7">
+      <c r="I42" s="8">
         <v>43</v>
       </c>
-      <c r="J42" s="7">
+      <c r="J42" s="8">
         <v>350</v>
       </c>
-      <c r="K42" s="8">
+      <c r="K42" s="9">
         <v>2.4100000858306885</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M42" s="1" t="s">
         <v>4</v>
@@ -3670,12 +3684,12 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B43" s="6">
+        <v>59</v>
+      </c>
+      <c r="B43" s="7">
         <v>4647</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C43" s="8">
         <v>28</v>
       </c>
       <c r="D43" s="1" t="s">
@@ -3684,26 +3698,26 @@
       <c r="E43" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F43" s="7">
+      <c r="F43" s="8">
         <v>11</v>
       </c>
-      <c r="G43" s="6">
+      <c r="G43" s="7">
         <v>3260</v>
       </c>
-      <c r="H43" s="7">
+      <c r="H43" s="8">
         <v>170</v>
       </c>
-      <c r="I43" s="7">
+      <c r="I43" s="8">
         <v>37</v>
       </c>
-      <c r="J43" s="7">
+      <c r="J43" s="8">
         <v>156</v>
       </c>
-      <c r="K43" s="8">
+      <c r="K43" s="9">
         <v>3.0499999523162842</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M43" s="1" t="s">
         <v>4</v>
@@ -3714,12 +3728,12 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B44" s="6">
+        <v>60</v>
+      </c>
+      <c r="B44" s="7">
         <v>4425</v>
       </c>
-      <c r="C44" s="7">
+      <c r="C44" s="8">
         <v>34</v>
       </c>
       <c r="D44" s="1" t="s">
@@ -3728,26 +3742,26 @@
       <c r="E44" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F44" s="7">
+      <c r="F44" s="8">
         <v>11</v>
       </c>
-      <c r="G44" s="6">
+      <c r="G44" s="7">
         <v>1800</v>
       </c>
-      <c r="H44" s="7">
+      <c r="H44" s="8">
         <v>157</v>
       </c>
-      <c r="I44" s="7">
+      <c r="I44" s="8">
         <v>37</v>
       </c>
-      <c r="J44" s="7">
+      <c r="J44" s="8">
         <v>86</v>
       </c>
-      <c r="K44" s="8">
+      <c r="K44" s="9">
         <v>2.9700000286102295</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M44" s="1" t="s">
         <v>6</v>
@@ -3758,12 +3772,12 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B45" s="6">
+        <v>61</v>
+      </c>
+      <c r="B45" s="7">
         <v>4482</v>
       </c>
-      <c r="C45" s="7">
+      <c r="C45" s="8">
         <v>25</v>
       </c>
       <c r="D45" s="1" t="s">
@@ -3772,26 +3786,26 @@
       <c r="E45" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F45" s="7">
+      <c r="F45" s="8">
         <v>17</v>
       </c>
-      <c r="G45" s="6">
+      <c r="G45" s="7">
         <v>2200</v>
       </c>
-      <c r="H45" s="7">
+      <c r="H45" s="8">
         <v>165</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I45" s="8">
         <v>36</v>
       </c>
-      <c r="J45" s="7">
-        <v>105</v>
-      </c>
-      <c r="K45" s="8">
+      <c r="J45" s="8">
+        <v>105</v>
+      </c>
+      <c r="K45" s="9">
         <v>3.369999885559082</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M45" s="1" t="s">
         <v>4</v>
@@ -3802,43 +3816,43 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B46" s="6">
+        <v>62</v>
+      </c>
+      <c r="B46" s="7">
         <v>6486</v>
       </c>
-      <c r="C46" s="7">
+      <c r="C46" s="8">
         <v>26</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F46" s="7">
+      <c r="F46" s="8">
         <v>8</v>
       </c>
-      <c r="G46" s="6">
+      <c r="G46" s="7">
         <v>2520</v>
       </c>
-      <c r="H46" s="7">
+      <c r="H46" s="8">
         <v>182</v>
       </c>
-      <c r="I46" s="7">
+      <c r="I46" s="8">
         <v>38</v>
       </c>
-      <c r="J46" s="7">
+      <c r="J46" s="8">
         <v>119</v>
       </c>
-      <c r="K46" s="8">
+      <c r="K46" s="9">
         <v>3.5399999618530273</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="N46" s="1" t="s">
         <v>7</v>
@@ -3846,56 +3860,56 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B47" s="6">
+        <v>63</v>
+      </c>
+      <c r="B47" s="7">
         <v>4060</v>
       </c>
-      <c r="C47" s="7">
+      <c r="C47" s="8">
         <v>18</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F47" s="7">
+        <v>97</v>
+      </c>
+      <c r="F47" s="8">
         <v>16</v>
       </c>
-      <c r="G47" s="6">
+      <c r="G47" s="7">
         <v>3330</v>
       </c>
-      <c r="H47" s="7">
+      <c r="H47" s="8">
         <v>201</v>
       </c>
-      <c r="I47" s="7">
+      <c r="I47" s="8">
         <v>44</v>
       </c>
-      <c r="J47" s="7">
+      <c r="J47" s="8">
         <v>225</v>
       </c>
-      <c r="K47" s="8">
+      <c r="K47" s="9">
         <v>3.2300000190734863</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M47" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B48" s="6">
+        <v>64</v>
+      </c>
+      <c r="B48" s="7">
         <v>5798</v>
       </c>
-      <c r="C48" s="7">
+      <c r="C48" s="8">
         <v>18</v>
       </c>
       <c r="D48" s="1" t="s">
@@ -3904,26 +3918,26 @@
       <c r="E48" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F48" s="7">
+      <c r="F48" s="8">
         <v>20</v>
       </c>
-      <c r="G48" s="6">
+      <c r="G48" s="7">
         <v>3700</v>
       </c>
-      <c r="H48" s="7">
+      <c r="H48" s="8">
         <v>214</v>
       </c>
-      <c r="I48" s="7">
+      <c r="I48" s="8">
         <v>42</v>
       </c>
-      <c r="J48" s="7">
+      <c r="J48" s="8">
         <v>231</v>
       </c>
-      <c r="K48" s="8">
+      <c r="K48" s="9">
         <v>2.7300000190734863</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M48" s="1" t="s">
         <v>5</v>
@@ -3934,12 +3948,12 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B49" s="6">
+        <v>65</v>
+      </c>
+      <c r="B49" s="7">
         <v>4934</v>
       </c>
-      <c r="C49" s="7">
+      <c r="C49" s="8">
         <v>18</v>
       </c>
       <c r="D49" s="1" t="s">
@@ -3948,26 +3962,26 @@
       <c r="E49" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F49" s="7">
+      <c r="F49" s="8">
         <v>7</v>
       </c>
-      <c r="G49" s="6">
+      <c r="G49" s="7">
         <v>3470</v>
       </c>
-      <c r="H49" s="7">
+      <c r="H49" s="8">
         <v>198</v>
       </c>
-      <c r="I49" s="7">
+      <c r="I49" s="8">
         <v>42</v>
       </c>
-      <c r="J49" s="7">
+      <c r="J49" s="8">
         <v>231</v>
       </c>
-      <c r="K49" s="8">
+      <c r="K49" s="9">
         <v>3.0799999237060547</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M49" s="1" t="s">
         <v>2</v>
@@ -3978,12 +3992,12 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B50" s="6">
+        <v>66</v>
+      </c>
+      <c r="B50" s="7">
         <v>5222</v>
       </c>
-      <c r="C50" s="7">
+      <c r="C50" s="8">
         <v>19</v>
       </c>
       <c r="D50" s="1" t="s">
@@ -3992,26 +4006,26 @@
       <c r="E50" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F50" s="7">
+      <c r="F50" s="8">
         <v>16</v>
       </c>
-      <c r="G50" s="6">
+      <c r="G50" s="7">
         <v>3210</v>
       </c>
-      <c r="H50" s="7">
+      <c r="H50" s="8">
         <v>201</v>
       </c>
-      <c r="I50" s="7">
+      <c r="I50" s="8">
         <v>45</v>
       </c>
-      <c r="J50" s="7">
+      <c r="J50" s="8">
         <v>231</v>
       </c>
-      <c r="K50" s="8">
+      <c r="K50" s="9">
         <v>2.9300000667572021</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M50" s="1" t="s">
         <v>4</v>
@@ -4022,12 +4036,12 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B51" s="6">
+        <v>67</v>
+      </c>
+      <c r="B51" s="7">
         <v>4723</v>
       </c>
-      <c r="C51" s="7">
+      <c r="C51" s="8">
         <v>19</v>
       </c>
       <c r="D51" s="1" t="s">
@@ -4036,26 +4050,26 @@
       <c r="E51" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F51" s="7">
+      <c r="F51" s="8">
         <v>17</v>
       </c>
-      <c r="G51" s="6">
+      <c r="G51" s="7">
         <v>3200</v>
       </c>
-      <c r="H51" s="7">
+      <c r="H51" s="8">
         <v>199</v>
       </c>
-      <c r="I51" s="7">
+      <c r="I51" s="8">
         <v>40</v>
       </c>
-      <c r="J51" s="7">
+      <c r="J51" s="8">
         <v>231</v>
       </c>
-      <c r="K51" s="8">
+      <c r="K51" s="9">
         <v>2.9300000667572021</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M51" s="1" t="s">
         <v>4</v>
@@ -4066,43 +4080,43 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B52" s="6">
+        <v>68</v>
+      </c>
+      <c r="B52" s="7">
         <v>4424</v>
       </c>
-      <c r="C52" s="7">
+      <c r="C52" s="8">
         <v>19</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F52" s="7">
+      <c r="F52" s="8">
         <v>13</v>
       </c>
-      <c r="G52" s="6">
+      <c r="G52" s="7">
         <v>3420</v>
       </c>
-      <c r="H52" s="7">
+      <c r="H52" s="8">
         <v>203</v>
       </c>
-      <c r="I52" s="7">
+      <c r="I52" s="8">
         <v>43</v>
       </c>
-      <c r="J52" s="7">
+      <c r="J52" s="8">
         <v>231</v>
       </c>
-      <c r="K52" s="8">
+      <c r="K52" s="9">
         <v>3.0799999237060547</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="N52" s="1" t="s">
         <v>10</v>
@@ -4110,12 +4124,12 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B53" s="6">
+        <v>69</v>
+      </c>
+      <c r="B53" s="7">
         <v>4172</v>
       </c>
-      <c r="C53" s="7">
+      <c r="C53" s="8">
         <v>24</v>
       </c>
       <c r="D53" s="1" t="s">
@@ -4124,26 +4138,26 @@
       <c r="E53" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F53" s="7">
+      <c r="F53" s="8">
         <v>7</v>
       </c>
-      <c r="G53" s="6">
+      <c r="G53" s="7">
         <v>2690</v>
       </c>
-      <c r="H53" s="7">
+      <c r="H53" s="8">
         <v>179</v>
       </c>
-      <c r="I53" s="7">
+      <c r="I53" s="8">
         <v>41</v>
       </c>
-      <c r="J53" s="7">
+      <c r="J53" s="8">
         <v>151</v>
       </c>
-      <c r="K53" s="8">
+      <c r="K53" s="9">
         <v>2.7300000190734863</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M53" s="1" t="s">
         <v>3</v>
@@ -4154,12 +4168,12 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B54" s="6">
+        <v>70</v>
+      </c>
+      <c r="B54" s="7">
         <v>9690</v>
       </c>
-      <c r="C54" s="7">
+      <c r="C54" s="8">
         <v>17</v>
       </c>
       <c r="D54" s="1" t="s">
@@ -4168,26 +4182,26 @@
       <c r="E54" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F54" s="7">
+      <c r="F54" s="8">
         <v>15</v>
       </c>
-      <c r="G54" s="6">
+      <c r="G54" s="7">
         <v>2830</v>
       </c>
-      <c r="H54" s="7">
+      <c r="H54" s="8">
         <v>189</v>
       </c>
-      <c r="I54" s="7">
+      <c r="I54" s="8">
         <v>37</v>
       </c>
-      <c r="J54" s="7">
+      <c r="J54" s="8">
         <v>131</v>
       </c>
-      <c r="K54" s="8">
+      <c r="K54" s="9">
         <v>3.2000000476837158</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M54" s="1" t="s">
         <v>6</v>
@@ -4198,12 +4212,12 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B55" s="6">
+        <v>71</v>
+      </c>
+      <c r="B55" s="7">
         <v>6295</v>
       </c>
-      <c r="C55" s="7">
+      <c r="C55" s="8">
         <v>23</v>
       </c>
       <c r="D55" s="1" t="s">
@@ -4212,26 +4226,26 @@
       <c r="E55" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F55" s="7">
+      <c r="F55" s="8">
         <v>11</v>
       </c>
-      <c r="G55" s="6">
+      <c r="G55" s="7">
         <v>2070</v>
       </c>
-      <c r="H55" s="7">
+      <c r="H55" s="8">
         <v>174</v>
       </c>
-      <c r="I55" s="7">
+      <c r="I55" s="8">
         <v>36</v>
       </c>
-      <c r="J55" s="7">
+      <c r="J55" s="8">
         <v>97</v>
       </c>
-      <c r="K55" s="8">
+      <c r="K55" s="9">
         <v>3.7000000476837158</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M55" s="1" t="s">
         <v>4</v>
@@ -4242,12 +4256,12 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B56" s="6">
+        <v>72</v>
+      </c>
+      <c r="B56" s="7">
         <v>9735</v>
       </c>
-      <c r="C56" s="7">
+      <c r="C56" s="8">
         <v>25</v>
       </c>
       <c r="D56" s="1" t="s">
@@ -4256,26 +4270,26 @@
       <c r="E56" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F56" s="7">
+      <c r="F56" s="8">
         <v>12</v>
       </c>
-      <c r="G56" s="6">
+      <c r="G56" s="7">
         <v>2650</v>
       </c>
-      <c r="H56" s="7">
+      <c r="H56" s="8">
         <v>177</v>
       </c>
-      <c r="I56" s="7">
+      <c r="I56" s="8">
         <v>34</v>
       </c>
-      <c r="J56" s="7">
+      <c r="J56" s="8">
         <v>121</v>
       </c>
-      <c r="K56" s="8">
+      <c r="K56" s="9">
         <v>3.6400001049041748</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M56" s="1" t="s">
         <v>5</v>
@@ -4286,12 +4300,12 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B57" s="6">
+        <v>73</v>
+      </c>
+      <c r="B57" s="7">
         <v>6229</v>
       </c>
-      <c r="C57" s="7">
+      <c r="C57" s="8">
         <v>23</v>
       </c>
       <c r="D57" s="1" t="s">
@@ -4300,26 +4314,26 @@
       <c r="E57" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F57" s="7">
+      <c r="F57" s="8">
         <v>6</v>
       </c>
-      <c r="G57" s="6">
+      <c r="G57" s="7">
         <v>2370</v>
       </c>
-      <c r="H57" s="7">
+      <c r="H57" s="8">
         <v>170</v>
       </c>
-      <c r="I57" s="7">
+      <c r="I57" s="8">
         <v>35</v>
       </c>
-      <c r="J57" s="7">
+      <c r="J57" s="8">
         <v>119</v>
       </c>
-      <c r="K57" s="8">
+      <c r="K57" s="9">
         <v>3.8900001049041748</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M57" s="1" t="s">
         <v>5</v>
@@ -4330,12 +4344,12 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B58" s="6">
+        <v>74</v>
+      </c>
+      <c r="B58" s="7">
         <v>4589</v>
       </c>
-      <c r="C58" s="7">
+      <c r="C58" s="8">
         <v>35</v>
       </c>
       <c r="D58" s="1" t="s">
@@ -4344,26 +4358,26 @@
       <c r="E58" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F58" s="7">
+      <c r="F58" s="8">
         <v>8</v>
       </c>
-      <c r="G58" s="6">
+      <c r="G58" s="7">
         <v>2020</v>
       </c>
-      <c r="H58" s="7">
+      <c r="H58" s="8">
         <v>165</v>
       </c>
-      <c r="I58" s="7">
+      <c r="I58" s="8">
         <v>32</v>
       </c>
-      <c r="J58" s="7">
+      <c r="J58" s="8">
         <v>85</v>
       </c>
-      <c r="K58" s="8">
+      <c r="K58" s="9">
         <v>3.7000000476837158</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M58" s="1" t="s">
         <v>6</v>
@@ -4374,12 +4388,12 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B59" s="6">
+        <v>75</v>
+      </c>
+      <c r="B59" s="7">
         <v>5079</v>
       </c>
-      <c r="C59" s="7">
+      <c r="C59" s="8">
         <v>24</v>
       </c>
       <c r="D59" s="1" t="s">
@@ -4388,26 +4402,26 @@
       <c r="E59" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F59" s="7">
+      <c r="F59" s="8">
         <v>8</v>
       </c>
-      <c r="G59" s="6">
+      <c r="G59" s="7">
         <v>2280</v>
       </c>
-      <c r="H59" s="7">
+      <c r="H59" s="8">
         <v>170</v>
       </c>
-      <c r="I59" s="7">
+      <c r="I59" s="8">
         <v>34</v>
       </c>
-      <c r="J59" s="7">
+      <c r="J59" s="8">
         <v>119</v>
       </c>
-      <c r="K59" s="8">
+      <c r="K59" s="9">
         <v>3.5399999618530273</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M59" s="1" t="s">
         <v>5</v>
@@ -4418,12 +4432,12 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B60" s="6">
+        <v>76</v>
+      </c>
+      <c r="B60" s="7">
         <v>8129</v>
       </c>
-      <c r="C60" s="7">
+      <c r="C60" s="8">
         <v>21</v>
       </c>
       <c r="D60" s="1" t="s">
@@ -4432,26 +4446,26 @@
       <c r="E60" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F60" s="7">
+      <c r="F60" s="8">
         <v>8</v>
       </c>
-      <c r="G60" s="6">
+      <c r="G60" s="7">
         <v>2750</v>
       </c>
-      <c r="H60" s="7">
+      <c r="H60" s="8">
         <v>184</v>
       </c>
-      <c r="I60" s="7">
+      <c r="I60" s="8">
         <v>38</v>
       </c>
-      <c r="J60" s="7">
+      <c r="J60" s="8">
         <v>146</v>
       </c>
-      <c r="K60" s="8">
+      <c r="K60" s="9">
         <v>3.5499999523162842</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M60" s="1" t="s">
         <v>5</v>
@@ -4462,12 +4476,12 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B61" s="6">
+        <v>77</v>
+      </c>
+      <c r="B61" s="7">
         <v>4296</v>
       </c>
-      <c r="C61" s="7">
+      <c r="C61" s="8">
         <v>21</v>
       </c>
       <c r="D61" s="1" t="s">
@@ -4476,26 +4490,26 @@
       <c r="E61" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F61" s="7">
+      <c r="F61" s="8">
         <v>16</v>
       </c>
-      <c r="G61" s="6">
+      <c r="G61" s="7">
         <v>2130</v>
       </c>
-      <c r="H61" s="7">
+      <c r="H61" s="8">
         <v>161</v>
       </c>
-      <c r="I61" s="7">
+      <c r="I61" s="8">
         <v>36</v>
       </c>
-      <c r="J61" s="7">
-        <v>105</v>
-      </c>
-      <c r="K61" s="8">
+      <c r="J61" s="8">
+        <v>105</v>
+      </c>
+      <c r="K61" s="9">
         <v>3.369999885559082</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M61" s="1" t="s">
         <v>4</v>
@@ -4506,12 +4520,12 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B62" s="6">
+        <v>78</v>
+      </c>
+      <c r="B62" s="7">
         <v>5799</v>
       </c>
-      <c r="C62" s="7">
+      <c r="C62" s="8">
         <v>25</v>
       </c>
       <c r="D62" s="1" t="s">
@@ -4520,26 +4534,26 @@
       <c r="E62" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F62" s="7">
-        <v>10</v>
-      </c>
-      <c r="G62" s="6">
+      <c r="F62" s="8">
+        <v>10</v>
+      </c>
+      <c r="G62" s="7">
         <v>2240</v>
       </c>
-      <c r="H62" s="7">
+      <c r="H62" s="8">
         <v>172</v>
       </c>
-      <c r="I62" s="7">
+      <c r="I62" s="8">
         <v>36</v>
       </c>
-      <c r="J62" s="7">
+      <c r="J62" s="8">
         <v>107</v>
       </c>
-      <c r="K62" s="8">
+      <c r="K62" s="9">
         <v>3.0499999523162842</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M62" s="1" t="s">
         <v>6</v>
@@ -4550,12 +4564,12 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B63" s="6">
+        <v>79</v>
+      </c>
+      <c r="B63" s="7">
         <v>4499</v>
       </c>
-      <c r="C63" s="7">
+      <c r="C63" s="8">
         <v>28</v>
       </c>
       <c r="D63" s="1" t="s">
@@ -4564,26 +4578,26 @@
       <c r="E63" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F63" s="7">
+      <c r="F63" s="8">
         <v>5</v>
       </c>
-      <c r="G63" s="6">
+      <c r="G63" s="7">
         <v>1760</v>
       </c>
-      <c r="H63" s="7">
+      <c r="H63" s="8">
         <v>149</v>
       </c>
-      <c r="I63" s="7">
+      <c r="I63" s="8">
         <v>34</v>
       </c>
-      <c r="J63" s="7">
+      <c r="J63" s="8">
         <v>91</v>
       </c>
-      <c r="K63" s="8">
+      <c r="K63" s="9">
         <v>3.2999999523162842</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M63" s="1" t="s">
         <v>5</v>
@@ -4594,12 +4608,12 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B64" s="6">
+        <v>80</v>
+      </c>
+      <c r="B64" s="7">
         <v>3995</v>
       </c>
-      <c r="C64" s="7">
+      <c r="C64" s="8">
         <v>30</v>
       </c>
       <c r="D64" s="1" t="s">
@@ -4608,26 +4622,26 @@
       <c r="E64" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F64" s="7">
+      <c r="F64" s="8">
         <v>11</v>
       </c>
-      <c r="G64" s="6">
+      <c r="G64" s="7">
         <v>1980</v>
       </c>
-      <c r="H64" s="7">
+      <c r="H64" s="8">
         <v>154</v>
       </c>
-      <c r="I64" s="7">
+      <c r="I64" s="8">
         <v>33</v>
       </c>
-      <c r="J64" s="7">
+      <c r="J64" s="8">
         <v>86</v>
       </c>
-      <c r="K64" s="8">
+      <c r="K64" s="9">
         <v>3.7300000190734863</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M64" s="1" t="s">
         <v>5</v>
@@ -4638,43 +4652,43 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B65" s="6">
+        <v>81</v>
+      </c>
+      <c r="B65" s="7">
         <v>12990</v>
       </c>
-      <c r="C65" s="7">
+      <c r="C65" s="8">
         <v>14</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F65" s="7">
+      <c r="F65" s="8">
         <v>14</v>
       </c>
-      <c r="G65" s="6">
+      <c r="G65" s="7">
         <v>3420</v>
       </c>
-      <c r="H65" s="7">
+      <c r="H65" s="8">
         <v>192</v>
       </c>
-      <c r="I65" s="7">
+      <c r="I65" s="8">
         <v>38</v>
       </c>
-      <c r="J65" s="7">
+      <c r="J65" s="8">
         <v>163</v>
       </c>
-      <c r="K65" s="8">
+      <c r="K65" s="9">
         <v>3.5799999237060547</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="N65" s="1" t="s">
         <v>10</v>
@@ -4682,40 +4696,40 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B66" s="7">
+        <v>3895</v>
+      </c>
+      <c r="C66" s="8">
+        <v>26</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66" s="8">
+        <v>10</v>
+      </c>
+      <c r="G66" s="7">
+        <v>1830</v>
+      </c>
+      <c r="H66" s="8">
+        <v>142</v>
+      </c>
+      <c r="I66" s="8">
+        <v>34</v>
+      </c>
+      <c r="J66" s="8">
         <v>79</v>
       </c>
-      <c r="B66" s="6">
-        <v>3895</v>
-      </c>
-      <c r="C66" s="7">
-        <v>26</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F66" s="7">
-        <v>10</v>
-      </c>
-      <c r="G66" s="6">
-        <v>1830</v>
-      </c>
-      <c r="H66" s="7">
-        <v>142</v>
-      </c>
-      <c r="I66" s="7">
-        <v>34</v>
-      </c>
-      <c r="J66" s="7">
-        <v>79</v>
-      </c>
-      <c r="K66" s="8">
+      <c r="K66" s="9">
         <v>3.7200000286102295</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M66" s="1" t="s">
         <v>4</v>
@@ -4726,12 +4740,12 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B67" s="6">
+        <v>83</v>
+      </c>
+      <c r="B67" s="7">
         <v>3798</v>
       </c>
-      <c r="C67" s="7">
+      <c r="C67" s="8">
         <v>35</v>
       </c>
       <c r="D67" s="1" t="s">
@@ -4740,26 +4754,26 @@
       <c r="E67" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F67" s="7">
+      <c r="F67" s="8">
         <v>11</v>
       </c>
-      <c r="G67" s="6">
+      <c r="G67" s="7">
         <v>2050</v>
       </c>
-      <c r="H67" s="7">
+      <c r="H67" s="8">
         <v>164</v>
       </c>
-      <c r="I67" s="7">
+      <c r="I67" s="8">
         <v>36</v>
       </c>
-      <c r="J67" s="7">
+      <c r="J67" s="8">
         <v>97</v>
       </c>
-      <c r="K67" s="8">
+      <c r="K67" s="9">
         <v>3.809999942779541</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M67" s="1" t="s">
         <v>6</v>
@@ -4770,12 +4784,12 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B68" s="6">
+        <v>84</v>
+      </c>
+      <c r="B68" s="7">
         <v>5899</v>
       </c>
-      <c r="C68" s="7">
+      <c r="C68" s="8">
         <v>18</v>
       </c>
       <c r="D68" s="1" t="s">
@@ -4784,26 +4798,26 @@
       <c r="E68" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F68" s="7">
+      <c r="F68" s="8">
         <v>14</v>
       </c>
-      <c r="G68" s="6">
+      <c r="G68" s="7">
         <v>2410</v>
       </c>
-      <c r="H68" s="7">
+      <c r="H68" s="8">
         <v>174</v>
       </c>
-      <c r="I68" s="7">
+      <c r="I68" s="8">
         <v>36</v>
       </c>
-      <c r="J68" s="7">
+      <c r="J68" s="8">
         <v>134</v>
       </c>
-      <c r="K68" s="8">
+      <c r="K68" s="9">
         <v>3.059999942779541</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M68" s="1" t="s">
         <v>6</v>
@@ -4814,12 +4828,12 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B69" s="6">
+        <v>85</v>
+      </c>
+      <c r="B69" s="7">
         <v>3748</v>
       </c>
-      <c r="C69" s="7">
+      <c r="C69" s="8">
         <v>31</v>
       </c>
       <c r="D69" s="1" t="s">
@@ -4828,26 +4842,26 @@
       <c r="E69" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F69" s="7">
-        <v>9</v>
-      </c>
-      <c r="G69" s="6">
+      <c r="F69" s="8">
+        <v>9</v>
+      </c>
+      <c r="G69" s="7">
         <v>2200</v>
       </c>
-      <c r="H69" s="7">
+      <c r="H69" s="8">
         <v>165</v>
       </c>
-      <c r="I69" s="7">
+      <c r="I69" s="8">
         <v>35</v>
       </c>
-      <c r="J69" s="7">
+      <c r="J69" s="8">
         <v>97</v>
       </c>
-      <c r="K69" s="8">
+      <c r="K69" s="9">
         <v>3.2100000381469727</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M69" s="1" t="s">
         <v>6</v>
@@ -4858,12 +4872,12 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B70" s="6">
+        <v>86</v>
+      </c>
+      <c r="B70" s="7">
         <v>5719</v>
       </c>
-      <c r="C70" s="7">
+      <c r="C70" s="8">
         <v>18</v>
       </c>
       <c r="D70" s="1" t="s">
@@ -4872,26 +4886,26 @@
       <c r="E70" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F70" s="7">
+      <c r="F70" s="8">
         <v>11</v>
       </c>
-      <c r="G70" s="6">
+      <c r="G70" s="7">
         <v>2670</v>
       </c>
-      <c r="H70" s="7">
+      <c r="H70" s="8">
         <v>175</v>
       </c>
-      <c r="I70" s="7">
+      <c r="I70" s="8">
         <v>36</v>
       </c>
-      <c r="J70" s="7">
+      <c r="J70" s="8">
         <v>134</v>
       </c>
-      <c r="K70" s="8">
+      <c r="K70" s="9">
         <v>3.0499999523162842</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M70" s="1" t="s">
         <v>6</v>
@@ -4902,12 +4916,12 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B71" s="6">
+        <v>87</v>
+      </c>
+      <c r="B71" s="7">
         <v>7140</v>
       </c>
-      <c r="C71" s="7">
+      <c r="C71" s="8">
         <v>23</v>
       </c>
       <c r="D71" s="1" t="s">
@@ -4916,26 +4930,26 @@
       <c r="E71" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F71" s="7">
+      <c r="F71" s="8">
         <v>12</v>
       </c>
-      <c r="G71" s="6">
+      <c r="G71" s="7">
         <v>2160</v>
       </c>
-      <c r="H71" s="7">
+      <c r="H71" s="8">
         <v>172</v>
       </c>
-      <c r="I71" s="7">
+      <c r="I71" s="8">
         <v>36</v>
       </c>
-      <c r="J71" s="7">
+      <c r="J71" s="8">
         <v>97</v>
       </c>
-      <c r="K71" s="8">
+      <c r="K71" s="9">
         <v>3.7400000095367432</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M71" s="1" t="s">
         <v>5</v>
@@ -4946,12 +4960,12 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B72" s="6">
+        <v>88</v>
+      </c>
+      <c r="B72" s="7">
         <v>5397</v>
       </c>
-      <c r="C72" s="7">
+      <c r="C72" s="8">
         <v>41</v>
       </c>
       <c r="D72" s="1" t="s">
@@ -4960,26 +4974,26 @@
       <c r="E72" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F72" s="7">
+      <c r="F72" s="8">
         <v>15</v>
       </c>
-      <c r="G72" s="6">
+      <c r="G72" s="7">
         <v>2040</v>
       </c>
-      <c r="H72" s="7">
+      <c r="H72" s="8">
         <v>155</v>
       </c>
-      <c r="I72" s="7">
+      <c r="I72" s="8">
         <v>35</v>
       </c>
-      <c r="J72" s="7">
+      <c r="J72" s="8">
         <v>90</v>
       </c>
-      <c r="K72" s="8">
+      <c r="K72" s="9">
         <v>3.7799999713897705</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M72" s="1" t="s">
         <v>6</v>
@@ -4990,12 +5004,12 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B73" s="6">
+        <v>89</v>
+      </c>
+      <c r="B73" s="7">
         <v>4697</v>
       </c>
-      <c r="C73" s="7">
+      <c r="C73" s="8">
         <v>25</v>
       </c>
       <c r="D73" s="1" t="s">
@@ -5004,26 +5018,26 @@
       <c r="E73" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F73" s="7">
+      <c r="F73" s="8">
         <v>15</v>
       </c>
-      <c r="G73" s="6">
+      <c r="G73" s="7">
         <v>1930</v>
       </c>
-      <c r="H73" s="7">
+      <c r="H73" s="8">
         <v>155</v>
       </c>
-      <c r="I73" s="7">
+      <c r="I73" s="8">
         <v>35</v>
       </c>
-      <c r="J73" s="7">
+      <c r="J73" s="8">
         <v>89</v>
       </c>
-      <c r="K73" s="8">
+      <c r="K73" s="9">
         <v>3.7799999713897705</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M73" s="1" t="s">
         <v>5</v>
@@ -5034,12 +5048,12 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B74" s="6">
+        <v>90</v>
+      </c>
+      <c r="B74" s="7">
         <v>6850</v>
       </c>
-      <c r="C74" s="7">
+      <c r="C74" s="8">
         <v>25</v>
       </c>
       <c r="D74" s="1" t="s">
@@ -5048,26 +5062,26 @@
       <c r="E74" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F74" s="7">
+      <c r="F74" s="8">
         <v>16</v>
       </c>
-      <c r="G74" s="6">
+      <c r="G74" s="7">
         <v>1990</v>
       </c>
-      <c r="H74" s="7">
+      <c r="H74" s="8">
         <v>156</v>
       </c>
-      <c r="I74" s="7">
+      <c r="I74" s="8">
         <v>36</v>
       </c>
-      <c r="J74" s="7">
+      <c r="J74" s="8">
         <v>97</v>
       </c>
-      <c r="K74" s="8">
+      <c r="K74" s="9">
         <v>3.7799999713897705</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M74" s="1" t="s">
         <v>5</v>
@@ -5078,12 +5092,12 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B75" s="6">
+        <v>91</v>
+      </c>
+      <c r="B75" s="7">
         <v>11995</v>
       </c>
-      <c r="C75" s="7">
+      <c r="C75" s="8">
         <v>17</v>
       </c>
       <c r="D75" s="1" t="s">
@@ -5092,26 +5106,26 @@
       <c r="E75" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F75" s="7">
+      <c r="F75" s="8">
         <v>14</v>
       </c>
-      <c r="G75" s="6">
+      <c r="G75" s="7">
         <v>3170</v>
       </c>
-      <c r="H75" s="7">
+      <c r="H75" s="8">
         <v>193</v>
       </c>
-      <c r="I75" s="7">
+      <c r="I75" s="8">
         <v>37</v>
       </c>
-      <c r="J75" s="7">
+      <c r="J75" s="8">
         <v>163</v>
       </c>
-      <c r="K75" s="8">
+      <c r="K75" s="9">
         <v>2.9800000190734863</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M75" s="1" t="s">
         <v>6</v>
@@ -5178,56 +5192,56 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="6">
+        <v>18</v>
+      </c>
+      <c r="B2" s="7">
         <v>4099</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="8">
         <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -5236,26 +5250,26 @@
       <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="8">
         <v>11</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="7">
         <v>2930</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="8">
         <v>186</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="8">
         <v>40</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="8">
         <v>121</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="9">
         <v>3.5799999237060547</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>4</v>
@@ -5266,12 +5280,12 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="6">
+        <v>19</v>
+      </c>
+      <c r="B3" s="7">
         <v>4749</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="8">
         <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -5280,26 +5294,26 @@
       <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="8">
         <v>11</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="7">
         <v>3350</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="8">
         <v>173</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="8">
         <v>40</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="8">
         <v>258</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="9">
         <v>2.5299999713897705</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>4</v>
@@ -5310,43 +5324,43 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="6">
+        <v>20</v>
+      </c>
+      <c r="B4" s="7">
         <v>3799</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="8">
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="8">
         <v>12</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="7">
         <v>2640</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="8">
         <v>168</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="8">
         <v>35</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="8">
         <v>121</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="9">
         <v>3.0799999237060547</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>10</v>
@@ -5354,12 +5368,12 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="6">
+        <v>21</v>
+      </c>
+      <c r="B5" s="7">
         <v>4816</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="8">
         <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -5368,26 +5382,26 @@
       <c r="E5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="8">
         <v>16</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="7">
         <v>3250</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="8">
         <v>196</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="8">
         <v>40</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="8">
         <v>196</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="9">
         <v>2.9300000667572021</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>4</v>
@@ -5398,12 +5412,12 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="6">
+        <v>22</v>
+      </c>
+      <c r="B6" s="7">
         <v>7827</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="8">
         <v>15</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -5412,26 +5426,26 @@
       <c r="E6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="8">
         <v>20</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="7">
         <v>4080</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="8">
         <v>222</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="8">
         <v>43</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="8">
         <v>350</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="9">
         <v>2.4100000858306885</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>5</v>
@@ -5442,12 +5456,12 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="6">
+        <v>23</v>
+      </c>
+      <c r="B7" s="7">
         <v>5788</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="8">
         <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -5456,26 +5470,26 @@
       <c r="E7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="8">
         <v>21</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="7">
         <v>3670</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="8">
         <v>218</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="8">
         <v>43</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="8">
         <v>231</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="9">
         <v>2.7300000190734863</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>4</v>
@@ -5486,43 +5500,43 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="6">
+        <v>24</v>
+      </c>
+      <c r="B8" s="7">
         <v>4453</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="8">
         <v>26</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="7">
-        <v>10</v>
-      </c>
-      <c r="G8" s="6">
+      <c r="F8" s="8">
+        <v>10</v>
+      </c>
+      <c r="G8" s="7">
         <v>2230</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="8">
         <v>170</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="8">
         <v>34</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="8">
         <v>304</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="9">
         <v>2.869999885559082</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>10</v>
@@ -5530,12 +5544,12 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="6">
+        <v>25</v>
+      </c>
+      <c r="B9" s="7">
         <v>5189</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="8">
         <v>20</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -5544,26 +5558,26 @@
       <c r="E9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="8">
         <v>16</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="7">
         <v>3280</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="8">
         <v>200</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="8">
         <v>42</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="8">
         <v>196</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="9">
         <v>2.9300000667572021</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>4</v>
@@ -5574,12 +5588,12 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="6">
+        <v>26</v>
+      </c>
+      <c r="B10" s="7">
         <v>10372</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="8">
         <v>16</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -5588,26 +5602,26 @@
       <c r="E10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="8">
         <v>17</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="7">
         <v>3880</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="8">
         <v>207</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="8">
         <v>43</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="8">
         <v>231</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="9">
         <v>2.9300000667572021</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>4</v>
@@ -5618,12 +5632,12 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="6">
+        <v>27</v>
+      </c>
+      <c r="B11" s="7">
         <v>4082</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="8">
         <v>19</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -5632,26 +5646,26 @@
       <c r="E11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="8">
         <v>13</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="7">
         <v>3400</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="8">
         <v>200</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="8">
         <v>42</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="8">
         <v>231</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="9">
         <v>3.0799999237060547</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>4</v>
@@ -5662,12 +5676,12 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="6">
+        <v>28</v>
+      </c>
+      <c r="B12" s="7">
         <v>11385</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="8">
         <v>14</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -5676,26 +5690,26 @@
       <c r="E12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="8">
         <v>20</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="7">
         <v>4330</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="8">
         <v>221</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="8">
         <v>44</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="8">
         <v>425</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="9">
         <v>2.2799999713897705</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>4</v>
@@ -5706,12 +5720,12 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="6">
+        <v>29</v>
+      </c>
+      <c r="B13" s="7">
         <v>14500</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="8">
         <v>14</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -5720,26 +5734,26 @@
       <c r="E13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="8">
         <v>16</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="7">
         <v>3900</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="8">
         <v>204</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="8">
         <v>43</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="8">
         <v>350</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K13" s="9">
         <v>2.190000057220459</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>3</v>
@@ -5750,12 +5764,12 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="6">
+        <v>30</v>
+      </c>
+      <c r="B14" s="7">
         <v>15906</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="8">
         <v>21</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -5764,26 +5778,26 @@
       <c r="E14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="8">
         <v>13</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="7">
         <v>4290</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="8">
         <v>204</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="8">
         <v>45</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="8">
         <v>350</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K14" s="9">
         <v>2.2400000095367432</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M14" s="2" t="s">
         <v>4</v>
@@ -5794,12 +5808,12 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="6">
+        <v>31</v>
+      </c>
+      <c r="B15" s="7">
         <v>3299</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="8">
         <v>29</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -5808,26 +5822,26 @@
       <c r="E15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="7">
-        <v>9</v>
-      </c>
-      <c r="G15" s="6">
+      <c r="F15" s="8">
+        <v>9</v>
+      </c>
+      <c r="G15" s="7">
         <v>2110</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="8">
         <v>163</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="8">
         <v>34</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="8">
         <v>231</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K15" s="9">
         <v>2.9300000667572021</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>4</v>
@@ -5838,12 +5852,12 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="6">
+        <v>32</v>
+      </c>
+      <c r="B16" s="7">
         <v>5705</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="8">
         <v>16</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -5852,26 +5866,26 @@
       <c r="E16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="8">
         <v>20</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="7">
         <v>3690</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="8">
         <v>212</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="8">
         <v>43</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="8">
         <v>250</v>
       </c>
-      <c r="K16" s="8">
+      <c r="K16" s="9">
         <v>2.559999942779541</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M16" s="2" t="s">
         <v>5</v>
@@ -5882,12 +5896,12 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="6">
+        <v>33</v>
+      </c>
+      <c r="B17" s="7">
         <v>4504</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="8">
         <v>22</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -5896,26 +5910,26 @@
       <c r="E17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="8">
         <v>17</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="7">
         <v>3180</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="8">
         <v>193</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="8">
         <v>31</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="8">
         <v>200</v>
       </c>
-      <c r="K17" s="8">
+      <c r="K17" s="9">
         <v>2.7300000190734863</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M17" s="2" t="s">
         <v>4</v>
@@ -5926,12 +5940,12 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="6">
+        <v>34</v>
+      </c>
+      <c r="B18" s="7">
         <v>5104</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="8">
         <v>22</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -5940,26 +5954,26 @@
       <c r="E18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="8">
         <v>16</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="7">
         <v>3220</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="8">
         <v>200</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="8">
         <v>41</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="8">
         <v>200</v>
       </c>
-      <c r="K18" s="8">
+      <c r="K18" s="9">
         <v>2.7300000190734863</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M18" s="2" t="s">
         <v>3</v>
@@ -5970,12 +5984,12 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="6">
+        <v>35</v>
+      </c>
+      <c r="B19" s="7">
         <v>3667</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="8">
         <v>24</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -5984,26 +5998,26 @@
       <c r="E19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="8">
         <v>7</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="7">
         <v>2750</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="8">
         <v>179</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="8">
         <v>40</v>
       </c>
-      <c r="J19" s="7">
+      <c r="J19" s="8">
         <v>151</v>
       </c>
-      <c r="K19" s="8">
+      <c r="K19" s="9">
         <v>2.7300000190734863</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M19" s="2" t="s">
         <v>3</v>
@@ -6014,12 +6028,12 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="6">
+        <v>36</v>
+      </c>
+      <c r="B20" s="7">
         <v>3955</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="8">
         <v>19</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -6028,26 +6042,26 @@
       <c r="E20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="8">
         <v>13</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="7">
         <v>3430</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="8">
         <v>197</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="8">
         <v>43</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J20" s="8">
         <v>250</v>
       </c>
-      <c r="K20" s="8">
+      <c r="K20" s="9">
         <v>2.559999942779541</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M20" s="2" t="s">
         <v>4</v>
@@ -6058,12 +6072,12 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="6">
+        <v>37</v>
+      </c>
+      <c r="B21" s="7">
         <v>3984</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="8">
         <v>30</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -6072,26 +6086,26 @@
       <c r="E21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="8">
         <v>8</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="7">
         <v>2120</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="8">
         <v>163</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="8">
         <v>35</v>
       </c>
-      <c r="J21" s="7">
+      <c r="J21" s="8">
         <v>98</v>
       </c>
-      <c r="K21" s="8">
+      <c r="K21" s="9">
         <v>3.5399999618530273</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M21" s="2" t="s">
         <v>6</v>
@@ -6102,12 +6116,12 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="6">
+        <v>38</v>
+      </c>
+      <c r="B22" s="7">
         <v>4010</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="8">
         <v>18</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -6116,26 +6130,26 @@
       <c r="E22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="8">
         <v>17</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="7">
         <v>3600</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="8">
         <v>206</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="8">
         <v>46</v>
       </c>
-      <c r="J22" s="7">
+      <c r="J22" s="8">
         <v>318</v>
       </c>
-      <c r="K22" s="8">
+      <c r="K22" s="9">
         <v>2.4700000286102295</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M22" s="2" t="s">
         <v>3</v>
@@ -6146,12 +6160,12 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="6">
+        <v>39</v>
+      </c>
+      <c r="B23" s="7">
         <v>5886</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="8">
         <v>16</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -6160,26 +6174,26 @@
       <c r="E23" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="8">
         <v>17</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="7">
         <v>3600</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="8">
         <v>206</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="8">
         <v>46</v>
       </c>
-      <c r="J23" s="7">
+      <c r="J23" s="8">
         <v>318</v>
       </c>
-      <c r="K23" s="8">
+      <c r="K23" s="9">
         <v>2.4700000286102295</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M23" s="2" t="s">
         <v>3</v>
@@ -6190,12 +6204,12 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="6">
+        <v>40</v>
+      </c>
+      <c r="B24" s="7">
         <v>6342</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="8">
         <v>17</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -6204,26 +6218,26 @@
       <c r="E24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="8">
         <v>21</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="7">
         <v>3740</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H24" s="8">
         <v>220</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="8">
         <v>46</v>
       </c>
-      <c r="J24" s="7">
+      <c r="J24" s="8">
         <v>225</v>
       </c>
-      <c r="K24" s="8">
+      <c r="K24" s="9">
         <v>2.940000057220459</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M24" s="2" t="s">
         <v>3</v>
@@ -6234,12 +6248,12 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="6">
+        <v>41</v>
+      </c>
+      <c r="B25" s="7">
         <v>4389</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="8">
         <v>28</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -6248,26 +6262,26 @@
       <c r="E25" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F25" s="7">
-        <v>9</v>
-      </c>
-      <c r="G25" s="6">
+      <c r="F25" s="8">
+        <v>9</v>
+      </c>
+      <c r="G25" s="7">
         <v>1800</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H25" s="8">
         <v>147</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I25" s="8">
         <v>33</v>
       </c>
-      <c r="J25" s="7">
+      <c r="J25" s="8">
         <v>98</v>
       </c>
-      <c r="K25" s="8">
+      <c r="K25" s="9">
         <v>3.1500000953674316</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M25" s="2" t="s">
         <v>5</v>
@@ -6278,12 +6292,12 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" s="6">
+        <v>42</v>
+      </c>
+      <c r="B26" s="7">
         <v>4187</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="8">
         <v>21</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -6292,26 +6306,26 @@
       <c r="E26" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="7">
-        <v>10</v>
-      </c>
-      <c r="G26" s="6">
+      <c r="F26" s="8">
+        <v>10</v>
+      </c>
+      <c r="G26" s="7">
         <v>2650</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="8">
         <v>179</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I26" s="8">
         <v>43</v>
       </c>
-      <c r="J26" s="7">
+      <c r="J26" s="8">
         <v>140</v>
       </c>
-      <c r="K26" s="8">
+      <c r="K26" s="9">
         <v>3.0799999237060547</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M26" s="2" t="s">
         <v>4</v>
@@ -6322,12 +6336,12 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" s="6">
+        <v>43</v>
+      </c>
+      <c r="B27" s="7">
         <v>11497</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="8">
         <v>12</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -6336,26 +6350,26 @@
       <c r="E27" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="8">
         <v>22</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="7">
         <v>4840</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="8">
         <v>233</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I27" s="8">
         <v>51</v>
       </c>
-      <c r="J27" s="7">
+      <c r="J27" s="8">
         <v>400</v>
       </c>
-      <c r="K27" s="8">
+      <c r="K27" s="9">
         <v>2.4700000286102295</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M27" s="2" t="s">
         <v>4</v>
@@ -6366,12 +6380,12 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B28" s="6">
+        <v>44</v>
+      </c>
+      <c r="B28" s="7">
         <v>13594</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="8">
         <v>12</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -6380,26 +6394,26 @@
       <c r="E28" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="8">
         <v>18</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28" s="7">
         <v>4720</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H28" s="8">
         <v>230</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I28" s="8">
         <v>48</v>
       </c>
-      <c r="J28" s="7">
+      <c r="J28" s="8">
         <v>400</v>
       </c>
-      <c r="K28" s="8">
+      <c r="K28" s="9">
         <v>2.4700000286102295</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M28" s="2" t="s">
         <v>4</v>
@@ -6410,12 +6424,12 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" s="6">
+        <v>45</v>
+      </c>
+      <c r="B29" s="7">
         <v>13466</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="8">
         <v>14</v>
       </c>
       <c r="D29" s="2" t="s">
@@ -6424,26 +6438,26 @@
       <c r="E29" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F29" s="8">
         <v>15</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29" s="7">
         <v>3830</v>
       </c>
-      <c r="H29" s="7">
+      <c r="H29" s="8">
         <v>201</v>
       </c>
-      <c r="I29" s="7">
+      <c r="I29" s="8">
         <v>41</v>
       </c>
-      <c r="J29" s="7">
+      <c r="J29" s="8">
         <v>302</v>
       </c>
-      <c r="K29" s="8">
+      <c r="K29" s="9">
         <v>2.4700000286102295</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M29" s="2" t="s">
         <v>4</v>
@@ -6454,12 +6468,12 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B30" s="6">
+        <v>46</v>
+      </c>
+      <c r="B30" s="7">
         <v>3829</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="8">
         <v>22</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -6468,26 +6482,26 @@
       <c r="E30" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F30" s="7">
-        <v>9</v>
-      </c>
-      <c r="G30" s="6">
+      <c r="F30" s="8">
+        <v>9</v>
+      </c>
+      <c r="G30" s="7">
         <v>2580</v>
       </c>
-      <c r="H30" s="7">
+      <c r="H30" s="8">
         <v>169</v>
       </c>
-      <c r="I30" s="7">
+      <c r="I30" s="8">
         <v>39</v>
       </c>
-      <c r="J30" s="7">
+      <c r="J30" s="8">
         <v>140</v>
       </c>
-      <c r="K30" s="8">
+      <c r="K30" s="9">
         <v>2.7300000190734863</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M30" s="2" t="s">
         <v>5</v>
@@ -6498,12 +6512,12 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B31" s="6">
+        <v>47</v>
+      </c>
+      <c r="B31" s="7">
         <v>5379</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="8">
         <v>14</v>
       </c>
       <c r="D31" s="2" t="s">
@@ -6512,26 +6526,26 @@
       <c r="E31" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="8">
         <v>16</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G31" s="7">
         <v>4060</v>
       </c>
-      <c r="H31" s="7">
+      <c r="H31" s="8">
         <v>221</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I31" s="8">
         <v>48</v>
       </c>
-      <c r="J31" s="7">
+      <c r="J31" s="8">
         <v>302</v>
       </c>
-      <c r="K31" s="8">
+      <c r="K31" s="9">
         <v>2.75</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M31" s="2" t="s">
         <v>5</v>
@@ -6542,12 +6556,12 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B32" s="6">
+        <v>48</v>
+      </c>
+      <c r="B32" s="7">
         <v>6165</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="8">
         <v>15</v>
       </c>
       <c r="D32" s="2" t="s">
@@ -6556,26 +6570,26 @@
       <c r="E32" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F32" s="8">
         <v>23</v>
       </c>
-      <c r="G32" s="6">
+      <c r="G32" s="7">
         <v>3720</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H32" s="8">
         <v>212</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I32" s="8">
         <v>44</v>
       </c>
-      <c r="J32" s="7">
+      <c r="J32" s="8">
         <v>302</v>
       </c>
-      <c r="K32" s="8">
+      <c r="K32" s="9">
         <v>2.2599999904632568</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M32" s="2" t="s">
         <v>4</v>
@@ -6586,12 +6600,12 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B33" s="6">
+        <v>49</v>
+      </c>
+      <c r="B33" s="7">
         <v>4516</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="8">
         <v>18</v>
       </c>
       <c r="D33" s="2" t="s">
@@ -6600,26 +6614,26 @@
       <c r="E33" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F33" s="8">
         <v>15</v>
       </c>
-      <c r="G33" s="6">
+      <c r="G33" s="7">
         <v>3370</v>
       </c>
-      <c r="H33" s="7">
+      <c r="H33" s="8">
         <v>198</v>
       </c>
-      <c r="I33" s="7">
+      <c r="I33" s="8">
         <v>41</v>
       </c>
-      <c r="J33" s="7">
+      <c r="J33" s="8">
         <v>250</v>
       </c>
-      <c r="K33" s="8">
+      <c r="K33" s="9">
         <v>2.4300000667572021</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M33" s="2" t="s">
         <v>4</v>
@@ -6630,12 +6644,12 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B34" s="6">
+        <v>50</v>
+      </c>
+      <c r="B34" s="7">
         <v>6303</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="8">
         <v>14</v>
       </c>
       <c r="D34" s="2" t="s">
@@ -6644,26 +6658,26 @@
       <c r="E34" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F34" s="8">
         <v>16</v>
       </c>
-      <c r="G34" s="6">
+      <c r="G34" s="7">
         <v>4130</v>
       </c>
-      <c r="H34" s="7">
+      <c r="H34" s="8">
         <v>217</v>
       </c>
-      <c r="I34" s="7">
+      <c r="I34" s="8">
         <v>45</v>
       </c>
-      <c r="J34" s="7">
+      <c r="J34" s="8">
         <v>302</v>
       </c>
-      <c r="K34" s="8">
+      <c r="K34" s="9">
         <v>2.75</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M34" s="2" t="s">
         <v>5</v>
@@ -6674,12 +6688,12 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B35" s="6">
+        <v>51</v>
+      </c>
+      <c r="B35" s="7">
         <v>3291</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="8">
         <v>20</v>
       </c>
       <c r="D35" s="2" t="s">
@@ -6688,26 +6702,26 @@
       <c r="E35" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F35" s="8">
         <v>17</v>
       </c>
-      <c r="G35" s="6">
+      <c r="G35" s="7">
         <v>2830</v>
       </c>
-      <c r="H35" s="7">
+      <c r="H35" s="8">
         <v>195</v>
       </c>
-      <c r="I35" s="7">
+      <c r="I35" s="8">
         <v>43</v>
       </c>
-      <c r="J35" s="7">
+      <c r="J35" s="8">
         <v>140</v>
       </c>
-      <c r="K35" s="8">
+      <c r="K35" s="9">
         <v>3.0799999237060547</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M35" s="2" t="s">
         <v>4</v>
@@ -6718,12 +6732,12 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B36" s="6">
+        <v>52</v>
+      </c>
+      <c r="B36" s="7">
         <v>8814</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="8">
         <v>21</v>
       </c>
       <c r="D36" s="2" t="s">
@@ -6732,26 +6746,26 @@
       <c r="E36" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F36" s="7">
+      <c r="F36" s="8">
         <v>20</v>
       </c>
-      <c r="G36" s="6">
+      <c r="G36" s="7">
         <v>4060</v>
       </c>
-      <c r="H36" s="7">
+      <c r="H36" s="8">
         <v>220</v>
       </c>
-      <c r="I36" s="7">
+      <c r="I36" s="8">
         <v>43</v>
       </c>
-      <c r="J36" s="7">
+      <c r="J36" s="8">
         <v>350</v>
       </c>
-      <c r="K36" s="8">
+      <c r="K36" s="9">
         <v>2.4100000858306885</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M36" s="2" t="s">
         <v>5</v>
@@ -6762,12 +6776,12 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B37" s="6">
+        <v>53</v>
+      </c>
+      <c r="B37" s="7">
         <v>5172</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="8">
         <v>19</v>
       </c>
       <c r="D37" s="2" t="s">
@@ -6776,26 +6790,26 @@
       <c r="E37" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F37" s="8">
         <v>16</v>
       </c>
-      <c r="G37" s="6">
+      <c r="G37" s="7">
         <v>3310</v>
       </c>
-      <c r="H37" s="7">
+      <c r="H37" s="8">
         <v>198</v>
       </c>
-      <c r="I37" s="7">
+      <c r="I37" s="8">
         <v>42</v>
       </c>
-      <c r="J37" s="7">
+      <c r="J37" s="8">
         <v>231</v>
       </c>
-      <c r="K37" s="8">
+      <c r="K37" s="9">
         <v>2.9300000667572021</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M37" s="2" t="s">
         <v>4</v>
@@ -6806,12 +6820,12 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B38" s="6">
+        <v>54</v>
+      </c>
+      <c r="B38" s="7">
         <v>4733</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C38" s="8">
         <v>19</v>
       </c>
       <c r="D38" s="2" t="s">
@@ -6820,26 +6834,26 @@
       <c r="E38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F38" s="8">
         <v>16</v>
       </c>
-      <c r="G38" s="6">
+      <c r="G38" s="7">
         <v>3300</v>
       </c>
-      <c r="H38" s="7">
+      <c r="H38" s="8">
         <v>198</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I38" s="8">
         <v>42</v>
       </c>
-      <c r="J38" s="7">
+      <c r="J38" s="8">
         <v>231</v>
       </c>
-      <c r="K38" s="8">
+      <c r="K38" s="9">
         <v>2.9300000667572021</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>4</v>
@@ -6850,12 +6864,12 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B39" s="6">
+        <v>55</v>
+      </c>
+      <c r="B39" s="7">
         <v>4890</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C39" s="8">
         <v>18</v>
       </c>
       <c r="D39" s="2" t="s">
@@ -6864,26 +6878,26 @@
       <c r="E39" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F39" s="7">
+      <c r="F39" s="8">
         <v>20</v>
       </c>
-      <c r="G39" s="6">
+      <c r="G39" s="7">
         <v>3690</v>
       </c>
-      <c r="H39" s="7">
+      <c r="H39" s="8">
         <v>218</v>
       </c>
-      <c r="I39" s="7">
+      <c r="I39" s="8">
         <v>42</v>
       </c>
-      <c r="J39" s="7">
+      <c r="J39" s="8">
         <v>231</v>
       </c>
-      <c r="K39" s="8">
+      <c r="K39" s="9">
         <v>2.7300000190734863</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M39" s="2" t="s">
         <v>5</v>
@@ -6894,12 +6908,12 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B40" s="6">
+        <v>56</v>
+      </c>
+      <c r="B40" s="7">
         <v>4181</v>
       </c>
-      <c r="C40" s="7">
+      <c r="C40" s="8">
         <v>19</v>
       </c>
       <c r="D40" s="2" t="s">
@@ -6908,26 +6922,26 @@
       <c r="E40" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F40" s="7">
+      <c r="F40" s="8">
         <v>14</v>
       </c>
-      <c r="G40" s="6">
+      <c r="G40" s="7">
         <v>3370</v>
       </c>
-      <c r="H40" s="7">
+      <c r="H40" s="8">
         <v>200</v>
       </c>
-      <c r="I40" s="7">
+      <c r="I40" s="8">
         <v>43</v>
       </c>
-      <c r="J40" s="7">
+      <c r="J40" s="8">
         <v>231</v>
       </c>
-      <c r="K40" s="8">
+      <c r="K40" s="9">
         <v>3.0799999237060547</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M40" s="2" t="s">
         <v>4</v>
@@ -6938,12 +6952,12 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B41" s="6">
+        <v>57</v>
+      </c>
+      <c r="B41" s="7">
         <v>4195</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41" s="8">
         <v>24</v>
       </c>
       <c r="D41" s="2" t="s">
@@ -6952,26 +6966,26 @@
       <c r="E41" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F41" s="7">
-        <v>10</v>
-      </c>
-      <c r="G41" s="6">
+      <c r="F41" s="8">
+        <v>10</v>
+      </c>
+      <c r="G41" s="7">
         <v>2730</v>
       </c>
-      <c r="H41" s="7">
+      <c r="H41" s="8">
         <v>180</v>
       </c>
-      <c r="I41" s="7">
+      <c r="I41" s="8">
         <v>40</v>
       </c>
-      <c r="J41" s="7">
+      <c r="J41" s="8">
         <v>151</v>
       </c>
-      <c r="K41" s="8">
+      <c r="K41" s="9">
         <v>2.7300000190734863</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M41" s="2" t="s">
         <v>2</v>
@@ -6982,12 +6996,12 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B42" s="6">
+        <v>58</v>
+      </c>
+      <c r="B42" s="7">
         <v>10371</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C42" s="8">
         <v>16</v>
       </c>
       <c r="D42" s="2" t="s">
@@ -6996,26 +7010,26 @@
       <c r="E42" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F42" s="7">
+      <c r="F42" s="8">
         <v>17</v>
       </c>
-      <c r="G42" s="6">
+      <c r="G42" s="7">
         <v>4030</v>
       </c>
-      <c r="H42" s="7">
+      <c r="H42" s="8">
         <v>206</v>
       </c>
-      <c r="I42" s="7">
+      <c r="I42" s="8">
         <v>43</v>
       </c>
-      <c r="J42" s="7">
+      <c r="J42" s="8">
         <v>350</v>
       </c>
-      <c r="K42" s="8">
+      <c r="K42" s="9">
         <v>2.4100000858306885</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M42" s="2" t="s">
         <v>4</v>
@@ -7026,12 +7040,12 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B43" s="6">
+        <v>59</v>
+      </c>
+      <c r="B43" s="7">
         <v>4647</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C43" s="8">
         <v>28</v>
       </c>
       <c r="D43" s="2" t="s">
@@ -7040,26 +7054,26 @@
       <c r="E43" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F43" s="7">
+      <c r="F43" s="8">
         <v>11</v>
       </c>
-      <c r="G43" s="6">
+      <c r="G43" s="7">
         <v>3260</v>
       </c>
-      <c r="H43" s="7">
+      <c r="H43" s="8">
         <v>170</v>
       </c>
-      <c r="I43" s="7">
+      <c r="I43" s="8">
         <v>37</v>
       </c>
-      <c r="J43" s="7">
+      <c r="J43" s="8">
         <v>156</v>
       </c>
-      <c r="K43" s="8">
+      <c r="K43" s="9">
         <v>3.0499999523162842</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M43" s="2" t="s">
         <v>4</v>
@@ -7070,12 +7084,12 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B44" s="6">
+        <v>60</v>
+      </c>
+      <c r="B44" s="7">
         <v>4425</v>
       </c>
-      <c r="C44" s="7">
+      <c r="C44" s="8">
         <v>34</v>
       </c>
       <c r="D44" s="2" t="s">
@@ -7084,26 +7098,26 @@
       <c r="E44" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F44" s="7">
+      <c r="F44" s="8">
         <v>11</v>
       </c>
-      <c r="G44" s="6">
+      <c r="G44" s="7">
         <v>1800</v>
       </c>
-      <c r="H44" s="7">
+      <c r="H44" s="8">
         <v>157</v>
       </c>
-      <c r="I44" s="7">
+      <c r="I44" s="8">
         <v>37</v>
       </c>
-      <c r="J44" s="7">
+      <c r="J44" s="8">
         <v>86</v>
       </c>
-      <c r="K44" s="8">
+      <c r="K44" s="9">
         <v>2.9700000286102295</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M44" s="2" t="s">
         <v>6</v>
@@ -7114,12 +7128,12 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B45" s="6">
+        <v>61</v>
+      </c>
+      <c r="B45" s="7">
         <v>4482</v>
       </c>
-      <c r="C45" s="7">
+      <c r="C45" s="8">
         <v>25</v>
       </c>
       <c r="D45" s="2" t="s">
@@ -7128,26 +7142,26 @@
       <c r="E45" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F45" s="7">
+      <c r="F45" s="8">
         <v>17</v>
       </c>
-      <c r="G45" s="6">
+      <c r="G45" s="7">
         <v>2200</v>
       </c>
-      <c r="H45" s="7">
+      <c r="H45" s="8">
         <v>165</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I45" s="8">
         <v>36</v>
       </c>
-      <c r="J45" s="7">
-        <v>105</v>
-      </c>
-      <c r="K45" s="8">
+      <c r="J45" s="8">
+        <v>105</v>
+      </c>
+      <c r="K45" s="9">
         <v>3.369999885559082</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M45" s="2" t="s">
         <v>4</v>
@@ -7158,43 +7172,43 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B46" s="6">
+        <v>62</v>
+      </c>
+      <c r="B46" s="7">
         <v>6486</v>
       </c>
-      <c r="C46" s="7">
+      <c r="C46" s="8">
         <v>26</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F46" s="7">
+      <c r="F46" s="8">
         <v>8</v>
       </c>
-      <c r="G46" s="6">
+      <c r="G46" s="7">
         <v>2520</v>
       </c>
-      <c r="H46" s="7">
+      <c r="H46" s="8">
         <v>182</v>
       </c>
-      <c r="I46" s="7">
+      <c r="I46" s="8">
         <v>38</v>
       </c>
-      <c r="J46" s="7">
+      <c r="J46" s="8">
         <v>119</v>
       </c>
-      <c r="K46" s="8">
+      <c r="K46" s="9">
         <v>3.5399999618530273</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="N46" s="2" t="s">
         <v>7</v>
@@ -7202,56 +7216,56 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B47" s="6">
+        <v>63</v>
+      </c>
+      <c r="B47" s="7">
         <v>4060</v>
       </c>
-      <c r="C47" s="7">
+      <c r="C47" s="8">
         <v>18</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F47" s="7">
+        <v>97</v>
+      </c>
+      <c r="F47" s="8">
         <v>16</v>
       </c>
-      <c r="G47" s="6">
+      <c r="G47" s="7">
         <v>3330</v>
       </c>
-      <c r="H47" s="7">
+      <c r="H47" s="8">
         <v>201</v>
       </c>
-      <c r="I47" s="7">
+      <c r="I47" s="8">
         <v>44</v>
       </c>
-      <c r="J47" s="7">
+      <c r="J47" s="8">
         <v>225</v>
       </c>
-      <c r="K47" s="8">
+      <c r="K47" s="9">
         <v>3.2300000190734863</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M47" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B48" s="6">
+        <v>64</v>
+      </c>
+      <c r="B48" s="7">
         <v>5798</v>
       </c>
-      <c r="C48" s="7">
+      <c r="C48" s="8">
         <v>18</v>
       </c>
       <c r="D48" s="2" t="s">
@@ -7260,26 +7274,26 @@
       <c r="E48" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F48" s="7">
+      <c r="F48" s="8">
         <v>20</v>
       </c>
-      <c r="G48" s="6">
+      <c r="G48" s="7">
         <v>3700</v>
       </c>
-      <c r="H48" s="7">
+      <c r="H48" s="8">
         <v>214</v>
       </c>
-      <c r="I48" s="7">
+      <c r="I48" s="8">
         <v>42</v>
       </c>
-      <c r="J48" s="7">
+      <c r="J48" s="8">
         <v>231</v>
       </c>
-      <c r="K48" s="8">
+      <c r="K48" s="9">
         <v>2.7300000190734863</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M48" s="2" t="s">
         <v>5</v>
@@ -7290,12 +7304,12 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B49" s="6">
+        <v>65</v>
+      </c>
+      <c r="B49" s="7">
         <v>4934</v>
       </c>
-      <c r="C49" s="7">
+      <c r="C49" s="8">
         <v>18</v>
       </c>
       <c r="D49" s="2" t="s">
@@ -7304,26 +7318,26 @@
       <c r="E49" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F49" s="7">
+      <c r="F49" s="8">
         <v>7</v>
       </c>
-      <c r="G49" s="6">
+      <c r="G49" s="7">
         <v>3470</v>
       </c>
-      <c r="H49" s="7">
+      <c r="H49" s="8">
         <v>198</v>
       </c>
-      <c r="I49" s="7">
+      <c r="I49" s="8">
         <v>42</v>
       </c>
-      <c r="J49" s="7">
+      <c r="J49" s="8">
         <v>231</v>
       </c>
-      <c r="K49" s="8">
+      <c r="K49" s="9">
         <v>3.0799999237060547</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M49" s="2" t="s">
         <v>2</v>
@@ -7334,12 +7348,12 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B50" s="6">
+        <v>66</v>
+      </c>
+      <c r="B50" s="7">
         <v>5222</v>
       </c>
-      <c r="C50" s="7">
+      <c r="C50" s="8">
         <v>19</v>
       </c>
       <c r="D50" s="2" t="s">
@@ -7348,26 +7362,26 @@
       <c r="E50" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F50" s="7">
+      <c r="F50" s="8">
         <v>16</v>
       </c>
-      <c r="G50" s="6">
+      <c r="G50" s="7">
         <v>3210</v>
       </c>
-      <c r="H50" s="7">
+      <c r="H50" s="8">
         <v>201</v>
       </c>
-      <c r="I50" s="7">
+      <c r="I50" s="8">
         <v>45</v>
       </c>
-      <c r="J50" s="7">
+      <c r="J50" s="8">
         <v>231</v>
       </c>
-      <c r="K50" s="8">
+      <c r="K50" s="9">
         <v>2.9300000667572021</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M50" s="2" t="s">
         <v>4</v>
@@ -7378,12 +7392,12 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B51" s="6">
+        <v>67</v>
+      </c>
+      <c r="B51" s="7">
         <v>4723</v>
       </c>
-      <c r="C51" s="7">
+      <c r="C51" s="8">
         <v>19</v>
       </c>
       <c r="D51" s="2" t="s">
@@ -7392,26 +7406,26 @@
       <c r="E51" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F51" s="7">
+      <c r="F51" s="8">
         <v>17</v>
       </c>
-      <c r="G51" s="6">
+      <c r="G51" s="7">
         <v>3200</v>
       </c>
-      <c r="H51" s="7">
+      <c r="H51" s="8">
         <v>199</v>
       </c>
-      <c r="I51" s="7">
+      <c r="I51" s="8">
         <v>40</v>
       </c>
-      <c r="J51" s="7">
+      <c r="J51" s="8">
         <v>231</v>
       </c>
-      <c r="K51" s="8">
+      <c r="K51" s="9">
         <v>2.9300000667572021</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M51" s="2" t="s">
         <v>4</v>
@@ -7422,43 +7436,43 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B52" s="6">
+        <v>68</v>
+      </c>
+      <c r="B52" s="7">
         <v>4424</v>
       </c>
-      <c r="C52" s="7">
+      <c r="C52" s="8">
         <v>19</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F52" s="7">
+      <c r="F52" s="8">
         <v>13</v>
       </c>
-      <c r="G52" s="6">
+      <c r="G52" s="7">
         <v>3420</v>
       </c>
-      <c r="H52" s="7">
+      <c r="H52" s="8">
         <v>203</v>
       </c>
-      <c r="I52" s="7">
+      <c r="I52" s="8">
         <v>43</v>
       </c>
-      <c r="J52" s="7">
+      <c r="J52" s="8">
         <v>231</v>
       </c>
-      <c r="K52" s="8">
+      <c r="K52" s="9">
         <v>3.0799999237060547</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="N52" s="2" t="s">
         <v>10</v>
@@ -7466,12 +7480,12 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B53" s="6">
+        <v>69</v>
+      </c>
+      <c r="B53" s="7">
         <v>4172</v>
       </c>
-      <c r="C53" s="7">
+      <c r="C53" s="8">
         <v>24</v>
       </c>
       <c r="D53" s="2" t="s">
@@ -7480,26 +7494,26 @@
       <c r="E53" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F53" s="7">
+      <c r="F53" s="8">
         <v>7</v>
       </c>
-      <c r="G53" s="6">
+      <c r="G53" s="7">
         <v>2690</v>
       </c>
-      <c r="H53" s="7">
+      <c r="H53" s="8">
         <v>179</v>
       </c>
-      <c r="I53" s="7">
+      <c r="I53" s="8">
         <v>41</v>
       </c>
-      <c r="J53" s="7">
+      <c r="J53" s="8">
         <v>151</v>
       </c>
-      <c r="K53" s="8">
+      <c r="K53" s="9">
         <v>2.7300000190734863</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M53" s="2" t="s">
         <v>3</v>
@@ -7510,12 +7524,12 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B54" s="6">
+        <v>70</v>
+      </c>
+      <c r="B54" s="7">
         <v>9690</v>
       </c>
-      <c r="C54" s="7">
+      <c r="C54" s="8">
         <v>17</v>
       </c>
       <c r="D54" s="2" t="s">
@@ -7524,26 +7538,26 @@
       <c r="E54" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F54" s="7">
+      <c r="F54" s="8">
         <v>15</v>
       </c>
-      <c r="G54" s="6">
+      <c r="G54" s="7">
         <v>2830</v>
       </c>
-      <c r="H54" s="7">
+      <c r="H54" s="8">
         <v>189</v>
       </c>
-      <c r="I54" s="7">
+      <c r="I54" s="8">
         <v>37</v>
       </c>
-      <c r="J54" s="7">
+      <c r="J54" s="8">
         <v>131</v>
       </c>
-      <c r="K54" s="8">
+      <c r="K54" s="9">
         <v>3.2000000476837158</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M54" s="2" t="s">
         <v>6</v>
@@ -7554,12 +7568,12 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B55" s="6">
+        <v>71</v>
+      </c>
+      <c r="B55" s="7">
         <v>6295</v>
       </c>
-      <c r="C55" s="7">
+      <c r="C55" s="8">
         <v>23</v>
       </c>
       <c r="D55" s="2" t="s">
@@ -7568,26 +7582,26 @@
       <c r="E55" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F55" s="7">
+      <c r="F55" s="8">
         <v>11</v>
       </c>
-      <c r="G55" s="6">
+      <c r="G55" s="7">
         <v>2070</v>
       </c>
-      <c r="H55" s="7">
+      <c r="H55" s="8">
         <v>174</v>
       </c>
-      <c r="I55" s="7">
+      <c r="I55" s="8">
         <v>36</v>
       </c>
-      <c r="J55" s="7">
+      <c r="J55" s="8">
         <v>97</v>
       </c>
-      <c r="K55" s="8">
+      <c r="K55" s="9">
         <v>3.7000000476837158</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M55" s="2" t="s">
         <v>4</v>
@@ -7598,12 +7612,12 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B56" s="6">
+        <v>72</v>
+      </c>
+      <c r="B56" s="7">
         <v>9735</v>
       </c>
-      <c r="C56" s="7">
+      <c r="C56" s="8">
         <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
@@ -7612,26 +7626,26 @@
       <c r="E56" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F56" s="7">
+      <c r="F56" s="8">
         <v>12</v>
       </c>
-      <c r="G56" s="6">
+      <c r="G56" s="7">
         <v>2650</v>
       </c>
-      <c r="H56" s="7">
+      <c r="H56" s="8">
         <v>177</v>
       </c>
-      <c r="I56" s="7">
+      <c r="I56" s="8">
         <v>34</v>
       </c>
-      <c r="J56" s="7">
+      <c r="J56" s="8">
         <v>121</v>
       </c>
-      <c r="K56" s="8">
+      <c r="K56" s="9">
         <v>3.6400001049041748</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M56" s="2" t="s">
         <v>5</v>
@@ -7642,12 +7656,12 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B57" s="6">
+        <v>73</v>
+      </c>
+      <c r="B57" s="7">
         <v>6229</v>
       </c>
-      <c r="C57" s="7">
+      <c r="C57" s="8">
         <v>23</v>
       </c>
       <c r="D57" s="2" t="s">
@@ -7656,26 +7670,26 @@
       <c r="E57" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F57" s="7">
+      <c r="F57" s="8">
         <v>6</v>
       </c>
-      <c r="G57" s="6">
+      <c r="G57" s="7">
         <v>2370</v>
       </c>
-      <c r="H57" s="7">
+      <c r="H57" s="8">
         <v>170</v>
       </c>
-      <c r="I57" s="7">
+      <c r="I57" s="8">
         <v>35</v>
       </c>
-      <c r="J57" s="7">
+      <c r="J57" s="8">
         <v>119</v>
       </c>
-      <c r="K57" s="8">
+      <c r="K57" s="9">
         <v>3.8900001049041748</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M57" s="2" t="s">
         <v>5</v>
@@ -7686,12 +7700,12 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B58" s="6">
+        <v>74</v>
+      </c>
+      <c r="B58" s="7">
         <v>4589</v>
       </c>
-      <c r="C58" s="7">
+      <c r="C58" s="8">
         <v>35</v>
       </c>
       <c r="D58" s="2" t="s">
@@ -7700,26 +7714,26 @@
       <c r="E58" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F58" s="7">
+      <c r="F58" s="8">
         <v>8</v>
       </c>
-      <c r="G58" s="6">
+      <c r="G58" s="7">
         <v>2020</v>
       </c>
-      <c r="H58" s="7">
+      <c r="H58" s="8">
         <v>165</v>
       </c>
-      <c r="I58" s="7">
+      <c r="I58" s="8">
         <v>32</v>
       </c>
-      <c r="J58" s="7">
+      <c r="J58" s="8">
         <v>85</v>
       </c>
-      <c r="K58" s="8">
+      <c r="K58" s="9">
         <v>3.7000000476837158</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M58" s="2" t="s">
         <v>6</v>
@@ -7730,12 +7744,12 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B59" s="6">
+        <v>75</v>
+      </c>
+      <c r="B59" s="7">
         <v>5079</v>
       </c>
-      <c r="C59" s="7">
+      <c r="C59" s="8">
         <v>24</v>
       </c>
       <c r="D59" s="2" t="s">
@@ -7744,26 +7758,26 @@
       <c r="E59" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F59" s="7">
+      <c r="F59" s="8">
         <v>8</v>
       </c>
-      <c r="G59" s="6">
+      <c r="G59" s="7">
         <v>2280</v>
       </c>
-      <c r="H59" s="7">
+      <c r="H59" s="8">
         <v>170</v>
       </c>
-      <c r="I59" s="7">
+      <c r="I59" s="8">
         <v>34</v>
       </c>
-      <c r="J59" s="7">
+      <c r="J59" s="8">
         <v>119</v>
       </c>
-      <c r="K59" s="8">
+      <c r="K59" s="9">
         <v>3.5399999618530273</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M59" s="2" t="s">
         <v>5</v>
@@ -7774,12 +7788,12 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B60" s="6">
+        <v>76</v>
+      </c>
+      <c r="B60" s="7">
         <v>8129</v>
       </c>
-      <c r="C60" s="7">
+      <c r="C60" s="8">
         <v>21</v>
       </c>
       <c r="D60" s="2" t="s">
@@ -7788,26 +7802,26 @@
       <c r="E60" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F60" s="7">
+      <c r="F60" s="8">
         <v>8</v>
       </c>
-      <c r="G60" s="6">
+      <c r="G60" s="7">
         <v>2750</v>
       </c>
-      <c r="H60" s="7">
+      <c r="H60" s="8">
         <v>184</v>
       </c>
-      <c r="I60" s="7">
+      <c r="I60" s="8">
         <v>38</v>
       </c>
-      <c r="J60" s="7">
+      <c r="J60" s="8">
         <v>146</v>
       </c>
-      <c r="K60" s="8">
+      <c r="K60" s="9">
         <v>3.5499999523162842</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M60" s="2" t="s">
         <v>5</v>
@@ -7818,12 +7832,12 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B61" s="6">
+        <v>77</v>
+      </c>
+      <c r="B61" s="7">
         <v>4296</v>
       </c>
-      <c r="C61" s="7">
+      <c r="C61" s="8">
         <v>21</v>
       </c>
       <c r="D61" s="2" t="s">
@@ -7832,26 +7846,26 @@
       <c r="E61" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F61" s="7">
+      <c r="F61" s="8">
         <v>16</v>
       </c>
-      <c r="G61" s="6">
+      <c r="G61" s="7">
         <v>2130</v>
       </c>
-      <c r="H61" s="7">
+      <c r="H61" s="8">
         <v>161</v>
       </c>
-      <c r="I61" s="7">
+      <c r="I61" s="8">
         <v>36</v>
       </c>
-      <c r="J61" s="7">
-        <v>105</v>
-      </c>
-      <c r="K61" s="8">
+      <c r="J61" s="8">
+        <v>105</v>
+      </c>
+      <c r="K61" s="9">
         <v>3.369999885559082</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M61" s="2" t="s">
         <v>4</v>
@@ -7862,12 +7876,12 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B62" s="6">
+        <v>78</v>
+      </c>
+      <c r="B62" s="7">
         <v>5799</v>
       </c>
-      <c r="C62" s="7">
+      <c r="C62" s="8">
         <v>25</v>
       </c>
       <c r="D62" s="2" t="s">
@@ -7876,26 +7890,26 @@
       <c r="E62" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F62" s="7">
-        <v>10</v>
-      </c>
-      <c r="G62" s="6">
+      <c r="F62" s="8">
+        <v>10</v>
+      </c>
+      <c r="G62" s="7">
         <v>2240</v>
       </c>
-      <c r="H62" s="7">
+      <c r="H62" s="8">
         <v>172</v>
       </c>
-      <c r="I62" s="7">
+      <c r="I62" s="8">
         <v>36</v>
       </c>
-      <c r="J62" s="7">
+      <c r="J62" s="8">
         <v>107</v>
       </c>
-      <c r="K62" s="8">
+      <c r="K62" s="9">
         <v>3.0499999523162842</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M62" s="2" t="s">
         <v>6</v>
@@ -7906,12 +7920,12 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B63" s="6">
+        <v>79</v>
+      </c>
+      <c r="B63" s="7">
         <v>4499</v>
       </c>
-      <c r="C63" s="7">
+      <c r="C63" s="8">
         <v>28</v>
       </c>
       <c r="D63" s="2" t="s">
@@ -7920,26 +7934,26 @@
       <c r="E63" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F63" s="7">
+      <c r="F63" s="8">
         <v>5</v>
       </c>
-      <c r="G63" s="6">
+      <c r="G63" s="7">
         <v>1760</v>
       </c>
-      <c r="H63" s="7">
+      <c r="H63" s="8">
         <v>149</v>
       </c>
-      <c r="I63" s="7">
+      <c r="I63" s="8">
         <v>34</v>
       </c>
-      <c r="J63" s="7">
+      <c r="J63" s="8">
         <v>91</v>
       </c>
-      <c r="K63" s="8">
+      <c r="K63" s="9">
         <v>3.2999999523162842</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M63" s="2" t="s">
         <v>5</v>
@@ -7950,12 +7964,12 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B64" s="6">
+        <v>80</v>
+      </c>
+      <c r="B64" s="7">
         <v>3995</v>
       </c>
-      <c r="C64" s="7">
+      <c r="C64" s="8">
         <v>30</v>
       </c>
       <c r="D64" s="2" t="s">
@@ -7964,26 +7978,26 @@
       <c r="E64" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F64" s="7">
+      <c r="F64" s="8">
         <v>11</v>
       </c>
-      <c r="G64" s="6">
+      <c r="G64" s="7">
         <v>1980</v>
       </c>
-      <c r="H64" s="7">
+      <c r="H64" s="8">
         <v>154</v>
       </c>
-      <c r="I64" s="7">
+      <c r="I64" s="8">
         <v>33</v>
       </c>
-      <c r="J64" s="7">
+      <c r="J64" s="8">
         <v>86</v>
       </c>
-      <c r="K64" s="8">
+      <c r="K64" s="9">
         <v>3.7300000190734863</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M64" s="2" t="s">
         <v>5</v>
@@ -7994,43 +8008,43 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B65" s="6">
+        <v>81</v>
+      </c>
+      <c r="B65" s="7">
         <v>12990</v>
       </c>
-      <c r="C65" s="7">
+      <c r="C65" s="8">
         <v>14</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F65" s="7">
+      <c r="F65" s="8">
         <v>14</v>
       </c>
-      <c r="G65" s="6">
+      <c r="G65" s="7">
         <v>3420</v>
       </c>
-      <c r="H65" s="7">
+      <c r="H65" s="8">
         <v>192</v>
       </c>
-      <c r="I65" s="7">
+      <c r="I65" s="8">
         <v>38</v>
       </c>
-      <c r="J65" s="7">
+      <c r="J65" s="8">
         <v>163</v>
       </c>
-      <c r="K65" s="8">
+      <c r="K65" s="9">
         <v>3.5799999237060547</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="N65" s="2" t="s">
         <v>10</v>
@@ -8038,40 +8052,40 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B66" s="7">
+        <v>3895</v>
+      </c>
+      <c r="C66" s="8">
+        <v>26</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66" s="8">
+        <v>10</v>
+      </c>
+      <c r="G66" s="7">
+        <v>1830</v>
+      </c>
+      <c r="H66" s="8">
+        <v>142</v>
+      </c>
+      <c r="I66" s="8">
+        <v>34</v>
+      </c>
+      <c r="J66" s="8">
         <v>79</v>
       </c>
-      <c r="B66" s="6">
-        <v>3895</v>
-      </c>
-      <c r="C66" s="7">
-        <v>26</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F66" s="7">
-        <v>10</v>
-      </c>
-      <c r="G66" s="6">
-        <v>1830</v>
-      </c>
-      <c r="H66" s="7">
-        <v>142</v>
-      </c>
-      <c r="I66" s="7">
-        <v>34</v>
-      </c>
-      <c r="J66" s="7">
-        <v>79</v>
-      </c>
-      <c r="K66" s="8">
+      <c r="K66" s="9">
         <v>3.7200000286102295</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M66" s="2" t="s">
         <v>4</v>
@@ -8082,12 +8096,12 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B67" s="6">
+        <v>83</v>
+      </c>
+      <c r="B67" s="7">
         <v>3798</v>
       </c>
-      <c r="C67" s="7">
+      <c r="C67" s="8">
         <v>35</v>
       </c>
       <c r="D67" s="2" t="s">
@@ -8096,26 +8110,26 @@
       <c r="E67" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F67" s="7">
+      <c r="F67" s="8">
         <v>11</v>
       </c>
-      <c r="G67" s="6">
+      <c r="G67" s="7">
         <v>2050</v>
       </c>
-      <c r="H67" s="7">
+      <c r="H67" s="8">
         <v>164</v>
       </c>
-      <c r="I67" s="7">
+      <c r="I67" s="8">
         <v>36</v>
       </c>
-      <c r="J67" s="7">
+      <c r="J67" s="8">
         <v>97</v>
       </c>
-      <c r="K67" s="8">
+      <c r="K67" s="9">
         <v>3.809999942779541</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M67" s="2" t="s">
         <v>6</v>
@@ -8126,12 +8140,12 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B68" s="6">
+        <v>84</v>
+      </c>
+      <c r="B68" s="7">
         <v>5899</v>
       </c>
-      <c r="C68" s="7">
+      <c r="C68" s="8">
         <v>18</v>
       </c>
       <c r="D68" s="2" t="s">
@@ -8140,26 +8154,26 @@
       <c r="E68" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F68" s="7">
+      <c r="F68" s="8">
         <v>14</v>
       </c>
-      <c r="G68" s="6">
+      <c r="G68" s="7">
         <v>2410</v>
       </c>
-      <c r="H68" s="7">
+      <c r="H68" s="8">
         <v>174</v>
       </c>
-      <c r="I68" s="7">
+      <c r="I68" s="8">
         <v>36</v>
       </c>
-      <c r="J68" s="7">
+      <c r="J68" s="8">
         <v>134</v>
       </c>
-      <c r="K68" s="8">
+      <c r="K68" s="9">
         <v>3.059999942779541</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M68" s="2" t="s">
         <v>6</v>
@@ -8170,12 +8184,12 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B69" s="6">
+        <v>85</v>
+      </c>
+      <c r="B69" s="7">
         <v>3748</v>
       </c>
-      <c r="C69" s="7">
+      <c r="C69" s="8">
         <v>31</v>
       </c>
       <c r="D69" s="2" t="s">
@@ -8184,26 +8198,26 @@
       <c r="E69" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F69" s="7">
-        <v>9</v>
-      </c>
-      <c r="G69" s="6">
+      <c r="F69" s="8">
+        <v>9</v>
+      </c>
+      <c r="G69" s="7">
         <v>2200</v>
       </c>
-      <c r="H69" s="7">
+      <c r="H69" s="8">
         <v>165</v>
       </c>
-      <c r="I69" s="7">
+      <c r="I69" s="8">
         <v>35</v>
       </c>
-      <c r="J69" s="7">
+      <c r="J69" s="8">
         <v>97</v>
       </c>
-      <c r="K69" s="8">
+      <c r="K69" s="9">
         <v>3.2100000381469727</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M69" s="2" t="s">
         <v>6</v>
@@ -8214,12 +8228,12 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B70" s="6">
+        <v>86</v>
+      </c>
+      <c r="B70" s="7">
         <v>5719</v>
       </c>
-      <c r="C70" s="7">
+      <c r="C70" s="8">
         <v>18</v>
       </c>
       <c r="D70" s="2" t="s">
@@ -8228,26 +8242,26 @@
       <c r="E70" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F70" s="7">
+      <c r="F70" s="8">
         <v>11</v>
       </c>
-      <c r="G70" s="6">
+      <c r="G70" s="7">
         <v>2670</v>
       </c>
-      <c r="H70" s="7">
+      <c r="H70" s="8">
         <v>175</v>
       </c>
-      <c r="I70" s="7">
+      <c r="I70" s="8">
         <v>36</v>
       </c>
-      <c r="J70" s="7">
+      <c r="J70" s="8">
         <v>134</v>
       </c>
-      <c r="K70" s="8">
+      <c r="K70" s="9">
         <v>3.0499999523162842</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M70" s="2" t="s">
         <v>6</v>
@@ -8258,12 +8272,12 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B71" s="6">
+        <v>87</v>
+      </c>
+      <c r="B71" s="7">
         <v>7140</v>
       </c>
-      <c r="C71" s="7">
+      <c r="C71" s="8">
         <v>23</v>
       </c>
       <c r="D71" s="2" t="s">
@@ -8272,26 +8286,26 @@
       <c r="E71" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F71" s="7">
+      <c r="F71" s="8">
         <v>12</v>
       </c>
-      <c r="G71" s="6">
+      <c r="G71" s="7">
         <v>2160</v>
       </c>
-      <c r="H71" s="7">
+      <c r="H71" s="8">
         <v>172</v>
       </c>
-      <c r="I71" s="7">
+      <c r="I71" s="8">
         <v>36</v>
       </c>
-      <c r="J71" s="7">
+      <c r="J71" s="8">
         <v>97</v>
       </c>
-      <c r="K71" s="8">
+      <c r="K71" s="9">
         <v>3.7400000095367432</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M71" s="2" t="s">
         <v>5</v>
@@ -8302,12 +8316,12 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B72" s="6">
+        <v>88</v>
+      </c>
+      <c r="B72" s="7">
         <v>5397</v>
       </c>
-      <c r="C72" s="7">
+      <c r="C72" s="8">
         <v>41</v>
       </c>
       <c r="D72" s="2" t="s">
@@ -8316,26 +8330,26 @@
       <c r="E72" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F72" s="7">
+      <c r="F72" s="8">
         <v>15</v>
       </c>
-      <c r="G72" s="6">
+      <c r="G72" s="7">
         <v>2040</v>
       </c>
-      <c r="H72" s="7">
+      <c r="H72" s="8">
         <v>155</v>
       </c>
-      <c r="I72" s="7">
+      <c r="I72" s="8">
         <v>35</v>
       </c>
-      <c r="J72" s="7">
+      <c r="J72" s="8">
         <v>90</v>
       </c>
-      <c r="K72" s="8">
+      <c r="K72" s="9">
         <v>3.7799999713897705</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M72" s="2" t="s">
         <v>6</v>
@@ -8346,12 +8360,12 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B73" s="6">
+        <v>89</v>
+      </c>
+      <c r="B73" s="7">
         <v>4697</v>
       </c>
-      <c r="C73" s="7">
+      <c r="C73" s="8">
         <v>25</v>
       </c>
       <c r="D73" s="2" t="s">
@@ -8360,26 +8374,26 @@
       <c r="E73" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F73" s="7">
+      <c r="F73" s="8">
         <v>15</v>
       </c>
-      <c r="G73" s="6">
+      <c r="G73" s="7">
         <v>1930</v>
       </c>
-      <c r="H73" s="7">
+      <c r="H73" s="8">
         <v>155</v>
       </c>
-      <c r="I73" s="7">
+      <c r="I73" s="8">
         <v>35</v>
       </c>
-      <c r="J73" s="7">
+      <c r="J73" s="8">
         <v>89</v>
       </c>
-      <c r="K73" s="8">
+      <c r="K73" s="9">
         <v>3.7799999713897705</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M73" s="2" t="s">
         <v>5</v>
@@ -8390,12 +8404,12 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B74" s="6">
+        <v>90</v>
+      </c>
+      <c r="B74" s="7">
         <v>6850</v>
       </c>
-      <c r="C74" s="7">
+      <c r="C74" s="8">
         <v>25</v>
       </c>
       <c r="D74" s="2" t="s">
@@ -8404,26 +8418,26 @@
       <c r="E74" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F74" s="7">
+      <c r="F74" s="8">
         <v>16</v>
       </c>
-      <c r="G74" s="6">
+      <c r="G74" s="7">
         <v>1990</v>
       </c>
-      <c r="H74" s="7">
+      <c r="H74" s="8">
         <v>156</v>
       </c>
-      <c r="I74" s="7">
+      <c r="I74" s="8">
         <v>36</v>
       </c>
-      <c r="J74" s="7">
+      <c r="J74" s="8">
         <v>97</v>
       </c>
-      <c r="K74" s="8">
+      <c r="K74" s="9">
         <v>3.7799999713897705</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M74" s="2" t="s">
         <v>5</v>
@@ -8434,12 +8448,12 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B75" s="6">
+        <v>91</v>
+      </c>
+      <c r="B75" s="7">
         <v>11995</v>
       </c>
-      <c r="C75" s="7">
+      <c r="C75" s="8">
         <v>17</v>
       </c>
       <c r="D75" s="2" t="s">
@@ -8448,26 +8462,26 @@
       <c r="E75" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F75" s="7">
+      <c r="F75" s="8">
         <v>14</v>
       </c>
-      <c r="G75" s="6">
+      <c r="G75" s="7">
         <v>3170</v>
       </c>
-      <c r="H75" s="7">
+      <c r="H75" s="8">
         <v>193</v>
       </c>
-      <c r="I75" s="7">
+      <c r="I75" s="8">
         <v>37</v>
       </c>
-      <c r="J75" s="7">
+      <c r="J75" s="8">
         <v>163</v>
       </c>
-      <c r="K75" s="8">
+      <c r="K75" s="9">
         <v>2.9800000190734863</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M75" s="2" t="s">
         <v>6</v>
@@ -8549,7 +8563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81D59EDA-29EF-4B54-BF6D-02E731E6D405}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/sdgindex.xlsx
+++ b/sdgindex.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -368,6 +368,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+    </font>
+    <font>
+      <b/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -377,7 +383,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -388,12 +394,14 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true"/>
@@ -410,6 +418,12 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="true">
+      <alignment textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="true">
+      <alignment textRotation="45"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1818,7 +1832,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CAFD747-961D-4958-B282-966AFB409A3E}">
-  <dimension ref="A1:N75"/>
+  <dimension ref="A1:ZZ75"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1835,48 +1849,736 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="10" t="s">
         <v>96</v>
       </c>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="10"/>
+      <c r="AB1" s="10"/>
+      <c r="AC1" s="10"/>
+      <c r="AD1" s="10"/>
+      <c r="AE1" s="10"/>
+      <c r="AF1" s="10"/>
+      <c r="AG1" s="10"/>
+      <c r="AH1" s="10"/>
+      <c r="AI1" s="10"/>
+      <c r="AJ1" s="10"/>
+      <c r="AK1" s="10"/>
+      <c r="AL1" s="10"/>
+      <c r="AM1" s="10"/>
+      <c r="AN1" s="10"/>
+      <c r="AO1" s="10"/>
+      <c r="AP1" s="10"/>
+      <c r="AQ1" s="10"/>
+      <c r="AR1" s="10"/>
+      <c r="AS1" s="10"/>
+      <c r="AT1" s="10"/>
+      <c r="AU1" s="10"/>
+      <c r="AV1" s="10"/>
+      <c r="AW1" s="10"/>
+      <c r="AX1" s="10"/>
+      <c r="AY1" s="10"/>
+      <c r="AZ1" s="10"/>
+      <c r="BA1" s="10"/>
+      <c r="BB1" s="10"/>
+      <c r="BC1" s="10"/>
+      <c r="BD1" s="10"/>
+      <c r="BE1" s="10"/>
+      <c r="BF1" s="10"/>
+      <c r="BG1" s="10"/>
+      <c r="BH1" s="10"/>
+      <c r="BI1" s="10"/>
+      <c r="BJ1" s="10"/>
+      <c r="BK1" s="10"/>
+      <c r="BL1" s="10"/>
+      <c r="BM1" s="10"/>
+      <c r="BN1" s="10"/>
+      <c r="BO1" s="10"/>
+      <c r="BP1" s="10"/>
+      <c r="BQ1" s="10"/>
+      <c r="BR1" s="10"/>
+      <c r="BS1" s="10"/>
+      <c r="BT1" s="10"/>
+      <c r="BU1" s="10"/>
+      <c r="BV1" s="10"/>
+      <c r="BW1" s="10"/>
+      <c r="BX1" s="10"/>
+      <c r="BY1" s="10"/>
+      <c r="BZ1" s="10"/>
+      <c r="CA1" s="10"/>
+      <c r="CB1" s="10"/>
+      <c r="CC1" s="10"/>
+      <c r="CD1" s="10"/>
+      <c r="CE1" s="10"/>
+      <c r="CF1" s="10"/>
+      <c r="CG1" s="10"/>
+      <c r="CH1" s="10"/>
+      <c r="CI1" s="10"/>
+      <c r="CJ1" s="10"/>
+      <c r="CK1" s="10"/>
+      <c r="CL1" s="10"/>
+      <c r="CM1" s="10"/>
+      <c r="CN1" s="10"/>
+      <c r="CO1" s="10"/>
+      <c r="CP1" s="10"/>
+      <c r="CQ1" s="10"/>
+      <c r="CR1" s="10"/>
+      <c r="CS1" s="10"/>
+      <c r="CT1" s="10"/>
+      <c r="CU1" s="10"/>
+      <c r="CV1" s="10"/>
+      <c r="CW1" s="10"/>
+      <c r="CX1" s="10"/>
+      <c r="CY1" s="10"/>
+      <c r="CZ1" s="10"/>
+      <c r="DA1" s="10"/>
+      <c r="DB1" s="10"/>
+      <c r="DC1" s="10"/>
+      <c r="DD1" s="10"/>
+      <c r="DE1" s="10"/>
+      <c r="DF1" s="10"/>
+      <c r="DG1" s="10"/>
+      <c r="DH1" s="10"/>
+      <c r="DI1" s="10"/>
+      <c r="DJ1" s="10"/>
+      <c r="DK1" s="10"/>
+      <c r="DL1" s="10"/>
+      <c r="DM1" s="10"/>
+      <c r="DN1" s="10"/>
+      <c r="DO1" s="10"/>
+      <c r="DP1" s="10"/>
+      <c r="DQ1" s="10"/>
+      <c r="DR1" s="10"/>
+      <c r="DS1" s="10"/>
+      <c r="DT1" s="10"/>
+      <c r="DU1" s="10"/>
+      <c r="DV1" s="10"/>
+      <c r="DW1" s="10"/>
+      <c r="DX1" s="10"/>
+      <c r="DY1" s="10"/>
+      <c r="DZ1" s="10"/>
+      <c r="EA1" s="10"/>
+      <c r="EB1" s="10"/>
+      <c r="EC1" s="10"/>
+      <c r="ED1" s="10"/>
+      <c r="EE1" s="10"/>
+      <c r="EF1" s="10"/>
+      <c r="EG1" s="10"/>
+      <c r="EH1" s="10"/>
+      <c r="EI1" s="10"/>
+      <c r="EJ1" s="10"/>
+      <c r="EK1" s="10"/>
+      <c r="EL1" s="10"/>
+      <c r="EM1" s="10"/>
+      <c r="EN1" s="10"/>
+      <c r="EO1" s="10"/>
+      <c r="EP1" s="10"/>
+      <c r="EQ1" s="10"/>
+      <c r="ER1" s="10"/>
+      <c r="ES1" s="10"/>
+      <c r="ET1" s="10"/>
+      <c r="EU1" s="10"/>
+      <c r="EV1" s="10"/>
+      <c r="EW1" s="10"/>
+      <c r="EX1" s="10"/>
+      <c r="EY1" s="10"/>
+      <c r="EZ1" s="10"/>
+      <c r="FA1" s="10"/>
+      <c r="FB1" s="10"/>
+      <c r="FC1" s="10"/>
+      <c r="FD1" s="10"/>
+      <c r="FE1" s="10"/>
+      <c r="FF1" s="10"/>
+      <c r="FG1" s="10"/>
+      <c r="FH1" s="10"/>
+      <c r="FI1" s="10"/>
+      <c r="FJ1" s="10"/>
+      <c r="FK1" s="10"/>
+      <c r="FL1" s="10"/>
+      <c r="FM1" s="10"/>
+      <c r="FN1" s="10"/>
+      <c r="FO1" s="10"/>
+      <c r="FP1" s="10"/>
+      <c r="FQ1" s="10"/>
+      <c r="FR1" s="10"/>
+      <c r="FS1" s="10"/>
+      <c r="FT1" s="10"/>
+      <c r="FU1" s="10"/>
+      <c r="FV1" s="10"/>
+      <c r="FW1" s="10"/>
+      <c r="FX1" s="10"/>
+      <c r="FY1" s="10"/>
+      <c r="FZ1" s="10"/>
+      <c r="GA1" s="10"/>
+      <c r="GB1" s="10"/>
+      <c r="GC1" s="10"/>
+      <c r="GD1" s="10"/>
+      <c r="GE1" s="10"/>
+      <c r="GF1" s="10"/>
+      <c r="GG1" s="10"/>
+      <c r="GH1" s="10"/>
+      <c r="GI1" s="10"/>
+      <c r="GJ1" s="10"/>
+      <c r="GK1" s="10"/>
+      <c r="GL1" s="10"/>
+      <c r="GM1" s="10"/>
+      <c r="GN1" s="10"/>
+      <c r="GO1" s="10"/>
+      <c r="GP1" s="10"/>
+      <c r="GQ1" s="10"/>
+      <c r="GR1" s="10"/>
+      <c r="GS1" s="10"/>
+      <c r="GT1" s="10"/>
+      <c r="GU1" s="10"/>
+      <c r="GV1" s="10"/>
+      <c r="GW1" s="10"/>
+      <c r="GX1" s="10"/>
+      <c r="GY1" s="10"/>
+      <c r="GZ1" s="10"/>
+      <c r="HA1" s="10"/>
+      <c r="HB1" s="10"/>
+      <c r="HC1" s="10"/>
+      <c r="HD1" s="10"/>
+      <c r="HE1" s="10"/>
+      <c r="HF1" s="10"/>
+      <c r="HG1" s="10"/>
+      <c r="HH1" s="10"/>
+      <c r="HI1" s="10"/>
+      <c r="HJ1" s="10"/>
+      <c r="HK1" s="10"/>
+      <c r="HL1" s="10"/>
+      <c r="HM1" s="10"/>
+      <c r="HN1" s="10"/>
+      <c r="HO1" s="10"/>
+      <c r="HP1" s="10"/>
+      <c r="HQ1" s="10"/>
+      <c r="HR1" s="10"/>
+      <c r="HS1" s="10"/>
+      <c r="HT1" s="10"/>
+      <c r="HU1" s="10"/>
+      <c r="HV1" s="10"/>
+      <c r="HW1" s="10"/>
+      <c r="HX1" s="10"/>
+      <c r="HY1" s="10"/>
+      <c r="HZ1" s="10"/>
+      <c r="IA1" s="10"/>
+      <c r="IB1" s="10"/>
+      <c r="IC1" s="10"/>
+      <c r="ID1" s="10"/>
+      <c r="IE1" s="10"/>
+      <c r="IF1" s="10"/>
+      <c r="IG1" s="10"/>
+      <c r="IH1" s="10"/>
+      <c r="II1" s="10"/>
+      <c r="IJ1" s="10"/>
+      <c r="IK1" s="10"/>
+      <c r="IL1" s="10"/>
+      <c r="IM1" s="10"/>
+      <c r="IN1" s="10"/>
+      <c r="IO1" s="10"/>
+      <c r="IP1" s="10"/>
+      <c r="IQ1" s="10"/>
+      <c r="IR1" s="10"/>
+      <c r="IS1" s="10"/>
+      <c r="IT1" s="10"/>
+      <c r="IU1" s="10"/>
+      <c r="IV1" s="10"/>
+      <c r="IW1" s="10"/>
+      <c r="IX1" s="10"/>
+      <c r="IY1" s="10"/>
+      <c r="IZ1" s="10"/>
+      <c r="JA1" s="10"/>
+      <c r="JB1" s="10"/>
+      <c r="JC1" s="10"/>
+      <c r="JD1" s="10"/>
+      <c r="JE1" s="10"/>
+      <c r="JF1" s="10"/>
+      <c r="JG1" s="10"/>
+      <c r="JH1" s="10"/>
+      <c r="JI1" s="10"/>
+      <c r="JJ1" s="10"/>
+      <c r="JK1" s="10"/>
+      <c r="JL1" s="10"/>
+      <c r="JM1" s="10"/>
+      <c r="JN1" s="10"/>
+      <c r="JO1" s="10"/>
+      <c r="JP1" s="10"/>
+      <c r="JQ1" s="10"/>
+      <c r="JR1" s="10"/>
+      <c r="JS1" s="10"/>
+      <c r="JT1" s="10"/>
+      <c r="JU1" s="10"/>
+      <c r="JV1" s="10"/>
+      <c r="JW1" s="10"/>
+      <c r="JX1" s="10"/>
+      <c r="JY1" s="10"/>
+      <c r="JZ1" s="10"/>
+      <c r="KA1" s="10"/>
+      <c r="KB1" s="10"/>
+      <c r="KC1" s="10"/>
+      <c r="KD1" s="10"/>
+      <c r="KE1" s="10"/>
+      <c r="KF1" s="10"/>
+      <c r="KG1" s="10"/>
+      <c r="KH1" s="10"/>
+      <c r="KI1" s="10"/>
+      <c r="KJ1" s="10"/>
+      <c r="KK1" s="10"/>
+      <c r="KL1" s="10"/>
+      <c r="KM1" s="10"/>
+      <c r="KN1" s="10"/>
+      <c r="KO1" s="10"/>
+      <c r="KP1" s="10"/>
+      <c r="KQ1" s="10"/>
+      <c r="KR1" s="10"/>
+      <c r="KS1" s="10"/>
+      <c r="KT1" s="10"/>
+      <c r="KU1" s="10"/>
+      <c r="KV1" s="10"/>
+      <c r="KW1" s="10"/>
+      <c r="KX1" s="10"/>
+      <c r="KY1" s="10"/>
+      <c r="KZ1" s="10"/>
+      <c r="LA1" s="10"/>
+      <c r="LB1" s="10"/>
+      <c r="LC1" s="10"/>
+      <c r="LD1" s="10"/>
+      <c r="LE1" s="10"/>
+      <c r="LF1" s="10"/>
+      <c r="LG1" s="10"/>
+      <c r="LH1" s="10"/>
+      <c r="LI1" s="10"/>
+      <c r="LJ1" s="10"/>
+      <c r="LK1" s="10"/>
+      <c r="LL1" s="10"/>
+      <c r="LM1" s="10"/>
+      <c r="LN1" s="10"/>
+      <c r="LO1" s="10"/>
+      <c r="LP1" s="10"/>
+      <c r="LQ1" s="10"/>
+      <c r="LR1" s="10"/>
+      <c r="LS1" s="10"/>
+      <c r="LT1" s="10"/>
+      <c r="LU1" s="10"/>
+      <c r="LV1" s="10"/>
+      <c r="LW1" s="10"/>
+      <c r="LX1" s="10"/>
+      <c r="LY1" s="10"/>
+      <c r="LZ1" s="10"/>
+      <c r="MA1" s="10"/>
+      <c r="MB1" s="10"/>
+      <c r="MC1" s="10"/>
+      <c r="MD1" s="10"/>
+      <c r="ME1" s="10"/>
+      <c r="MF1" s="10"/>
+      <c r="MG1" s="10"/>
+      <c r="MH1" s="10"/>
+      <c r="MI1" s="10"/>
+      <c r="MJ1" s="10"/>
+      <c r="MK1" s="10"/>
+      <c r="ML1" s="10"/>
+      <c r="MM1" s="10"/>
+      <c r="MN1" s="10"/>
+      <c r="MO1" s="10"/>
+      <c r="MP1" s="10"/>
+      <c r="MQ1" s="10"/>
+      <c r="MR1" s="10"/>
+      <c r="MS1" s="10"/>
+      <c r="MT1" s="10"/>
+      <c r="MU1" s="10"/>
+      <c r="MV1" s="10"/>
+      <c r="MW1" s="10"/>
+      <c r="MX1" s="10"/>
+      <c r="MY1" s="10"/>
+      <c r="MZ1" s="10"/>
+      <c r="NA1" s="10"/>
+      <c r="NB1" s="10"/>
+      <c r="NC1" s="10"/>
+      <c r="ND1" s="10"/>
+      <c r="NE1" s="10"/>
+      <c r="NF1" s="10"/>
+      <c r="NG1" s="10"/>
+      <c r="NH1" s="10"/>
+      <c r="NI1" s="10"/>
+      <c r="NJ1" s="10"/>
+      <c r="NK1" s="10"/>
+      <c r="NL1" s="10"/>
+      <c r="NM1" s="10"/>
+      <c r="NN1" s="10"/>
+      <c r="NO1" s="10"/>
+      <c r="NP1" s="10"/>
+      <c r="NQ1" s="10"/>
+      <c r="NR1" s="10"/>
+      <c r="NS1" s="10"/>
+      <c r="NT1" s="10"/>
+      <c r="NU1" s="10"/>
+      <c r="NV1" s="10"/>
+      <c r="NW1" s="10"/>
+      <c r="NX1" s="10"/>
+      <c r="NY1" s="10"/>
+      <c r="NZ1" s="10"/>
+      <c r="OA1" s="10"/>
+      <c r="OB1" s="10"/>
+      <c r="OC1" s="10"/>
+      <c r="OD1" s="10"/>
+      <c r="OE1" s="10"/>
+      <c r="OF1" s="10"/>
+      <c r="OG1" s="10"/>
+      <c r="OH1" s="10"/>
+      <c r="OI1" s="10"/>
+      <c r="OJ1" s="10"/>
+      <c r="OK1" s="10"/>
+      <c r="OL1" s="10"/>
+      <c r="OM1" s="10"/>
+      <c r="ON1" s="10"/>
+      <c r="OO1" s="10"/>
+      <c r="OP1" s="10"/>
+      <c r="OQ1" s="10"/>
+      <c r="OR1" s="10"/>
+      <c r="OS1" s="10"/>
+      <c r="OT1" s="10"/>
+      <c r="OU1" s="10"/>
+      <c r="OV1" s="10"/>
+      <c r="OW1" s="10"/>
+      <c r="OX1" s="10"/>
+      <c r="OY1" s="10"/>
+      <c r="OZ1" s="10"/>
+      <c r="PA1" s="10"/>
+      <c r="PB1" s="10"/>
+      <c r="PC1" s="10"/>
+      <c r="PD1" s="10"/>
+      <c r="PE1" s="10"/>
+      <c r="PF1" s="10"/>
+      <c r="PG1" s="10"/>
+      <c r="PH1" s="10"/>
+      <c r="PI1" s="10"/>
+      <c r="PJ1" s="10"/>
+      <c r="PK1" s="10"/>
+      <c r="PL1" s="10"/>
+      <c r="PM1" s="10"/>
+      <c r="PN1" s="10"/>
+      <c r="PO1" s="10"/>
+      <c r="PP1" s="10"/>
+      <c r="PQ1" s="10"/>
+      <c r="PR1" s="10"/>
+      <c r="PS1" s="10"/>
+      <c r="PT1" s="10"/>
+      <c r="PU1" s="10"/>
+      <c r="PV1" s="10"/>
+      <c r="PW1" s="10"/>
+      <c r="PX1" s="10"/>
+      <c r="PY1" s="10"/>
+      <c r="PZ1" s="10"/>
+      <c r="QA1" s="10"/>
+      <c r="QB1" s="10"/>
+      <c r="QC1" s="10"/>
+      <c r="QD1" s="10"/>
+      <c r="QE1" s="10"/>
+      <c r="QF1" s="10"/>
+      <c r="QG1" s="10"/>
+      <c r="QH1" s="10"/>
+      <c r="QI1" s="10"/>
+      <c r="QJ1" s="10"/>
+      <c r="QK1" s="10"/>
+      <c r="QL1" s="10"/>
+      <c r="QM1" s="10"/>
+      <c r="QN1" s="10"/>
+      <c r="QO1" s="10"/>
+      <c r="QP1" s="10"/>
+      <c r="QQ1" s="10"/>
+      <c r="QR1" s="10"/>
+      <c r="QS1" s="10"/>
+      <c r="QT1" s="10"/>
+      <c r="QU1" s="10"/>
+      <c r="QV1" s="10"/>
+      <c r="QW1" s="10"/>
+      <c r="QX1" s="10"/>
+      <c r="QY1" s="10"/>
+      <c r="QZ1" s="10"/>
+      <c r="RA1" s="10"/>
+      <c r="RB1" s="10"/>
+      <c r="RC1" s="10"/>
+      <c r="RD1" s="10"/>
+      <c r="RE1" s="10"/>
+      <c r="RF1" s="10"/>
+      <c r="RG1" s="10"/>
+      <c r="RH1" s="10"/>
+      <c r="RI1" s="10"/>
+      <c r="RJ1" s="10"/>
+      <c r="RK1" s="10"/>
+      <c r="RL1" s="10"/>
+      <c r="RM1" s="10"/>
+      <c r="RN1" s="10"/>
+      <c r="RO1" s="10"/>
+      <c r="RP1" s="10"/>
+      <c r="RQ1" s="10"/>
+      <c r="RR1" s="10"/>
+      <c r="RS1" s="10"/>
+      <c r="RT1" s="10"/>
+      <c r="RU1" s="10"/>
+      <c r="RV1" s="10"/>
+      <c r="RW1" s="10"/>
+      <c r="RX1" s="10"/>
+      <c r="RY1" s="10"/>
+      <c r="RZ1" s="10"/>
+      <c r="SA1" s="10"/>
+      <c r="SB1" s="10"/>
+      <c r="SC1" s="10"/>
+      <c r="SD1" s="10"/>
+      <c r="SE1" s="10"/>
+      <c r="SF1" s="10"/>
+      <c r="SG1" s="10"/>
+      <c r="SH1" s="10"/>
+      <c r="SI1" s="10"/>
+      <c r="SJ1" s="10"/>
+      <c r="SK1" s="10"/>
+      <c r="SL1" s="10"/>
+      <c r="SM1" s="10"/>
+      <c r="SN1" s="10"/>
+      <c r="SO1" s="10"/>
+      <c r="SP1" s="10"/>
+      <c r="SQ1" s="10"/>
+      <c r="SR1" s="10"/>
+      <c r="SS1" s="10"/>
+      <c r="ST1" s="10"/>
+      <c r="SU1" s="10"/>
+      <c r="SV1" s="10"/>
+      <c r="SW1" s="10"/>
+      <c r="SX1" s="10"/>
+      <c r="SY1" s="10"/>
+      <c r="SZ1" s="10"/>
+      <c r="TA1" s="10"/>
+      <c r="TB1" s="10"/>
+      <c r="TC1" s="10"/>
+      <c r="TD1" s="10"/>
+      <c r="TE1" s="10"/>
+      <c r="TF1" s="10"/>
+      <c r="TG1" s="10"/>
+      <c r="TH1" s="10"/>
+      <c r="TI1" s="10"/>
+      <c r="TJ1" s="10"/>
+      <c r="TK1" s="10"/>
+      <c r="TL1" s="10"/>
+      <c r="TM1" s="10"/>
+      <c r="TN1" s="10"/>
+      <c r="TO1" s="10"/>
+      <c r="TP1" s="10"/>
+      <c r="TQ1" s="10"/>
+      <c r="TR1" s="10"/>
+      <c r="TS1" s="10"/>
+      <c r="TT1" s="10"/>
+      <c r="TU1" s="10"/>
+      <c r="TV1" s="10"/>
+      <c r="TW1" s="10"/>
+      <c r="TX1" s="10"/>
+      <c r="TY1" s="10"/>
+      <c r="TZ1" s="10"/>
+      <c r="UA1" s="10"/>
+      <c r="UB1" s="10"/>
+      <c r="UC1" s="10"/>
+      <c r="UD1" s="10"/>
+      <c r="UE1" s="10"/>
+      <c r="UF1" s="10"/>
+      <c r="UG1" s="10"/>
+      <c r="UH1" s="10"/>
+      <c r="UI1" s="10"/>
+      <c r="UJ1" s="10"/>
+      <c r="UK1" s="10"/>
+      <c r="UL1" s="10"/>
+      <c r="UM1" s="10"/>
+      <c r="UN1" s="10"/>
+      <c r="UO1" s="10"/>
+      <c r="UP1" s="10"/>
+      <c r="UQ1" s="10"/>
+      <c r="UR1" s="10"/>
+      <c r="US1" s="10"/>
+      <c r="UT1" s="10"/>
+      <c r="UU1" s="10"/>
+      <c r="UV1" s="10"/>
+      <c r="UW1" s="10"/>
+      <c r="UX1" s="10"/>
+      <c r="UY1" s="10"/>
+      <c r="UZ1" s="10"/>
+      <c r="VA1" s="10"/>
+      <c r="VB1" s="10"/>
+      <c r="VC1" s="10"/>
+      <c r="VD1" s="10"/>
+      <c r="VE1" s="10"/>
+      <c r="VF1" s="10"/>
+      <c r="VG1" s="10"/>
+      <c r="VH1" s="10"/>
+      <c r="VI1" s="10"/>
+      <c r="VJ1" s="10"/>
+      <c r="VK1" s="10"/>
+      <c r="VL1" s="10"/>
+      <c r="VM1" s="10"/>
+      <c r="VN1" s="10"/>
+      <c r="VO1" s="10"/>
+      <c r="VP1" s="10"/>
+      <c r="VQ1" s="10"/>
+      <c r="VR1" s="10"/>
+      <c r="VS1" s="10"/>
+      <c r="VT1" s="10"/>
+      <c r="VU1" s="10"/>
+      <c r="VV1" s="10"/>
+      <c r="VW1" s="10"/>
+      <c r="VX1" s="10"/>
+      <c r="VY1" s="10"/>
+      <c r="VZ1" s="10"/>
+      <c r="WA1" s="10"/>
+      <c r="WB1" s="10"/>
+      <c r="WC1" s="10"/>
+      <c r="WD1" s="10"/>
+      <c r="WE1" s="10"/>
+      <c r="WF1" s="10"/>
+      <c r="WG1" s="10"/>
+      <c r="WH1" s="10"/>
+      <c r="WI1" s="10"/>
+      <c r="WJ1" s="10"/>
+      <c r="WK1" s="10"/>
+      <c r="WL1" s="10"/>
+      <c r="WM1" s="10"/>
+      <c r="WN1" s="10"/>
+      <c r="WO1" s="10"/>
+      <c r="WP1" s="10"/>
+      <c r="WQ1" s="10"/>
+      <c r="WR1" s="10"/>
+      <c r="WS1" s="10"/>
+      <c r="WT1" s="10"/>
+      <c r="WU1" s="10"/>
+      <c r="WV1" s="10"/>
+      <c r="WW1" s="10"/>
+      <c r="WX1" s="10"/>
+      <c r="WY1" s="10"/>
+      <c r="WZ1" s="10"/>
+      <c r="XA1" s="10"/>
+      <c r="XB1" s="10"/>
+      <c r="XC1" s="10"/>
+      <c r="XD1" s="10"/>
+      <c r="XE1" s="10"/>
+      <c r="XF1" s="10"/>
+      <c r="XG1" s="10"/>
+      <c r="XH1" s="10"/>
+      <c r="XI1" s="10"/>
+      <c r="XJ1" s="10"/>
+      <c r="XK1" s="10"/>
+      <c r="XL1" s="10"/>
+      <c r="XM1" s="10"/>
+      <c r="XN1" s="10"/>
+      <c r="XO1" s="10"/>
+      <c r="XP1" s="10"/>
+      <c r="XQ1" s="10"/>
+      <c r="XR1" s="10"/>
+      <c r="XS1" s="10"/>
+      <c r="XT1" s="10"/>
+      <c r="XU1" s="10"/>
+      <c r="XV1" s="10"/>
+      <c r="XW1" s="10"/>
+      <c r="XX1" s="10"/>
+      <c r="XY1" s="10"/>
+      <c r="XZ1" s="10"/>
+      <c r="YA1" s="10"/>
+      <c r="YB1" s="10"/>
+      <c r="YC1" s="10"/>
+      <c r="YD1" s="10"/>
+      <c r="YE1" s="10"/>
+      <c r="YF1" s="10"/>
+      <c r="YG1" s="10"/>
+      <c r="YH1" s="10"/>
+      <c r="YI1" s="10"/>
+      <c r="YJ1" s="10"/>
+      <c r="YK1" s="10"/>
+      <c r="YL1" s="10"/>
+      <c r="YM1" s="10"/>
+      <c r="YN1" s="10"/>
+      <c r="YO1" s="10"/>
+      <c r="YP1" s="10"/>
+      <c r="YQ1" s="10"/>
+      <c r="YR1" s="10"/>
+      <c r="YS1" s="10"/>
+      <c r="YT1" s="10"/>
+      <c r="YU1" s="10"/>
+      <c r="YV1" s="10"/>
+      <c r="YW1" s="10"/>
+      <c r="YX1" s="10"/>
+      <c r="YY1" s="10"/>
+      <c r="YZ1" s="10"/>
+      <c r="ZA1" s="10"/>
+      <c r="ZB1" s="10"/>
+      <c r="ZC1" s="10"/>
+      <c r="ZD1" s="10"/>
+      <c r="ZE1" s="10"/>
+      <c r="ZF1" s="10"/>
+      <c r="ZG1" s="10"/>
+      <c r="ZH1" s="10"/>
+      <c r="ZI1" s="10"/>
+      <c r="ZJ1" s="10"/>
+      <c r="ZK1" s="10"/>
+      <c r="ZL1" s="10"/>
+      <c r="ZM1" s="10"/>
+      <c r="ZN1" s="10"/>
+      <c r="ZO1" s="10"/>
+      <c r="ZP1" s="10"/>
+      <c r="ZQ1" s="10"/>
+      <c r="ZR1" s="10"/>
+      <c r="ZS1" s="10"/>
+      <c r="ZT1" s="10"/>
+      <c r="ZU1" s="10"/>
+      <c r="ZV1" s="10"/>
+      <c r="ZW1" s="10"/>
+      <c r="ZX1" s="10"/>
+      <c r="ZY1" s="10"/>
+      <c r="ZZ1" s="10"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
@@ -5176,7 +5878,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3AF4C6E-3E65-4E26-AFB9-A800448A3220}">
-  <dimension ref="A1:N75"/>
+  <dimension ref="A1:ZZ75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -5191,48 +5893,736 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="11" t="s">
         <v>96</v>
       </c>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="11"/>
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="11"/>
+      <c r="AH1" s="11"/>
+      <c r="AI1" s="11"/>
+      <c r="AJ1" s="11"/>
+      <c r="AK1" s="11"/>
+      <c r="AL1" s="11"/>
+      <c r="AM1" s="11"/>
+      <c r="AN1" s="11"/>
+      <c r="AO1" s="11"/>
+      <c r="AP1" s="11"/>
+      <c r="AQ1" s="11"/>
+      <c r="AR1" s="11"/>
+      <c r="AS1" s="11"/>
+      <c r="AT1" s="11"/>
+      <c r="AU1" s="11"/>
+      <c r="AV1" s="11"/>
+      <c r="AW1" s="11"/>
+      <c r="AX1" s="11"/>
+      <c r="AY1" s="11"/>
+      <c r="AZ1" s="11"/>
+      <c r="BA1" s="11"/>
+      <c r="BB1" s="11"/>
+      <c r="BC1" s="11"/>
+      <c r="BD1" s="11"/>
+      <c r="BE1" s="11"/>
+      <c r="BF1" s="11"/>
+      <c r="BG1" s="11"/>
+      <c r="BH1" s="11"/>
+      <c r="BI1" s="11"/>
+      <c r="BJ1" s="11"/>
+      <c r="BK1" s="11"/>
+      <c r="BL1" s="11"/>
+      <c r="BM1" s="11"/>
+      <c r="BN1" s="11"/>
+      <c r="BO1" s="11"/>
+      <c r="BP1" s="11"/>
+      <c r="BQ1" s="11"/>
+      <c r="BR1" s="11"/>
+      <c r="BS1" s="11"/>
+      <c r="BT1" s="11"/>
+      <c r="BU1" s="11"/>
+      <c r="BV1" s="11"/>
+      <c r="BW1" s="11"/>
+      <c r="BX1" s="11"/>
+      <c r="BY1" s="11"/>
+      <c r="BZ1" s="11"/>
+      <c r="CA1" s="11"/>
+      <c r="CB1" s="11"/>
+      <c r="CC1" s="11"/>
+      <c r="CD1" s="11"/>
+      <c r="CE1" s="11"/>
+      <c r="CF1" s="11"/>
+      <c r="CG1" s="11"/>
+      <c r="CH1" s="11"/>
+      <c r="CI1" s="11"/>
+      <c r="CJ1" s="11"/>
+      <c r="CK1" s="11"/>
+      <c r="CL1" s="11"/>
+      <c r="CM1" s="11"/>
+      <c r="CN1" s="11"/>
+      <c r="CO1" s="11"/>
+      <c r="CP1" s="11"/>
+      <c r="CQ1" s="11"/>
+      <c r="CR1" s="11"/>
+      <c r="CS1" s="11"/>
+      <c r="CT1" s="11"/>
+      <c r="CU1" s="11"/>
+      <c r="CV1" s="11"/>
+      <c r="CW1" s="11"/>
+      <c r="CX1" s="11"/>
+      <c r="CY1" s="11"/>
+      <c r="CZ1" s="11"/>
+      <c r="DA1" s="11"/>
+      <c r="DB1" s="11"/>
+      <c r="DC1" s="11"/>
+      <c r="DD1" s="11"/>
+      <c r="DE1" s="11"/>
+      <c r="DF1" s="11"/>
+      <c r="DG1" s="11"/>
+      <c r="DH1" s="11"/>
+      <c r="DI1" s="11"/>
+      <c r="DJ1" s="11"/>
+      <c r="DK1" s="11"/>
+      <c r="DL1" s="11"/>
+      <c r="DM1" s="11"/>
+      <c r="DN1" s="11"/>
+      <c r="DO1" s="11"/>
+      <c r="DP1" s="11"/>
+      <c r="DQ1" s="11"/>
+      <c r="DR1" s="11"/>
+      <c r="DS1" s="11"/>
+      <c r="DT1" s="11"/>
+      <c r="DU1" s="11"/>
+      <c r="DV1" s="11"/>
+      <c r="DW1" s="11"/>
+      <c r="DX1" s="11"/>
+      <c r="DY1" s="11"/>
+      <c r="DZ1" s="11"/>
+      <c r="EA1" s="11"/>
+      <c r="EB1" s="11"/>
+      <c r="EC1" s="11"/>
+      <c r="ED1" s="11"/>
+      <c r="EE1" s="11"/>
+      <c r="EF1" s="11"/>
+      <c r="EG1" s="11"/>
+      <c r="EH1" s="11"/>
+      <c r="EI1" s="11"/>
+      <c r="EJ1" s="11"/>
+      <c r="EK1" s="11"/>
+      <c r="EL1" s="11"/>
+      <c r="EM1" s="11"/>
+      <c r="EN1" s="11"/>
+      <c r="EO1" s="11"/>
+      <c r="EP1" s="11"/>
+      <c r="EQ1" s="11"/>
+      <c r="ER1" s="11"/>
+      <c r="ES1" s="11"/>
+      <c r="ET1" s="11"/>
+      <c r="EU1" s="11"/>
+      <c r="EV1" s="11"/>
+      <c r="EW1" s="11"/>
+      <c r="EX1" s="11"/>
+      <c r="EY1" s="11"/>
+      <c r="EZ1" s="11"/>
+      <c r="FA1" s="11"/>
+      <c r="FB1" s="11"/>
+      <c r="FC1" s="11"/>
+      <c r="FD1" s="11"/>
+      <c r="FE1" s="11"/>
+      <c r="FF1" s="11"/>
+      <c r="FG1" s="11"/>
+      <c r="FH1" s="11"/>
+      <c r="FI1" s="11"/>
+      <c r="FJ1" s="11"/>
+      <c r="FK1" s="11"/>
+      <c r="FL1" s="11"/>
+      <c r="FM1" s="11"/>
+      <c r="FN1" s="11"/>
+      <c r="FO1" s="11"/>
+      <c r="FP1" s="11"/>
+      <c r="FQ1" s="11"/>
+      <c r="FR1" s="11"/>
+      <c r="FS1" s="11"/>
+      <c r="FT1" s="11"/>
+      <c r="FU1" s="11"/>
+      <c r="FV1" s="11"/>
+      <c r="FW1" s="11"/>
+      <c r="FX1" s="11"/>
+      <c r="FY1" s="11"/>
+      <c r="FZ1" s="11"/>
+      <c r="GA1" s="11"/>
+      <c r="GB1" s="11"/>
+      <c r="GC1" s="11"/>
+      <c r="GD1" s="11"/>
+      <c r="GE1" s="11"/>
+      <c r="GF1" s="11"/>
+      <c r="GG1" s="11"/>
+      <c r="GH1" s="11"/>
+      <c r="GI1" s="11"/>
+      <c r="GJ1" s="11"/>
+      <c r="GK1" s="11"/>
+      <c r="GL1" s="11"/>
+      <c r="GM1" s="11"/>
+      <c r="GN1" s="11"/>
+      <c r="GO1" s="11"/>
+      <c r="GP1" s="11"/>
+      <c r="GQ1" s="11"/>
+      <c r="GR1" s="11"/>
+      <c r="GS1" s="11"/>
+      <c r="GT1" s="11"/>
+      <c r="GU1" s="11"/>
+      <c r="GV1" s="11"/>
+      <c r="GW1" s="11"/>
+      <c r="GX1" s="11"/>
+      <c r="GY1" s="11"/>
+      <c r="GZ1" s="11"/>
+      <c r="HA1" s="11"/>
+      <c r="HB1" s="11"/>
+      <c r="HC1" s="11"/>
+      <c r="HD1" s="11"/>
+      <c r="HE1" s="11"/>
+      <c r="HF1" s="11"/>
+      <c r="HG1" s="11"/>
+      <c r="HH1" s="11"/>
+      <c r="HI1" s="11"/>
+      <c r="HJ1" s="11"/>
+      <c r="HK1" s="11"/>
+      <c r="HL1" s="11"/>
+      <c r="HM1" s="11"/>
+      <c r="HN1" s="11"/>
+      <c r="HO1" s="11"/>
+      <c r="HP1" s="11"/>
+      <c r="HQ1" s="11"/>
+      <c r="HR1" s="11"/>
+      <c r="HS1" s="11"/>
+      <c r="HT1" s="11"/>
+      <c r="HU1" s="11"/>
+      <c r="HV1" s="11"/>
+      <c r="HW1" s="11"/>
+      <c r="HX1" s="11"/>
+      <c r="HY1" s="11"/>
+      <c r="HZ1" s="11"/>
+      <c r="IA1" s="11"/>
+      <c r="IB1" s="11"/>
+      <c r="IC1" s="11"/>
+      <c r="ID1" s="11"/>
+      <c r="IE1" s="11"/>
+      <c r="IF1" s="11"/>
+      <c r="IG1" s="11"/>
+      <c r="IH1" s="11"/>
+      <c r="II1" s="11"/>
+      <c r="IJ1" s="11"/>
+      <c r="IK1" s="11"/>
+      <c r="IL1" s="11"/>
+      <c r="IM1" s="11"/>
+      <c r="IN1" s="11"/>
+      <c r="IO1" s="11"/>
+      <c r="IP1" s="11"/>
+      <c r="IQ1" s="11"/>
+      <c r="IR1" s="11"/>
+      <c r="IS1" s="11"/>
+      <c r="IT1" s="11"/>
+      <c r="IU1" s="11"/>
+      <c r="IV1" s="11"/>
+      <c r="IW1" s="11"/>
+      <c r="IX1" s="11"/>
+      <c r="IY1" s="11"/>
+      <c r="IZ1" s="11"/>
+      <c r="JA1" s="11"/>
+      <c r="JB1" s="11"/>
+      <c r="JC1" s="11"/>
+      <c r="JD1" s="11"/>
+      <c r="JE1" s="11"/>
+      <c r="JF1" s="11"/>
+      <c r="JG1" s="11"/>
+      <c r="JH1" s="11"/>
+      <c r="JI1" s="11"/>
+      <c r="JJ1" s="11"/>
+      <c r="JK1" s="11"/>
+      <c r="JL1" s="11"/>
+      <c r="JM1" s="11"/>
+      <c r="JN1" s="11"/>
+      <c r="JO1" s="11"/>
+      <c r="JP1" s="11"/>
+      <c r="JQ1" s="11"/>
+      <c r="JR1" s="11"/>
+      <c r="JS1" s="11"/>
+      <c r="JT1" s="11"/>
+      <c r="JU1" s="11"/>
+      <c r="JV1" s="11"/>
+      <c r="JW1" s="11"/>
+      <c r="JX1" s="11"/>
+      <c r="JY1" s="11"/>
+      <c r="JZ1" s="11"/>
+      <c r="KA1" s="11"/>
+      <c r="KB1" s="11"/>
+      <c r="KC1" s="11"/>
+      <c r="KD1" s="11"/>
+      <c r="KE1" s="11"/>
+      <c r="KF1" s="11"/>
+      <c r="KG1" s="11"/>
+      <c r="KH1" s="11"/>
+      <c r="KI1" s="11"/>
+      <c r="KJ1" s="11"/>
+      <c r="KK1" s="11"/>
+      <c r="KL1" s="11"/>
+      <c r="KM1" s="11"/>
+      <c r="KN1" s="11"/>
+      <c r="KO1" s="11"/>
+      <c r="KP1" s="11"/>
+      <c r="KQ1" s="11"/>
+      <c r="KR1" s="11"/>
+      <c r="KS1" s="11"/>
+      <c r="KT1" s="11"/>
+      <c r="KU1" s="11"/>
+      <c r="KV1" s="11"/>
+      <c r="KW1" s="11"/>
+      <c r="KX1" s="11"/>
+      <c r="KY1" s="11"/>
+      <c r="KZ1" s="11"/>
+      <c r="LA1" s="11"/>
+      <c r="LB1" s="11"/>
+      <c r="LC1" s="11"/>
+      <c r="LD1" s="11"/>
+      <c r="LE1" s="11"/>
+      <c r="LF1" s="11"/>
+      <c r="LG1" s="11"/>
+      <c r="LH1" s="11"/>
+      <c r="LI1" s="11"/>
+      <c r="LJ1" s="11"/>
+      <c r="LK1" s="11"/>
+      <c r="LL1" s="11"/>
+      <c r="LM1" s="11"/>
+      <c r="LN1" s="11"/>
+      <c r="LO1" s="11"/>
+      <c r="LP1" s="11"/>
+      <c r="LQ1" s="11"/>
+      <c r="LR1" s="11"/>
+      <c r="LS1" s="11"/>
+      <c r="LT1" s="11"/>
+      <c r="LU1" s="11"/>
+      <c r="LV1" s="11"/>
+      <c r="LW1" s="11"/>
+      <c r="LX1" s="11"/>
+      <c r="LY1" s="11"/>
+      <c r="LZ1" s="11"/>
+      <c r="MA1" s="11"/>
+      <c r="MB1" s="11"/>
+      <c r="MC1" s="11"/>
+      <c r="MD1" s="11"/>
+      <c r="ME1" s="11"/>
+      <c r="MF1" s="11"/>
+      <c r="MG1" s="11"/>
+      <c r="MH1" s="11"/>
+      <c r="MI1" s="11"/>
+      <c r="MJ1" s="11"/>
+      <c r="MK1" s="11"/>
+      <c r="ML1" s="11"/>
+      <c r="MM1" s="11"/>
+      <c r="MN1" s="11"/>
+      <c r="MO1" s="11"/>
+      <c r="MP1" s="11"/>
+      <c r="MQ1" s="11"/>
+      <c r="MR1" s="11"/>
+      <c r="MS1" s="11"/>
+      <c r="MT1" s="11"/>
+      <c r="MU1" s="11"/>
+      <c r="MV1" s="11"/>
+      <c r="MW1" s="11"/>
+      <c r="MX1" s="11"/>
+      <c r="MY1" s="11"/>
+      <c r="MZ1" s="11"/>
+      <c r="NA1" s="11"/>
+      <c r="NB1" s="11"/>
+      <c r="NC1" s="11"/>
+      <c r="ND1" s="11"/>
+      <c r="NE1" s="11"/>
+      <c r="NF1" s="11"/>
+      <c r="NG1" s="11"/>
+      <c r="NH1" s="11"/>
+      <c r="NI1" s="11"/>
+      <c r="NJ1" s="11"/>
+      <c r="NK1" s="11"/>
+      <c r="NL1" s="11"/>
+      <c r="NM1" s="11"/>
+      <c r="NN1" s="11"/>
+      <c r="NO1" s="11"/>
+      <c r="NP1" s="11"/>
+      <c r="NQ1" s="11"/>
+      <c r="NR1" s="11"/>
+      <c r="NS1" s="11"/>
+      <c r="NT1" s="11"/>
+      <c r="NU1" s="11"/>
+      <c r="NV1" s="11"/>
+      <c r="NW1" s="11"/>
+      <c r="NX1" s="11"/>
+      <c r="NY1" s="11"/>
+      <c r="NZ1" s="11"/>
+      <c r="OA1" s="11"/>
+      <c r="OB1" s="11"/>
+      <c r="OC1" s="11"/>
+      <c r="OD1" s="11"/>
+      <c r="OE1" s="11"/>
+      <c r="OF1" s="11"/>
+      <c r="OG1" s="11"/>
+      <c r="OH1" s="11"/>
+      <c r="OI1" s="11"/>
+      <c r="OJ1" s="11"/>
+      <c r="OK1" s="11"/>
+      <c r="OL1" s="11"/>
+      <c r="OM1" s="11"/>
+      <c r="ON1" s="11"/>
+      <c r="OO1" s="11"/>
+      <c r="OP1" s="11"/>
+      <c r="OQ1" s="11"/>
+      <c r="OR1" s="11"/>
+      <c r="OS1" s="11"/>
+      <c r="OT1" s="11"/>
+      <c r="OU1" s="11"/>
+      <c r="OV1" s="11"/>
+      <c r="OW1" s="11"/>
+      <c r="OX1" s="11"/>
+      <c r="OY1" s="11"/>
+      <c r="OZ1" s="11"/>
+      <c r="PA1" s="11"/>
+      <c r="PB1" s="11"/>
+      <c r="PC1" s="11"/>
+      <c r="PD1" s="11"/>
+      <c r="PE1" s="11"/>
+      <c r="PF1" s="11"/>
+      <c r="PG1" s="11"/>
+      <c r="PH1" s="11"/>
+      <c r="PI1" s="11"/>
+      <c r="PJ1" s="11"/>
+      <c r="PK1" s="11"/>
+      <c r="PL1" s="11"/>
+      <c r="PM1" s="11"/>
+      <c r="PN1" s="11"/>
+      <c r="PO1" s="11"/>
+      <c r="PP1" s="11"/>
+      <c r="PQ1" s="11"/>
+      <c r="PR1" s="11"/>
+      <c r="PS1" s="11"/>
+      <c r="PT1" s="11"/>
+      <c r="PU1" s="11"/>
+      <c r="PV1" s="11"/>
+      <c r="PW1" s="11"/>
+      <c r="PX1" s="11"/>
+      <c r="PY1" s="11"/>
+      <c r="PZ1" s="11"/>
+      <c r="QA1" s="11"/>
+      <c r="QB1" s="11"/>
+      <c r="QC1" s="11"/>
+      <c r="QD1" s="11"/>
+      <c r="QE1" s="11"/>
+      <c r="QF1" s="11"/>
+      <c r="QG1" s="11"/>
+      <c r="QH1" s="11"/>
+      <c r="QI1" s="11"/>
+      <c r="QJ1" s="11"/>
+      <c r="QK1" s="11"/>
+      <c r="QL1" s="11"/>
+      <c r="QM1" s="11"/>
+      <c r="QN1" s="11"/>
+      <c r="QO1" s="11"/>
+      <c r="QP1" s="11"/>
+      <c r="QQ1" s="11"/>
+      <c r="QR1" s="11"/>
+      <c r="QS1" s="11"/>
+      <c r="QT1" s="11"/>
+      <c r="QU1" s="11"/>
+      <c r="QV1" s="11"/>
+      <c r="QW1" s="11"/>
+      <c r="QX1" s="11"/>
+      <c r="QY1" s="11"/>
+      <c r="QZ1" s="11"/>
+      <c r="RA1" s="11"/>
+      <c r="RB1" s="11"/>
+      <c r="RC1" s="11"/>
+      <c r="RD1" s="11"/>
+      <c r="RE1" s="11"/>
+      <c r="RF1" s="11"/>
+      <c r="RG1" s="11"/>
+      <c r="RH1" s="11"/>
+      <c r="RI1" s="11"/>
+      <c r="RJ1" s="11"/>
+      <c r="RK1" s="11"/>
+      <c r="RL1" s="11"/>
+      <c r="RM1" s="11"/>
+      <c r="RN1" s="11"/>
+      <c r="RO1" s="11"/>
+      <c r="RP1" s="11"/>
+      <c r="RQ1" s="11"/>
+      <c r="RR1" s="11"/>
+      <c r="RS1" s="11"/>
+      <c r="RT1" s="11"/>
+      <c r="RU1" s="11"/>
+      <c r="RV1" s="11"/>
+      <c r="RW1" s="11"/>
+      <c r="RX1" s="11"/>
+      <c r="RY1" s="11"/>
+      <c r="RZ1" s="11"/>
+      <c r="SA1" s="11"/>
+      <c r="SB1" s="11"/>
+      <c r="SC1" s="11"/>
+      <c r="SD1" s="11"/>
+      <c r="SE1" s="11"/>
+      <c r="SF1" s="11"/>
+      <c r="SG1" s="11"/>
+      <c r="SH1" s="11"/>
+      <c r="SI1" s="11"/>
+      <c r="SJ1" s="11"/>
+      <c r="SK1" s="11"/>
+      <c r="SL1" s="11"/>
+      <c r="SM1" s="11"/>
+      <c r="SN1" s="11"/>
+      <c r="SO1" s="11"/>
+      <c r="SP1" s="11"/>
+      <c r="SQ1" s="11"/>
+      <c r="SR1" s="11"/>
+      <c r="SS1" s="11"/>
+      <c r="ST1" s="11"/>
+      <c r="SU1" s="11"/>
+      <c r="SV1" s="11"/>
+      <c r="SW1" s="11"/>
+      <c r="SX1" s="11"/>
+      <c r="SY1" s="11"/>
+      <c r="SZ1" s="11"/>
+      <c r="TA1" s="11"/>
+      <c r="TB1" s="11"/>
+      <c r="TC1" s="11"/>
+      <c r="TD1" s="11"/>
+      <c r="TE1" s="11"/>
+      <c r="TF1" s="11"/>
+      <c r="TG1" s="11"/>
+      <c r="TH1" s="11"/>
+      <c r="TI1" s="11"/>
+      <c r="TJ1" s="11"/>
+      <c r="TK1" s="11"/>
+      <c r="TL1" s="11"/>
+      <c r="TM1" s="11"/>
+      <c r="TN1" s="11"/>
+      <c r="TO1" s="11"/>
+      <c r="TP1" s="11"/>
+      <c r="TQ1" s="11"/>
+      <c r="TR1" s="11"/>
+      <c r="TS1" s="11"/>
+      <c r="TT1" s="11"/>
+      <c r="TU1" s="11"/>
+      <c r="TV1" s="11"/>
+      <c r="TW1" s="11"/>
+      <c r="TX1" s="11"/>
+      <c r="TY1" s="11"/>
+      <c r="TZ1" s="11"/>
+      <c r="UA1" s="11"/>
+      <c r="UB1" s="11"/>
+      <c r="UC1" s="11"/>
+      <c r="UD1" s="11"/>
+      <c r="UE1" s="11"/>
+      <c r="UF1" s="11"/>
+      <c r="UG1" s="11"/>
+      <c r="UH1" s="11"/>
+      <c r="UI1" s="11"/>
+      <c r="UJ1" s="11"/>
+      <c r="UK1" s="11"/>
+      <c r="UL1" s="11"/>
+      <c r="UM1" s="11"/>
+      <c r="UN1" s="11"/>
+      <c r="UO1" s="11"/>
+      <c r="UP1" s="11"/>
+      <c r="UQ1" s="11"/>
+      <c r="UR1" s="11"/>
+      <c r="US1" s="11"/>
+      <c r="UT1" s="11"/>
+      <c r="UU1" s="11"/>
+      <c r="UV1" s="11"/>
+      <c r="UW1" s="11"/>
+      <c r="UX1" s="11"/>
+      <c r="UY1" s="11"/>
+      <c r="UZ1" s="11"/>
+      <c r="VA1" s="11"/>
+      <c r="VB1" s="11"/>
+      <c r="VC1" s="11"/>
+      <c r="VD1" s="11"/>
+      <c r="VE1" s="11"/>
+      <c r="VF1" s="11"/>
+      <c r="VG1" s="11"/>
+      <c r="VH1" s="11"/>
+      <c r="VI1" s="11"/>
+      <c r="VJ1" s="11"/>
+      <c r="VK1" s="11"/>
+      <c r="VL1" s="11"/>
+      <c r="VM1" s="11"/>
+      <c r="VN1" s="11"/>
+      <c r="VO1" s="11"/>
+      <c r="VP1" s="11"/>
+      <c r="VQ1" s="11"/>
+      <c r="VR1" s="11"/>
+      <c r="VS1" s="11"/>
+      <c r="VT1" s="11"/>
+      <c r="VU1" s="11"/>
+      <c r="VV1" s="11"/>
+      <c r="VW1" s="11"/>
+      <c r="VX1" s="11"/>
+      <c r="VY1" s="11"/>
+      <c r="VZ1" s="11"/>
+      <c r="WA1" s="11"/>
+      <c r="WB1" s="11"/>
+      <c r="WC1" s="11"/>
+      <c r="WD1" s="11"/>
+      <c r="WE1" s="11"/>
+      <c r="WF1" s="11"/>
+      <c r="WG1" s="11"/>
+      <c r="WH1" s="11"/>
+      <c r="WI1" s="11"/>
+      <c r="WJ1" s="11"/>
+      <c r="WK1" s="11"/>
+      <c r="WL1" s="11"/>
+      <c r="WM1" s="11"/>
+      <c r="WN1" s="11"/>
+      <c r="WO1" s="11"/>
+      <c r="WP1" s="11"/>
+      <c r="WQ1" s="11"/>
+      <c r="WR1" s="11"/>
+      <c r="WS1" s="11"/>
+      <c r="WT1" s="11"/>
+      <c r="WU1" s="11"/>
+      <c r="WV1" s="11"/>
+      <c r="WW1" s="11"/>
+      <c r="WX1" s="11"/>
+      <c r="WY1" s="11"/>
+      <c r="WZ1" s="11"/>
+      <c r="XA1" s="11"/>
+      <c r="XB1" s="11"/>
+      <c r="XC1" s="11"/>
+      <c r="XD1" s="11"/>
+      <c r="XE1" s="11"/>
+      <c r="XF1" s="11"/>
+      <c r="XG1" s="11"/>
+      <c r="XH1" s="11"/>
+      <c r="XI1" s="11"/>
+      <c r="XJ1" s="11"/>
+      <c r="XK1" s="11"/>
+      <c r="XL1" s="11"/>
+      <c r="XM1" s="11"/>
+      <c r="XN1" s="11"/>
+      <c r="XO1" s="11"/>
+      <c r="XP1" s="11"/>
+      <c r="XQ1" s="11"/>
+      <c r="XR1" s="11"/>
+      <c r="XS1" s="11"/>
+      <c r="XT1" s="11"/>
+      <c r="XU1" s="11"/>
+      <c r="XV1" s="11"/>
+      <c r="XW1" s="11"/>
+      <c r="XX1" s="11"/>
+      <c r="XY1" s="11"/>
+      <c r="XZ1" s="11"/>
+      <c r="YA1" s="11"/>
+      <c r="YB1" s="11"/>
+      <c r="YC1" s="11"/>
+      <c r="YD1" s="11"/>
+      <c r="YE1" s="11"/>
+      <c r="YF1" s="11"/>
+      <c r="YG1" s="11"/>
+      <c r="YH1" s="11"/>
+      <c r="YI1" s="11"/>
+      <c r="YJ1" s="11"/>
+      <c r="YK1" s="11"/>
+      <c r="YL1" s="11"/>
+      <c r="YM1" s="11"/>
+      <c r="YN1" s="11"/>
+      <c r="YO1" s="11"/>
+      <c r="YP1" s="11"/>
+      <c r="YQ1" s="11"/>
+      <c r="YR1" s="11"/>
+      <c r="YS1" s="11"/>
+      <c r="YT1" s="11"/>
+      <c r="YU1" s="11"/>
+      <c r="YV1" s="11"/>
+      <c r="YW1" s="11"/>
+      <c r="YX1" s="11"/>
+      <c r="YY1" s="11"/>
+      <c r="YZ1" s="11"/>
+      <c r="ZA1" s="11"/>
+      <c r="ZB1" s="11"/>
+      <c r="ZC1" s="11"/>
+      <c r="ZD1" s="11"/>
+      <c r="ZE1" s="11"/>
+      <c r="ZF1" s="11"/>
+      <c r="ZG1" s="11"/>
+      <c r="ZH1" s="11"/>
+      <c r="ZI1" s="11"/>
+      <c r="ZJ1" s="11"/>
+      <c r="ZK1" s="11"/>
+      <c r="ZL1" s="11"/>
+      <c r="ZM1" s="11"/>
+      <c r="ZN1" s="11"/>
+      <c r="ZO1" s="11"/>
+      <c r="ZP1" s="11"/>
+      <c r="ZQ1" s="11"/>
+      <c r="ZR1" s="11"/>
+      <c r="ZS1" s="11"/>
+      <c r="ZT1" s="11"/>
+      <c r="ZU1" s="11"/>
+      <c r="ZV1" s="11"/>
+      <c r="ZW1" s="11"/>
+      <c r="ZX1" s="11"/>
+      <c r="ZY1" s="11"/>
+      <c r="ZZ1" s="11"/>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
